--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\BAZL Synfuels\LCA\LCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="160">
   <si>
     <t>Activity</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>gasoline production, synthetic, from methanol, hydrogen from electrolysis, CO2 from DAC, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
@@ -999,26 +1005,26 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1034,12 +1040,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1075,7 +1081,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>124</v>
       </c>
@@ -1095,7 +1101,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1107,7 +1113,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>125</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>126</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>127</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1259,7 +1265,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>114</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1295,7 +1301,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1327,7 +1333,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>125</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>126</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>127</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>129</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1506,7 +1512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>124</v>
       </c>
@@ -1527,7 +1533,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1540,7 +1546,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>125</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>126</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>127</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>129</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1731,7 +1737,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>124</v>
       </c>
@@ -1752,7 +1758,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1765,7 +1771,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>125</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>126</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>127</v>
       </c>
@@ -1924,21 +1930,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K359"/>
+  <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G340" sqref="G340"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1994,12 +2000,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>150</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>88</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2351,7 +2357,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2399,12 +2405,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>151</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>143</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2756,7 +2762,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2804,12 +2810,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>152</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>144</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>70</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>76</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>78</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>83</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3161,7 +3167,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3209,12 +3215,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>153</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>145</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>70</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>74</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>63</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3566,7 +3572,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3579,7 +3585,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3627,12 +3633,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>154</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>70</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>72</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>74</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>76</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>78</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>63</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>80</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>83</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>88</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3984,7 +3990,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4032,12 +4038,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>155</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>147</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>70</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>72</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>74</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>76</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>78</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>63</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>80</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>83</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>88</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4389,7 +4395,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4437,12 +4443,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>156</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>48</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>70</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>72</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>74</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>76</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>78</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>63</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>80</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>83</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>88</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4794,7 +4800,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4818,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4842,12 +4848,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>149</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>70</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>72</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>74</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>76</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>78</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>63</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>80</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>83</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>88</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5199,7 +5205,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5212,7 +5218,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -5276,12 +5282,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5310,7 +5316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>147</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>139</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>59</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>56</v>
       </c>
@@ -5425,16 +5431,16 @@
         <v>24</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I187" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>0</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -5498,12 +5504,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>9</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>143</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>139</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>91</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>56</v>
       </c>
@@ -5647,16 +5653,16 @@
         <v>24</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I203" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -5720,12 +5726,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>9</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>148</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>139</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>59</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>56</v>
       </c>
@@ -5869,16 +5875,16 @@
         <v>24</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I219" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -5918,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>22</v>
       </c>
@@ -5942,12 +5948,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>9</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>144</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>139</v>
       </c>
@@ -6023,7 +6029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>59</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>48</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>56</v>
       </c>
@@ -6091,19 +6097,19 @@
         <v>24</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I235" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>0</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -6119,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -6127,7 +6133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>42</v>
       </c>
@@ -6159,7 +6165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -6167,12 +6173,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>9</v>
       </c>
@@ -6201,7 +6207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>149</v>
       </c>
@@ -6225,7 +6231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>139</v>
       </c>
@@ -6248,7 +6254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>48</v>
       </c>
@@ -6295,7 +6301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>56</v>
       </c>
@@ -6316,16 +6322,16 @@
         <v>24</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I252" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -6349,7 +6355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>42</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -6389,12 +6395,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>9</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>145</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>139</v>
       </c>
@@ -6470,7 +6476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>59</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>56</v>
       </c>
@@ -6538,19 +6544,19 @@
         <v>24</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I268" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -6566,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>42</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>22</v>
       </c>
@@ -6614,12 +6620,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>9</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>146</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>139</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>59</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>48</v>
       </c>
@@ -6742,7 +6748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>56</v>
       </c>
@@ -6763,16 +6769,16 @@
         <v>24</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I285" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -6828,7 +6834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>22</v>
       </c>
@@ -6836,12 +6842,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>9</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>142</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>139</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>91</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>48</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>56</v>
       </c>
@@ -6985,16 +6991,16 @@
         <v>24</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="I301" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>0</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>42</v>
       </c>
@@ -7018,7 +7024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>22</v>
       </c>
@@ -7050,7 +7056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>42</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>22</v>
       </c>
@@ -7074,12 +7080,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>135</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>139</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -7174,7 +7180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>59</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>47</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>134</v>
       </c>
@@ -7237,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7269,7 +7275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -7277,7 +7283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>42</v>
       </c>
@@ -7293,7 +7299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>22</v>
       </c>
@@ -7301,12 +7307,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>134</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>135</v>
       </c>
@@ -7379,7 +7385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>63</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>48</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>49</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>51</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>53</v>
       </c>
@@ -7499,7 +7505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>56</v>
       </c>
@@ -7517,13 +7523,13 @@
         <v>14</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="H339" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>57</v>
       </c>
@@ -7541,112 +7547,131 @@
         <v>14</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="H340" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A341" s="4"/>
-      <c r="G341" s="4"/>
-    </row>
-    <row r="343" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+    <row r="342" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1</v>
-      </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>12</v>
+      </c>
+      <c r="F350" t="s">
+        <v>4</v>
+      </c>
+      <c r="G350" t="s">
         <v>2</v>
       </c>
-      <c r="B345" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>4</v>
-      </c>
-      <c r="B346" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>6</v>
-      </c>
-      <c r="B347" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>22</v>
-      </c>
-      <c r="B348" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>11</v>
-      </c>
-      <c r="B349" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H350" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>9</v>
-      </c>
-      <c r="B351" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B351">
+        <v>7.2924747866563216E-6</v>
       </c>
       <c r="C351" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
-      </c>
-      <c r="E351" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F351" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G351" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H351" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B352">
-        <v>7.2924747866563216E-6</v>
+        <v>7.4243599689681927E-4</v>
       </c>
       <c r="C352" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D352" t="s">
         <v>13</v>
@@ -7655,21 +7680,21 @@
         <v>28</v>
       </c>
       <c r="G352" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H352" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B353">
-        <v>7.4243599689681927E-4</v>
+        <v>4.1349883630721488E-7</v>
       </c>
       <c r="C353" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D353" t="s">
         <v>13</v>
@@ -7678,68 +7703,68 @@
         <v>28</v>
       </c>
       <c r="G353" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H353" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B354">
-        <v>4.1349883630721488E-7</v>
+        <f>0.00273079906904577/2300</f>
+        <v>1.1873039430633782E-6</v>
       </c>
       <c r="C354" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D354" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F354" t="s">
         <v>28</v>
       </c>
       <c r="G354" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H354" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B355">
-        <f>0.00273079906904577/2300</f>
-        <v>1.1873039430633782E-6</v>
+        <v>1.3045108429904572E-9</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D355" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F355" t="s">
         <v>28</v>
       </c>
       <c r="G355" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H355" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B356">
-        <v>1.3045108429904572E-9</v>
+        <v>5.7536703406069172E-11</v>
       </c>
       <c r="C356" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D356" t="s">
         <v>6</v>
@@ -7748,21 +7773,21 @@
         <v>28</v>
       </c>
       <c r="G356" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H356" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B357">
-        <v>5.7536703406069172E-11</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C357" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D357" t="s">
         <v>6</v>
@@ -7771,55 +7796,32 @@
         <v>28</v>
       </c>
       <c r="G357" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H357" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B358">
-        <v>1.5533182090707562E-11</v>
+        <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D358" t="s">
         <v>6</v>
       </c>
       <c r="F358" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G358" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="H358" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>134</v>
-      </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359" t="s">
-        <v>25</v>
-      </c>
-      <c r="D359" t="s">
-        <v>6</v>
-      </c>
-      <c r="F359" t="s">
-        <v>18</v>
-      </c>
-      <c r="G359" t="s">
-        <v>134</v>
-      </c>
-      <c r="H359" t="s">
         <v>3</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\BAZL Synfuels\LCA\LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
@@ -502,6 +499,9 @@
   </si>
   <si>
     <t>carbon dioxide, captured from the atmosphere</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -683,6 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1005,85 +1006,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1101,7 +1102,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1113,9 +1114,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1148,7 +1149,7 @@
         <v>-0.38792969145635148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1183,9 +1184,9 @@
         <v>-0.65888184002872707</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1218,9 +1219,9 @@
         <v>-0.35954883202740096</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1253,7 +1254,7 @@
         <v>-0.43504101945546791</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1265,45 +1266,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1321,7 +1322,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1333,9 +1334,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1368,7 +1369,7 @@
         <v>-0.38502465592110102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1403,9 +1404,9 @@
         <v>-0.65587776919113905</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1438,9 +1439,9 @@
         <v>-0.35668341061308562</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1473,48 +1474,48 @@
         <v>-0.43222841686906666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="E27" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="K27" s="24" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1533,7 +1534,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1546,9 +1547,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1584,7 +1585,7 @@
         <v>-0.56000658408244952</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1622,9 +1623,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1660,9 +1661,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1698,48 +1699,48 @@
         <v>0.20999506193816231</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>117</v>
-      </c>
       <c r="E36" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="24" t="s">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1758,7 +1759,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1771,9 +1772,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1809,7 +1810,7 @@
         <v>-0.56000658408245041</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1847,9 +1848,9 @@
         <v>0.44319545698310936</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1885,9 +1886,9 @@
         <v>-3.4630116867463481</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1932,35 +1933,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G340" sqref="G340"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1976,15 +1977,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2000,12 +2001,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2025,13 +2026,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -2040,9 +2041,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2063,15 +2064,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2091,10 +2092,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2119,15 +2120,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2141,12 +2142,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2166,12 +2167,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2191,12 +2192,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2216,18 +2217,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>35</v>
@@ -2241,18 +2242,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2266,21 +2267,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2291,12 +2292,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2305,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2316,18 +2317,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>35</v>
@@ -2341,10 +2342,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -2357,15 +2358,15 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2381,15 +2382,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2405,12 +2406,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2430,13 +2431,13 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
         <v>66</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>67</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
@@ -2445,9 +2446,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2468,15 +2469,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2496,10 +2497,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2524,15 +2525,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2546,12 +2547,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2571,12 +2572,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2596,12 +2597,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2621,18 +2622,18 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>35</v>
@@ -2646,18 +2647,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2671,21 +2672,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2696,12 +2697,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2710,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2721,18 +2722,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>35</v>
@@ -2746,10 +2747,10 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -2762,15 +2763,15 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2786,15 +2787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2810,12 +2811,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2835,13 +2836,13 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s">
         <v>66</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>67</v>
-      </c>
-      <c r="I52" t="s">
-        <v>68</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
@@ -2850,9 +2851,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2873,15 +2874,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2901,10 +2902,10 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2929,15 +2930,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2951,12 +2952,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2976,12 +2977,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3001,12 +3002,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3026,18 +3027,18 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>35</v>
@@ -3051,18 +3052,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3076,21 +3077,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3101,12 +3102,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3115,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3126,18 +3127,18 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>35</v>
@@ -3151,10 +3152,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -3167,15 +3168,15 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3191,15 +3192,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3215,12 +3216,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3240,13 +3241,13 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" t="s">
         <v>66</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>67</v>
-      </c>
-      <c r="I73" t="s">
-        <v>68</v>
       </c>
       <c r="J73" t="s">
         <v>42</v>
@@ -3255,9 +3256,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3278,15 +3279,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3306,10 +3307,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -3334,15 +3335,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3356,12 +3357,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3381,12 +3382,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3406,12 +3407,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3431,18 +3432,18 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>35</v>
@@ -3456,18 +3457,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3481,21 +3482,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3506,12 +3507,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3520,7 +3521,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3531,18 +3532,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>35</v>
@@ -3556,10 +3557,10 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -3572,7 +3573,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -3585,15 +3586,15 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3609,15 +3610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3633,12 +3634,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3658,13 +3659,13 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" t="s">
         <v>66</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>67</v>
-      </c>
-      <c r="I95" t="s">
-        <v>68</v>
       </c>
       <c r="J95" t="s">
         <v>42</v>
@@ -3673,9 +3674,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3696,15 +3697,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3724,10 +3725,10 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -3752,15 +3753,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3774,12 +3775,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3799,12 +3800,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3824,12 +3825,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3849,18 +3850,18 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>35</v>
@@ -3874,18 +3875,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3899,21 +3900,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3924,12 +3925,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3938,7 +3939,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3949,18 +3950,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>35</v>
@@ -3974,10 +3975,10 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -3990,15 +3991,15 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -4014,15 +4015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4038,12 +4039,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4063,13 +4064,13 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" t="s">
         <v>66</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>67</v>
-      </c>
-      <c r="I116" t="s">
-        <v>68</v>
       </c>
       <c r="J116" t="s">
         <v>42</v>
@@ -4078,9 +4079,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4101,15 +4102,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4129,10 +4130,10 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -4157,15 +4158,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4179,12 +4180,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4204,12 +4205,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4229,12 +4230,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4254,18 +4255,18 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>35</v>
@@ -4279,18 +4280,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4304,21 +4305,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4329,12 +4330,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4343,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4354,18 +4355,18 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>35</v>
@@ -4379,10 +4380,10 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -4395,15 +4396,15 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4419,15 +4420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4443,12 +4444,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4468,13 +4469,13 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
+        <v>65</v>
+      </c>
+      <c r="H137" t="s">
         <v>66</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>67</v>
-      </c>
-      <c r="I137" t="s">
-        <v>68</v>
       </c>
       <c r="J137" t="s">
         <v>42</v>
@@ -4483,9 +4484,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4506,15 +4507,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4534,10 +4535,10 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>48</v>
       </c>
@@ -4562,15 +4563,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4584,12 +4585,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4609,12 +4610,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4634,12 +4635,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4659,18 +4660,18 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>35</v>
@@ -4684,18 +4685,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4709,21 +4710,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4734,12 +4735,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4748,7 +4749,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4759,18 +4760,18 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>35</v>
@@ -4784,10 +4785,10 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -4800,15 +4801,15 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4824,15 +4825,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4848,12 +4849,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4873,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
+        <v>65</v>
+      </c>
+      <c r="H158" t="s">
         <v>66</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>67</v>
-      </c>
-      <c r="I158" t="s">
-        <v>68</v>
       </c>
       <c r="J158" t="s">
         <v>42</v>
@@ -4888,9 +4889,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4911,15 +4912,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4939,10 +4940,10 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>48</v>
       </c>
@@ -4967,15 +4968,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4989,12 +4990,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5014,12 +5015,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5039,12 +5040,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5064,18 +5065,18 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>35</v>
@@ -5089,18 +5090,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5114,21 +5115,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5139,12 +5140,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5153,7 +5154,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5164,18 +5165,18 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>35</v>
@@ -5189,10 +5190,10 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5205,7 +5206,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5218,15 +5219,15 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5234,15 +5235,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5266,28 +5267,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5316,9 +5317,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5334,15 +5335,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B184" s="5">
         <v>2.2160000000000002</v>
@@ -5357,15 +5358,15 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H184" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B185" s="5">
         <v>0.44</v>
@@ -5383,10 +5384,10 @@
         <v>23</v>
       </c>
       <c r="I185" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -5410,9 +5411,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B187" s="5">
         <f>0.01*B184</f>
@@ -5431,24 +5432,24 @@
         <v>24</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I187" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -5456,15 +5457,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -5488,28 +5489,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>42</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>22</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>9</v>
       </c>
@@ -5538,9 +5539,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5556,15 +5557,15 @@
         <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B200" s="5">
         <v>1.8</v>
@@ -5579,15 +5580,15 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H200" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B201" s="5">
         <v>0.21</v>
@@ -5596,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F201" t="s">
         <v>17</v>
@@ -5605,10 +5606,10 @@
         <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -5632,9 +5633,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B203" s="5">
         <f>0.01*B200</f>
@@ -5653,24 +5654,24 @@
         <v>24</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I203" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -5678,15 +5679,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -5710,28 +5711,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>9</v>
       </c>
@@ -5760,9 +5761,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -5778,15 +5779,15 @@
         <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B216" s="5">
         <v>2.2890000000000001</v>
@@ -5801,15 +5802,15 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H216" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B217" s="5">
         <v>0.39</v>
@@ -5827,10 +5828,10 @@
         <v>23</v>
       </c>
       <c r="I217" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -5854,9 +5855,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B219" s="5">
         <f>0.01*B216</f>
@@ -5875,24 +5876,24 @@
         <v>24</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I219" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -5900,15 +5901,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -5932,28 +5933,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>42</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>22</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>9</v>
       </c>
@@ -5982,9 +5983,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -6000,15 +6001,15 @@
         <v>18</v>
       </c>
       <c r="G231" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B232" s="5">
         <v>2.4</v>
@@ -6023,15 +6024,15 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H232" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B233" s="5">
         <v>0.56000000000000005</v>
@@ -6049,10 +6050,10 @@
         <v>23</v>
       </c>
       <c r="I233" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>48</v>
       </c>
@@ -6076,9 +6077,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B235" s="5">
         <f>0.01*B232</f>
@@ -6097,27 +6098,27 @@
         <v>24</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I235" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -6125,15 +6126,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -6157,28 +6158,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>42</v>
       </c>
       <c r="B244" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>22</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>9</v>
       </c>
@@ -6207,9 +6208,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -6225,15 +6226,15 @@
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B249" s="5">
         <v>2.2559999999999998</v>
@@ -6248,15 +6249,15 @@
         <v>14</v>
       </c>
       <c r="G249" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H249" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B250" s="5">
         <v>0.36</v>
@@ -6274,10 +6275,10 @@
         <v>23</v>
       </c>
       <c r="I250" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>48</v>
       </c>
@@ -6301,9 +6302,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B252" s="5">
         <f>0.01*B249</f>
@@ -6322,24 +6323,24 @@
         <v>24</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I252" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -6347,15 +6348,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -6379,28 +6380,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>42</v>
       </c>
       <c r="B260" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>22</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>9</v>
       </c>
@@ -6429,9 +6430,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -6447,15 +6448,15 @@
         <v>18</v>
       </c>
       <c r="G264" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B265" s="5">
         <v>4.26</v>
@@ -6470,15 +6471,15 @@
         <v>14</v>
       </c>
       <c r="G265" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H265" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B266" s="5">
         <v>3.46</v>
@@ -6496,10 +6497,10 @@
         <v>23</v>
       </c>
       <c r="I266" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -6523,9 +6524,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B268" s="5">
         <f>0.01*B265</f>
@@ -6544,27 +6545,27 @@
         <v>24</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I268" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -6572,15 +6573,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -6604,28 +6605,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>42</v>
       </c>
       <c r="B277" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>22</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>9</v>
       </c>
@@ -6654,9 +6655,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -6672,15 +6673,15 @@
         <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B282" s="5">
         <v>2.36</v>
@@ -6695,15 +6696,15 @@
         <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H282" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B283" s="5">
         <v>0.66</v>
@@ -6721,10 +6722,10 @@
         <v>23</v>
       </c>
       <c r="I283" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>48</v>
       </c>
@@ -6748,9 +6749,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B285" s="5">
         <f>0.01*B282</f>
@@ -6769,24 +6770,24 @@
         <v>24</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I285" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -6794,15 +6795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -6826,28 +6827,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>42</v>
       </c>
       <c r="B293" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>22</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>9</v>
       </c>
@@ -6876,9 +6877,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -6894,15 +6895,15 @@
         <v>18</v>
       </c>
       <c r="G297" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B298" s="5">
         <v>1.66</v>
@@ -6917,15 +6918,15 @@
         <v>14</v>
       </c>
       <c r="G298" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H298" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B299" s="5">
         <v>0.44</v>
@@ -6934,7 +6935,7 @@
         <v>13</v>
       </c>
       <c r="E299" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -6943,10 +6944,10 @@
         <v>23</v>
       </c>
       <c r="I299" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>48</v>
       </c>
@@ -6970,9 +6971,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="B301" s="5">
         <f>0.01*B298</f>
@@ -6991,24 +6992,24 @@
         <v>24</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I301" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>42</v>
       </c>
@@ -7024,15 +7025,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -7048,15 +7049,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>22</v>
       </c>
       <c r="B309" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -7064,28 +7065,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>42</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>22</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>9</v>
       </c>
@@ -7111,9 +7112,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7128,15 +7129,15 @@
         <v>14</v>
       </c>
       <c r="G315" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -7151,13 +7152,13 @@
         <v>18</v>
       </c>
       <c r="G316" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -7180,9 +7181,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B318">
         <v>0.13206758828730655</v>
@@ -7200,7 +7201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>47</v>
       </c>
@@ -7220,9 +7221,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B320">
         <v>12.456827894327896</v>
@@ -7237,21 +7238,21 @@
         <v>14</v>
       </c>
       <c r="G320" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -7259,15 +7260,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -7291,28 +7292,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>42</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>22</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -7338,11 +7339,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>134</v>
-      </c>
-      <c r="B332">
+        <v>133</v>
+      </c>
+      <c r="B332" s="34">
         <f>12.89</f>
         <v>12.89</v>
       </c>
@@ -7356,17 +7357,17 @@
         <v>14</v>
       </c>
       <c r="G332" t="s">
+        <v>133</v>
+      </c>
+      <c r="H332" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>134</v>
       </c>
-      <c r="H332" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>135</v>
-      </c>
-      <c r="B333">
+      <c r="B333" s="34">
         <v>1</v>
       </c>
       <c r="C333" t="s">
@@ -7379,41 +7380,41 @@
         <v>18</v>
       </c>
       <c r="G333" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H333" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>63</v>
-      </c>
-      <c r="B334" s="5">
+        <v>62</v>
+      </c>
+      <c r="B334" s="34">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
         <v>64</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>65</v>
       </c>
       <c r="H334" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>48</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335" s="34">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7433,11 +7434,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>49</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336" s="34">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7457,11 +7458,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>51</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337" s="34">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7481,11 +7482,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>53</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338" s="34">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7505,11 +7506,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B339" s="5">
+        <v>159</v>
+      </c>
+      <c r="B339" s="34">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7523,17 +7524,17 @@
         <v>14</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H339" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B340" s="5">
+        <v>56</v>
+      </c>
+      <c r="B340" s="34">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
@@ -7547,21 +7548,21 @@
         <v>14</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H340" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -7569,15 +7570,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>2</v>
       </c>
       <c r="B344" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>4</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -7593,15 +7594,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>22</v>
       </c>
       <c r="B347" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -7609,12 +7610,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>30</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>32</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>34</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>37</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>39</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -7802,9 +7803,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -7819,7 +7820,7 @@
         <v>18</v>
       </c>
       <c r="G358" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H358" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -100,54 +100,12 @@
     <t>RER</t>
   </si>
   <si>
-    <t>market for aluminium, cast alloy</t>
-  </si>
-  <si>
     <t>GLO</t>
   </si>
   <si>
-    <t xml:space="preserve">technosphere </t>
-  </si>
-  <si>
-    <t>aluminium, cast alloy</t>
-  </si>
-  <si>
-    <t>market for flat glass, uncoated</t>
-  </si>
-  <si>
-    <t>flat glass, uncoated</t>
-  </si>
-  <si>
-    <t>market for cast iron</t>
-  </si>
-  <si>
-    <t>cast iron</t>
-  </si>
-  <si>
-    <t>market for concrete, normal</t>
-  </si>
-  <si>
     <t>cubic meter</t>
   </si>
   <si>
-    <t>concrete, normal</t>
-  </si>
-  <si>
-    <t>market for air compressor, screw-type compressor, 300kW</t>
-  </si>
-  <si>
-    <t>air compressor, screw-type compressor, 300kW</t>
-  </si>
-  <si>
-    <t>heat exchanger, carbon dioxide capture process</t>
-  </si>
-  <si>
-    <t>chemical factory construction, organics</t>
-  </si>
-  <si>
-    <t>chemical factory, organics</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -188,6 +146,9 @@
   </si>
   <si>
     <t>aluminium oxide, metallurgical</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere</t>
@@ -495,13 +456,49 @@
     <t>gasoline production, synthetic, from methanol, hydrogen from electrolysis, CO2 from DAC, energy allocation, at fuelling station</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
+    <t>market for aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technosphere </t>
+  </si>
+  <si>
+    <t>aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t>market for flat glass, uncoated</t>
+  </si>
+  <si>
+    <t>flat glass, uncoated</t>
+  </si>
+  <si>
+    <t>market for cast iron</t>
+  </si>
+  <si>
+    <t>cast iron</t>
+  </si>
+  <si>
+    <t>market for concrete, normal</t>
+  </si>
+  <si>
+    <t>concrete, normal</t>
+  </si>
+  <si>
+    <t>market for air compressor, screw-type compressor, 300kW</t>
+  </si>
+  <si>
+    <t>air compressor, screw-type compressor, 300kW</t>
+  </si>
+  <si>
+    <t>heat exchanger, carbon dioxide capture process</t>
+  </si>
+  <si>
+    <t>chemical factory construction, organics</t>
+  </si>
+  <si>
+    <t>chemical factory, organics</t>
   </si>
 </sst>
 </file>
@@ -648,7 +645,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -683,7 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1010,81 +1006,81 @@
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1116,7 +1112,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1186,7 +1182,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1221,7 +1217,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1268,43 +1264,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1336,7 +1332,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1406,7 +1402,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1441,7 +1437,7 @@
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1476,46 +1472,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>129</v>
-      </c>
       <c r="F27" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1549,7 +1545,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1625,7 +1621,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1663,7 +1659,7 @@
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1701,46 +1697,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>129</v>
-      </c>
       <c r="F36" s="24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1774,7 +1770,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1850,7 +1846,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1888,7 +1884,7 @@
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1933,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1958,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1982,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2026,16 +2022,16 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
         <v>2</v>
@@ -2043,7 +2039,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2064,15 +2060,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2092,12 +2088,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2122,13 +2118,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2142,12 +2138,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2167,12 +2163,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2192,12 +2188,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2217,21 +2213,21 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -2242,18 +2238,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2267,21 +2263,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2292,12 +2288,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2306,7 +2302,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2317,21 +2313,21 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -2342,7 +2338,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2363,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2387,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2431,16 +2427,16 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
@@ -2448,7 +2444,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2469,15 +2465,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B33" s="3">
         <v>1.00057</v>
@@ -2497,12 +2493,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2527,13 +2523,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -2547,12 +2543,12 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2572,12 +2568,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B37" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2597,12 +2593,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2622,21 +2618,21 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B39" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -2647,18 +2643,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
@@ -2672,21 +2668,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2697,12 +2693,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2711,7 +2707,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2722,21 +2718,21 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2747,7 +2743,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2768,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2792,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2836,16 +2832,16 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K52" t="s">
         <v>2</v>
@@ -2853,7 +2849,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2874,15 +2870,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3">
         <v>1.00057</v>
@@ -2902,12 +2898,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3">
         <v>6.7000000000000002E-3</v>
@@ -2932,13 +2928,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2952,12 +2948,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2977,12 +2973,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B58" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3002,12 +2998,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B59" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3027,21 +3023,21 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B60" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
@@ -3052,18 +3048,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B61" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3077,21 +3073,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3102,12 +3098,12 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3116,7 +3112,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3127,21 +3123,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B64" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3152,7 +3148,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3173,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3197,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3241,16 +3237,16 @@
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H73" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
@@ -3258,7 +3254,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3279,15 +3275,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B75" s="3">
         <v>1.00057</v>
@@ -3307,12 +3303,12 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3337,13 +3333,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
@@ -3357,12 +3353,12 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B78" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3382,12 +3378,12 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B79" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3407,12 +3403,12 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B80" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3432,21 +3428,21 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B81" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -3457,18 +3453,18 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B82" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>13</v>
@@ -3482,21 +3478,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B83" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3507,12 +3503,12 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B84" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3521,7 +3517,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3532,21 +3528,21 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B85" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -3557,7 +3553,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3591,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3615,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3659,16 +3655,16 @@
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K95" t="s">
         <v>2</v>
@@ -3676,7 +3672,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
@@ -3697,15 +3693,15 @@
         <v>100</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B97" s="3">
         <v>1.00057</v>
@@ -3725,12 +3721,12 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B98" s="3">
         <v>6.7000000000000002E-3</v>
@@ -3755,13 +3751,13 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B99" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>13</v>
@@ -3775,12 +3771,12 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B100" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3800,12 +3796,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B101" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3825,12 +3821,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B102" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3850,21 +3846,21 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B103" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -3875,18 +3871,18 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B104" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>13</v>
@@ -3900,21 +3896,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B105" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3925,12 +3921,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B106" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3939,7 +3935,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3950,21 +3946,21 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B107" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -3975,7 +3971,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -3996,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -4020,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4064,16 +4060,16 @@
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H116" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I116" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K116" t="s">
         <v>2</v>
@@ -4081,7 +4077,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
@@ -4102,15 +4098,15 @@
         <v>100</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B118" s="3">
         <v>1.00057</v>
@@ -4130,12 +4126,12 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B119" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4160,13 +4156,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B120" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>13</v>
@@ -4180,12 +4176,12 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B121" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4205,12 +4201,12 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B122" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4230,12 +4226,12 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B123" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4255,21 +4251,21 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B124" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -4280,18 +4276,18 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B125" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4305,21 +4301,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B126" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4330,12 +4326,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B127" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4344,7 +4340,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4355,21 +4351,21 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B128" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -4380,7 +4376,7 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4401,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4425,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4469,16 +4465,16 @@
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I137" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K137" t="s">
         <v>2</v>
@@ -4486,7 +4482,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
@@ -4507,15 +4503,15 @@
         <v>100</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3">
         <v>1.00057</v>
@@ -4535,12 +4531,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B140" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4565,13 +4561,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B141" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
@@ -4585,12 +4581,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B142" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4610,12 +4606,12 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B143" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4635,12 +4631,12 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B144" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4660,21 +4656,21 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B145" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
@@ -4685,18 +4681,18 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B146" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
@@ -4710,21 +4706,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B147" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4735,12 +4731,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B148" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4749,7 +4745,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4760,21 +4756,21 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B149" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
@@ -4785,7 +4781,7 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -4806,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4830,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -4874,16 +4870,16 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H158" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I158" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K158" t="s">
         <v>2</v>
@@ -4891,7 +4887,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
@@ -4912,15 +4908,15 @@
         <v>100</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B160" s="3">
         <v>1.00057</v>
@@ -4940,12 +4936,12 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B161" s="3">
         <v>6.7000000000000002E-3</v>
@@ -4970,13 +4966,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B162" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>13</v>
@@ -4990,12 +4986,12 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B163" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5015,12 +5011,12 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B164" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5040,12 +5036,12 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B165" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5065,21 +5061,21 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B166" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
@@ -5090,18 +5086,18 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B167" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5115,21 +5111,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B168" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5140,12 +5136,12 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B169" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5154,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5165,21 +5161,21 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B170" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
@@ -5190,7 +5186,7 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -5224,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -5240,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -5269,10 +5265,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5280,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5314,12 +5310,12 @@
         <v>2</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
@@ -5335,15 +5331,15 @@
         <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B184" s="5">
         <v>2.2160000000000002</v>
@@ -5358,15 +5354,15 @@
         <v>14</v>
       </c>
       <c r="G184" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H184" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B185" s="5">
         <v>0.44</v>
@@ -5384,12 +5380,12 @@
         <v>23</v>
       </c>
       <c r="I185" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B186" s="5">
         <f>18.4/1000*B184</f>
@@ -5413,7 +5409,7 @@
     </row>
     <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B187" s="5">
         <f>0.01*B184</f>
@@ -5432,10 +5428,10 @@
         <v>24</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -5446,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -5462,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -5491,10 +5487,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -5502,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -5536,12 +5532,12 @@
         <v>2</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
@@ -5557,15 +5553,15 @@
         <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B200" s="5">
         <v>1.8</v>
@@ -5580,15 +5576,15 @@
         <v>14</v>
       </c>
       <c r="G200" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H200" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B201" s="5">
         <v>0.21</v>
@@ -5597,7 +5593,7 @@
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F201" t="s">
         <v>17</v>
@@ -5606,12 +5602,12 @@
         <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B202" s="5">
         <f>18.4/1000*B200</f>
@@ -5635,7 +5631,7 @@
     </row>
     <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B203" s="5">
         <f>0.01*B200</f>
@@ -5654,10 +5650,10 @@
         <v>24</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -5668,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -5684,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -5713,10 +5709,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -5724,7 +5720,7 @@
         <v>22</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,12 +5754,12 @@
         <v>2</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
@@ -5779,15 +5775,15 @@
         <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B216" s="5">
         <v>2.2890000000000001</v>
@@ -5802,15 +5798,15 @@
         <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H216" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B217" s="5">
         <v>0.39</v>
@@ -5828,12 +5824,12 @@
         <v>23</v>
       </c>
       <c r="I217" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B218" s="5">
         <f>18.4/1000*B216</f>
@@ -5857,7 +5853,7 @@
     </row>
     <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B219" s="5">
         <f>0.01*B216</f>
@@ -5876,10 +5872,10 @@
         <v>24</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I219" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -5890,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -5906,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -5935,10 +5931,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B227" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -5946,7 +5942,7 @@
         <v>22</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -5980,12 +5976,12 @@
         <v>2</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -6001,15 +5997,15 @@
         <v>18</v>
       </c>
       <c r="G231" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B232" s="5">
         <v>2.4</v>
@@ -6024,15 +6020,15 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H232" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B233" s="5">
         <v>0.56000000000000005</v>
@@ -6050,12 +6046,12 @@
         <v>23</v>
       </c>
       <c r="I233" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B234" s="5">
         <f>18.4/1000*B232</f>
@@ -6079,7 +6075,7 @@
     </row>
     <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B235" s="5">
         <f>0.01*B232</f>
@@ -6098,10 +6094,10 @@
         <v>24</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I235" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -6115,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -6131,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -6160,10 +6156,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B244" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -6171,7 +6167,7 @@
         <v>22</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -6205,12 +6201,12 @@
         <v>2</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
@@ -6226,15 +6222,15 @@
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B249" s="5">
         <v>2.2559999999999998</v>
@@ -6249,15 +6245,15 @@
         <v>14</v>
       </c>
       <c r="G249" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H249" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B250" s="5">
         <v>0.36</v>
@@ -6275,12 +6271,12 @@
         <v>23</v>
       </c>
       <c r="I250" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B251" s="5">
         <f>18.4/1000*B249</f>
@@ -6304,7 +6300,7 @@
     </row>
     <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B252" s="5">
         <f>0.01*B249</f>
@@ -6323,10 +6319,10 @@
         <v>24</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I252" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -6337,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -6353,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -6382,10 +6378,10 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -6393,7 +6389,7 @@
         <v>22</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -6427,12 +6423,12 @@
         <v>2</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B264" s="3">
         <v>1</v>
@@ -6448,15 +6444,15 @@
         <v>18</v>
       </c>
       <c r="G264" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B265" s="5">
         <v>4.26</v>
@@ -6471,15 +6467,15 @@
         <v>14</v>
       </c>
       <c r="G265" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H265" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B266" s="5">
         <v>3.46</v>
@@ -6497,12 +6493,12 @@
         <v>23</v>
       </c>
       <c r="I266" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B267" s="5">
         <f>18.4/1000*B265</f>
@@ -6526,7 +6522,7 @@
     </row>
     <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B268" s="5">
         <f>0.01*B265</f>
@@ -6545,10 +6541,10 @@
         <v>24</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I268" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -6562,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -6578,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -6607,10 +6603,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -6618,7 +6614,7 @@
         <v>22</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -6652,12 +6648,12 @@
         <v>2</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
@@ -6673,15 +6669,15 @@
         <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B282" s="5">
         <v>2.36</v>
@@ -6696,15 +6692,15 @@
         <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H282" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B283" s="5">
         <v>0.66</v>
@@ -6722,12 +6718,12 @@
         <v>23</v>
       </c>
       <c r="I283" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B284" s="5">
         <f>18.4/1000*B282</f>
@@ -6751,7 +6747,7 @@
     </row>
     <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B285" s="5">
         <f>0.01*B282</f>
@@ -6770,10 +6766,10 @@
         <v>24</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I285" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -6784,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -6800,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -6829,10 +6825,10 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B293" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -6840,7 +6836,7 @@
         <v>22</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -6874,12 +6870,12 @@
         <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -6895,15 +6891,15 @@
         <v>18</v>
       </c>
       <c r="G297" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B298" s="5">
         <v>1.66</v>
@@ -6918,15 +6914,15 @@
         <v>14</v>
       </c>
       <c r="G298" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H298" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B299" s="5">
         <v>0.44</v>
@@ -6935,7 +6931,7 @@
         <v>13</v>
       </c>
       <c r="E299" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F299" t="s">
         <v>17</v>
@@ -6944,12 +6940,12 @@
         <v>23</v>
       </c>
       <c r="I299" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B300" s="5">
         <f>18.4/1000*B298</f>
@@ -6973,7 +6969,7 @@
     </row>
     <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B301" s="5">
         <f>0.01*B298</f>
@@ -6992,10 +6988,10 @@
         <v>24</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I301" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -7006,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -7019,10 +7015,10 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -7030,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -7054,7 +7050,7 @@
         <v>22</v>
       </c>
       <c r="B309" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -7067,10 +7063,10 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -7078,7 +7074,7 @@
         <v>22</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -7114,7 +7110,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -7129,7 +7125,7 @@
         <v>14</v>
       </c>
       <c r="G315" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
@@ -7137,7 +7133,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -7152,7 +7148,7 @@
         <v>18</v>
       </c>
       <c r="G316" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
@@ -7160,13 +7156,13 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B317">
         <v>3.5098030277376187</v>
       </c>
       <c r="C317" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D317" t="s">
         <v>15</v>
@@ -7175,7 +7171,7 @@
         <v>14</v>
       </c>
       <c r="G317" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H317" t="s">
         <v>24</v>
@@ -7183,7 +7179,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B318">
         <v>0.13206758828730655</v>
@@ -7203,7 +7199,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B319">
         <v>1.6694063119110985E-6</v>
@@ -7223,7 +7219,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B320">
         <v>12.456827894327896</v>
@@ -7238,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="G320" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
@@ -7249,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -7265,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -7294,10 +7290,10 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -7305,7 +7301,7 @@
         <v>22</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -7341,9 +7337,9 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>133</v>
-      </c>
-      <c r="B332" s="34">
+        <v>120</v>
+      </c>
+      <c r="B332">
         <f>12.89</f>
         <v>12.89</v>
       </c>
@@ -7357,17 +7353,17 @@
         <v>14</v>
       </c>
       <c r="G332" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H332" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>134</v>
-      </c>
-      <c r="B333" s="34">
+        <v>121</v>
+      </c>
+      <c r="B333">
         <v>1</v>
       </c>
       <c r="C333" t="s">
@@ -7380,22 +7376,22 @@
         <v>18</v>
       </c>
       <c r="G333" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H333" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>62</v>
-      </c>
-      <c r="B334" s="34">
+        <v>49</v>
+      </c>
+      <c r="B334" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C334" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D334" t="s">
         <v>13</v>
@@ -7404,7 +7400,7 @@
         <v>14</v>
       </c>
       <c r="G334" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H334" t="s">
         <v>24</v>
@@ -7412,9 +7408,9 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>48</v>
-      </c>
-      <c r="B335" s="34">
+        <v>34</v>
+      </c>
+      <c r="B335" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7436,14 +7432,14 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>49</v>
-      </c>
-      <c r="B336" s="34">
+        <v>35</v>
+      </c>
+      <c r="B336" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
       <c r="C336" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D336" t="s">
         <v>13</v>
@@ -7452,7 +7448,7 @@
         <v>14</v>
       </c>
       <c r="G336" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H336" t="s">
         <v>24</v>
@@ -7460,14 +7456,14 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>51</v>
-      </c>
-      <c r="B337" s="34">
+        <v>37</v>
+      </c>
+      <c r="B337" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
       <c r="C337" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
         <v>13</v>
@@ -7476,7 +7472,7 @@
         <v>14</v>
       </c>
       <c r="G337" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H337" t="s">
         <v>24</v>
@@ -7484,14 +7480,14 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>53</v>
-      </c>
-      <c r="B338" s="34">
+        <v>39</v>
+      </c>
+      <c r="B338" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C338" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D338" t="s">
         <v>13</v>
@@ -7500,7 +7496,7 @@
         <v>14</v>
       </c>
       <c r="G338" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H338" t="s">
         <v>24</v>
@@ -7508,9 +7504,9 @@
     </row>
     <row r="339" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B339" s="34">
+        <v>144</v>
+      </c>
+      <c r="B339" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7524,17 +7520,17 @@
         <v>14</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="H339" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B340" s="34">
+        <v>43</v>
+      </c>
+      <c r="B340" s="5">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
@@ -7548,10 +7544,10 @@
         <v>14</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="H340" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -7559,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -7575,7 +7571,7 @@
         <v>2</v>
       </c>
       <c r="B344" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -7599,7 +7595,7 @@
         <v>22</v>
       </c>
       <c r="B347" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -7643,22 +7639,22 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B351">
         <v>7.2924747866563216E-6</v>
       </c>
       <c r="C351" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D351" t="s">
         <v>13</v>
       </c>
       <c r="F351" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G351" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="H351" t="s">
         <v>24</v>
@@ -7666,7 +7662,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B352">
         <v>7.4243599689681927E-4</v>
@@ -7678,10 +7674,10 @@
         <v>13</v>
       </c>
       <c r="F352" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G352" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H352" t="s">
         <v>24</v>
@@ -7689,22 +7685,22 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="B353">
         <v>4.1349883630721488E-7</v>
       </c>
       <c r="C353" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D353" t="s">
         <v>13</v>
       </c>
       <c r="F353" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G353" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="H353" t="s">
         <v>24</v>
@@ -7712,7 +7708,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B354">
         <f>0.00273079906904577/2300</f>
@@ -7722,13 +7718,13 @@
         <v>19</v>
       </c>
       <c r="D354" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F354" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G354" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="H354" t="s">
         <v>24</v>
@@ -7736,22 +7732,22 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B355">
         <v>1.3045108429904572E-9</v>
       </c>
       <c r="C355" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D355" t="s">
         <v>6</v>
       </c>
       <c r="F355" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G355" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="H355" t="s">
         <v>24</v>
@@ -7759,7 +7755,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B356">
         <v>5.7536703406069172E-11</v>
@@ -7771,10 +7767,10 @@
         <v>6</v>
       </c>
       <c r="F356" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="H356" t="s">
         <v>3</v>
@@ -7782,22 +7778,22 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="B357">
         <v>1.5533182090707562E-11</v>
       </c>
       <c r="C357" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D357" t="s">
         <v>6</v>
       </c>
       <c r="F357" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="G357" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="H357" t="s">
         <v>24</v>
@@ -7805,7 +7801,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -7820,7 +7816,7 @@
         <v>18</v>
       </c>
       <c r="G358" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H358" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,13 +1087,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="13">
-        <v>2.2599999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1131,18 +1131,18 @@
       </c>
       <c r="G12" s="17">
         <f>F12*$D$10/D12</f>
-        <v>2.2889868977137753</v>
+        <v>2.451039067463423</v>
       </c>
       <c r="H12" s="15">
         <f>-$H$10*G12</f>
-        <v>-3.5479296914563516</v>
+        <v>-3.35792352242489</v>
       </c>
       <c r="I12" s="15">
         <v>3.16</v>
       </c>
       <c r="J12" s="15">
         <f>I12+H12</f>
-        <v>-0.38792969145635148</v>
+        <v>-0.19792352242488986</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1166,18 +1166,18 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
-        <v>2.3670205419540173</v>
+        <v>2.5345972174905853</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
-        <v>-3.6688818400287269</v>
+        <v>-3.472398187962102</v>
       </c>
       <c r="I13" s="15">
         <v>3.01</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
-        <v>-0.65888184002872707</v>
+        <v>-0.46239818796210219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1201,18 +1201,18 @@
       </c>
       <c r="G14" s="19">
         <f t="shared" si="2"/>
-        <v>2.2577734400176781</v>
+        <v>2.4176158074525582</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="3"/>
-        <v>-3.4995488320274011</v>
+        <v>-3.3121336562100052</v>
       </c>
       <c r="I14" s="15">
         <v>3.14</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="4"/>
-        <v>-0.35954883202740096</v>
+        <v>-0.17213365621000509</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1236,18 +1236,18 @@
       </c>
       <c r="G15" s="17">
         <f t="shared" si="2"/>
-        <v>2.2161554964228825</v>
+        <v>2.3730514607714053</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="3"/>
-        <v>-3.4350410194554679</v>
+        <v>-3.2510805012568254</v>
       </c>
       <c r="I15" s="15">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="4"/>
-        <v>-0.43504101945546791</v>
+        <v>-0.11108050125682523</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1307,13 +1307,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="13">
-        <v>2.2599999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1351,18 +1351,18 @@
       </c>
       <c r="G21" s="19">
         <f>F21*$D$19/D21</f>
-        <v>2.28711268123942</v>
+        <v>2.4490321630970779</v>
       </c>
       <c r="H21" s="15">
         <f>-$H$19*G21</f>
-        <v>-3.5450246559211012</v>
+        <v>-3.355174063442997</v>
       </c>
       <c r="I21" s="15">
         <v>3.16</v>
       </c>
       <c r="J21" s="15">
         <f>I21+H21</f>
-        <v>-0.38502465592110102</v>
+        <v>-0.19517406344299681</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1386,18 +1386,18 @@
       </c>
       <c r="G22" s="19">
         <f t="shared" ref="G22:G24" si="7">F22*$D$19/D22</f>
-        <v>2.3650824317362185</v>
+        <v>2.5325218959299334</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" ref="H22:H24" si="8">-$H$19*G22</f>
-        <v>-3.6658777691911388</v>
+        <v>-3.4695549974240092</v>
       </c>
       <c r="I22" s="15">
         <v>3.01</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" ref="J22:J24" si="9">I22+H22</f>
-        <v>-0.65587776919113905</v>
+        <v>-0.4595549974240094</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1421,18 +1421,18 @@
       </c>
       <c r="G23" s="17">
         <f t="shared" si="7"/>
-        <v>2.2559247810407004</v>
+        <v>2.4156362699639358</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="8"/>
-        <v>-3.4966834106130857</v>
+        <v>-3.3094216898505922</v>
       </c>
       <c r="I23" s="15">
         <v>3.14</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="9"/>
-        <v>-0.35668341061308562</v>
+        <v>-0.16942168985059203</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1456,18 +1456,18 @@
       </c>
       <c r="G24" s="19">
         <f t="shared" si="7"/>
-        <v>2.2143409141090751</v>
+        <v>2.3711084124530801</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="8"/>
-        <v>-3.4322284168690667</v>
+        <v>-3.2484185250607198</v>
       </c>
       <c r="I24" s="15">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="9"/>
-        <v>-0.43222841686906666</v>
+        <v>-0.10841852506071969</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1518,14 +1518,14 @@
         <v>19</v>
       </c>
       <c r="D28" s="25">
-        <v>2.2599999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -1567,18 +1567,18 @@
       </c>
       <c r="H30" s="29">
         <f>G30*$D$28/D30</f>
-        <v>2.4000042477951289</v>
+        <v>2.5699160529487663</v>
       </c>
       <c r="I30" s="30">
         <f>-$I$28*H30</f>
-        <v>-3.7200065840824497</v>
+        <v>-3.5207849925398103</v>
       </c>
       <c r="J30" s="24">
         <v>3.16</v>
       </c>
       <c r="K30" s="30">
         <f>J30+I30</f>
-        <v>-0.56000658408244952</v>
+        <v>-0.36078499253981011</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1605,18 +1605,18 @@
       </c>
       <c r="H31" s="30">
         <f t="shared" ref="H31:H33" si="12">G31*$D$28/D31</f>
-        <v>1.656002930978639</v>
+        <v>1.773242076534649</v>
       </c>
       <c r="I31" s="30">
         <f t="shared" ref="I31:I33" si="13">-$I$28*H31</f>
-        <v>-2.5668045430168904</v>
+        <v>-2.4293416448524692</v>
       </c>
       <c r="J31" s="30">
         <v>3.01</v>
       </c>
       <c r="K31" s="30">
         <f t="shared" ref="K31:K33" si="14">J31+I31</f>
-        <v>0.44319545698310936</v>
+        <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1643,18 +1643,18 @@
       </c>
       <c r="H32" s="32">
         <f t="shared" si="12"/>
-        <v>4.2600075398363533</v>
+        <v>4.5616009939840598</v>
       </c>
       <c r="I32" s="30">
         <f t="shared" si="13"/>
-        <v>-6.6030116867463482</v>
+        <v>-6.2493933617581625</v>
       </c>
       <c r="J32" s="30">
         <v>3.14</v>
       </c>
       <c r="K32" s="30">
         <f t="shared" si="14"/>
-        <v>-3.4630116867463481</v>
+        <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1681,18 +1681,18 @@
       </c>
       <c r="H33" s="29">
         <f t="shared" si="12"/>
-        <v>1.8000031858463468</v>
+        <v>1.927437039711575</v>
       </c>
       <c r="I33" s="30">
         <f t="shared" si="13"/>
-        <v>-2.7900049380618377</v>
+        <v>-2.6405887444048579</v>
       </c>
       <c r="J33" s="24">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="K33" s="30">
         <f t="shared" si="14"/>
-        <v>0.20999506193816231</v>
+        <v>0.49941125559514221</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1743,14 +1743,14 @@
         <v>19</v>
       </c>
       <c r="D37" s="25">
-        <v>2.2599999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -1792,18 +1792,18 @@
       </c>
       <c r="H39" s="30">
         <f>G39*$D$37/D39</f>
-        <v>2.4000042477951293</v>
+        <v>2.5699160529487668</v>
       </c>
       <c r="I39" s="30">
         <f>-$I$28*H39</f>
-        <v>-3.7200065840824506</v>
+        <v>-3.5207849925398107</v>
       </c>
       <c r="J39" s="24">
         <v>3.16</v>
       </c>
       <c r="K39" s="30">
         <f>J39+I39</f>
-        <v>-0.56000658408245041</v>
+        <v>-0.36078499253981056</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1830,18 +1830,18 @@
       </c>
       <c r="H40" s="30">
         <f t="shared" ref="H40:H42" si="17">G40*$D$37/D40</f>
-        <v>1.656002930978639</v>
+        <v>1.773242076534649</v>
       </c>
       <c r="I40" s="30">
         <f t="shared" ref="I40:I42" si="18">-$I$28*H40</f>
-        <v>-2.5668045430168904</v>
+        <v>-2.4293416448524692</v>
       </c>
       <c r="J40" s="30">
         <v>3.01</v>
       </c>
       <c r="K40" s="30">
         <f t="shared" ref="K40:K42" si="19">J40+I40</f>
-        <v>0.44319545698310936</v>
+        <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1868,18 +1868,18 @@
       </c>
       <c r="H41" s="29">
         <f t="shared" si="17"/>
-        <v>4.2600075398363533</v>
+        <v>4.5616009939840598</v>
       </c>
       <c r="I41" s="30">
         <f t="shared" si="18"/>
-        <v>-6.6030116867463482</v>
+        <v>-6.2493933617581625</v>
       </c>
       <c r="J41" s="30">
         <v>3.14</v>
       </c>
       <c r="K41" s="30">
         <f t="shared" si="19"/>
-        <v>-3.4630116867463481</v>
+        <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1906,18 +1906,18 @@
       </c>
       <c r="H42" s="30">
         <f t="shared" si="17"/>
-        <v>1.8000031858463468</v>
+        <v>1.927437039711575</v>
       </c>
       <c r="I42" s="30">
         <f t="shared" si="18"/>
-        <v>-2.7900049380618377</v>
+        <v>-2.6405887444048579</v>
       </c>
       <c r="J42" s="24">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="K42" s="30">
         <f t="shared" si="19"/>
-        <v>0.20999506193816231</v>
+        <v>0.49941125559514221</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="B361" sqref="B361"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,7 +5342,7 @@
         <v>125</v>
       </c>
       <c r="B184" s="5">
-        <v>2.2160000000000002</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
         <v>25</v>
@@ -5365,7 +5365,7 @@
         <v>45</v>
       </c>
       <c r="B185" s="5">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="D185" t="s">
         <v>13</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B186" s="5">
         <f>18.4/1000*B184</f>
-        <v>4.0774400000000002E-2</v>
+        <v>4.3663200000000006E-2</v>
       </c>
       <c r="C186" t="s">
         <v>25</v>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B187" s="5">
         <f>0.01*B184</f>
-        <v>2.2160000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="C187" t="s">
         <v>25</v>
@@ -5564,7 +5564,7 @@
         <v>125</v>
       </c>
       <c r="B200" s="5">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="C200" t="s">
         <v>25</v>
@@ -5587,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="B201" s="5">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B202" s="5">
         <f>18.4/1000*B200</f>
-        <v>3.3120000000000004E-2</v>
+        <v>3.5511999999999995E-2</v>
       </c>
       <c r="C202" t="s">
         <v>25</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="B203" s="5">
         <f>0.01*B200</f>
-        <v>1.8000000000000002E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="C203" t="s">
         <v>25</v>
@@ -5786,7 +5786,7 @@
         <v>125</v>
       </c>
       <c r="B216" s="5">
-        <v>2.2890000000000001</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="C216" t="s">
         <v>25</v>
@@ -5809,7 +5809,7 @@
         <v>45</v>
       </c>
       <c r="B217" s="5">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B218" s="5">
         <f>18.4/1000*B216</f>
-        <v>4.2117600000000005E-2</v>
+        <v>4.5098400000000004E-2</v>
       </c>
       <c r="C218" t="s">
         <v>25</v>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B219" s="5">
         <f>0.01*B216</f>
-        <v>2.2890000000000001E-2</v>
+        <v>2.4510000000000001E-2</v>
       </c>
       <c r="C219" t="s">
         <v>25</v>
@@ -6008,7 +6008,7 @@
         <v>125</v>
       </c>
       <c r="B232" s="5">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -6031,7 +6031,7 @@
         <v>45</v>
       </c>
       <c r="B233" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D233" t="s">
         <v>13</v>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B234" s="5">
         <f>18.4/1000*B232</f>
-        <v>4.4159999999999998E-2</v>
+        <v>4.7287999999999997E-2</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B235" s="5">
         <f>0.01*B232</f>
-        <v>2.4E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6233,7 +6233,7 @@
         <v>125</v>
       </c>
       <c r="B249" s="5">
-        <v>2.2559999999999998</v>
+        <v>2.371</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6256,7 +6256,7 @@
         <v>45</v>
       </c>
       <c r="B250" s="5">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="D250" t="s">
         <v>13</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B251" s="5">
         <f>18.4/1000*B249</f>
-        <v>4.1510399999999996E-2</v>
+        <v>4.3626399999999996E-2</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B252" s="5">
         <f>0.01*B249</f>
-        <v>2.2559999999999997E-2</v>
+        <v>2.3710000000000002E-2</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -6455,7 +6455,7 @@
         <v>125</v>
       </c>
       <c r="B265" s="5">
-        <v>4.26</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C265" t="s">
         <v>25</v>
@@ -6478,7 +6478,7 @@
         <v>45</v>
       </c>
       <c r="B266" s="5">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="D266" t="s">
         <v>13</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B267" s="5">
         <f>18.4/1000*B265</f>
-        <v>7.8383999999999995E-2</v>
+        <v>8.3903999999999992E-2</v>
       </c>
       <c r="C267" t="s">
         <v>25</v>
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B268" s="5">
         <f>0.01*B265</f>
-        <v>4.2599999999999999E-2</v>
+        <v>4.5599999999999995E-2</v>
       </c>
       <c r="C268" t="s">
         <v>25</v>
@@ -6680,7 +6680,7 @@
         <v>125</v>
       </c>
       <c r="B282" s="5">
-        <v>2.36</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="C282" t="s">
         <v>25</v>
@@ -6703,7 +6703,7 @@
         <v>45</v>
       </c>
       <c r="B283" s="5">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="D283" t="s">
         <v>13</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="B284" s="5">
         <f>18.4/1000*B282</f>
-        <v>4.3423999999999997E-2</v>
+        <v>4.6644000000000005E-2</v>
       </c>
       <c r="C284" t="s">
         <v>25</v>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B285" s="5">
         <f>0.01*B282</f>
-        <v>2.3599999999999999E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="C285" t="s">
         <v>25</v>
@@ -6902,7 +6902,7 @@
         <v>125</v>
       </c>
       <c r="B298" s="5">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="C298" t="s">
         <v>25</v>
@@ -6925,7 +6925,7 @@
         <v>77</v>
       </c>
       <c r="B299" s="5">
-        <v>0.44</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D299" t="s">
         <v>13</v>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="B300" s="5">
         <f>18.4/1000*B298</f>
-        <v>3.0543999999999998E-2</v>
+        <v>3.2568E-2</v>
       </c>
       <c r="C300" t="s">
         <v>25</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B301" s="5">
         <f>0.01*B298</f>
-        <v>1.66E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="C301" t="s">
         <v>25</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -15,12 +15,12 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -645,7 +645,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +680,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1927,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K358"/>
+  <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2341,142 +2343,137 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="35">
+        <f>(B12-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>52</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>53</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>54</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J32" t="s">
         <v>28</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3">
-        <v>1.00057</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2486,28 +2483,32 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K33" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B34" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>1.00057</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -2518,21 +2519,21 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>56</v>
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -2543,21 +2544,21 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="6">
-        <v>5.8399999999999999E-4</v>
+        <v>56</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -2568,21 +2569,21 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="6">
-        <v>2.5999999999999998E-10</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
@@ -2593,21 +2594,21 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="6">
-        <v>-6.2700000000000001E-6</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
@@ -2618,21 +2619,21 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6">
-        <v>-7.4999999999999993E-5</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
@@ -2643,21 +2644,21 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B40" s="6">
-        <v>6.8900000000000005E-4</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -2668,21 +2669,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="6">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2693,18 +2694,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>67</v>
@@ -2718,21 +2719,21 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>69</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2743,198 +2744,197 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="K44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="35">
+        <f>(B34-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>79</v>
+      <c r="B48" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F54" t="s">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G54" t="s">
         <v>52</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H54" t="s">
         <v>53</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I54" t="s">
         <v>54</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J54" t="s">
         <v>28</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3">
-        <v>100</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="3">
-        <v>6.7000000000000002E-3</v>
-      </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="3">
+        <v>100</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K55" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B56" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>50</v>
+        <v>1.00057</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>13</v>
@@ -2948,21 +2948,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>19</v>
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -2973,21 +2973,21 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="6">
-        <v>2.5999999999999998E-10</v>
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
@@ -2998,21 +2998,21 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
-        <v>-6.2700000000000001E-6</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
@@ -3023,21 +3023,21 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
-        <v>-7.4999999999999993E-5</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
@@ -3048,18 +3048,18 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6">
-        <v>6.8900000000000005E-4</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>13</v>
@@ -3073,21 +3073,21 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>64</v>
+      </c>
+      <c r="B62" s="6">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -3098,21 +3098,21 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>49</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -3123,21 +3123,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>66</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3148,226 +3148,225 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="K65" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="35">
+        <f>(B56-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>8</v>
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" t="s">
-        <v>52</v>
-      </c>
-      <c r="H73" t="s">
-        <v>53</v>
-      </c>
-      <c r="I73" t="s">
-        <v>54</v>
-      </c>
-      <c r="J73" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3">
-        <v>100</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>47</v>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="3">
-        <v>6.7000000000000002E-3</v>
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76" t="s">
+        <v>54</v>
+      </c>
+      <c r="J76" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="B77" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="I77" s="3">
+        <v>100</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K77" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>131</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.00057</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
@@ -3378,21 +3377,21 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="6">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C79" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
@@ -3403,18 +3402,18 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="6">
-        <v>-6.2700000000000001E-6</v>
+        <v>56</v>
+      </c>
+      <c r="B80" s="3">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3428,21 +3427,21 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B81" s="6">
-        <v>-7.4999999999999993E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
@@ -3453,21 +3452,21 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B82" s="6">
-        <v>6.8900000000000005E-4</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
@@ -3478,21 +3477,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>62</v>
+      </c>
+      <c r="B83" s="6">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -3503,21 +3502,21 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B84" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>64</v>
+      </c>
+      <c r="B84" s="6">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
@@ -3528,21 +3527,21 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B85" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
@@ -3553,264 +3552,263 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="K87" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="35">
+        <f>(B78-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>6</v>
       </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C99" t="s">
         <v>11</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D99" t="s">
         <v>6</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E99" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F99" t="s">
         <v>4</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G99" t="s">
         <v>52</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H99" t="s">
         <v>53</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I99" t="s">
         <v>54</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J99" t="s">
         <v>28</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K99" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3">
-        <v>100</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C97" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="3">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K100" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="6">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.00057</v>
+      </c>
+      <c r="C101" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
@@ -3821,21 +3819,21 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="6">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>19</v>
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
@@ -3846,21 +3844,21 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" s="6">
-        <v>-7.4999999999999993E-5</v>
+        <v>56</v>
+      </c>
+      <c r="B103" s="3">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
@@ -3871,21 +3869,21 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B104" s="6">
-        <v>6.8900000000000005E-4</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
@@ -3896,21 +3894,21 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>60</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
@@ -3921,21 +3919,21 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B106" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>62</v>
+      </c>
+      <c r="B106" s="6">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -3946,15 +3944,15 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B107" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>50</v>
@@ -3971,273 +3969,272 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="6">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="K108" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="35">
+        <f>(B101-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>8</v>
+      <c r="B115" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>4</v>
       </c>
-      <c r="G116" t="s">
-        <v>52</v>
-      </c>
-      <c r="H116" t="s">
-        <v>53</v>
-      </c>
-      <c r="I116" t="s">
-        <v>54</v>
-      </c>
-      <c r="J116" t="s">
-        <v>28</v>
-      </c>
-      <c r="K116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3">
-        <v>100</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C118" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3" t="s">
-        <v>92</v>
+      <c r="B118" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="3">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3" t="s">
-        <v>59</v>
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" t="s">
+        <v>53</v>
+      </c>
+      <c r="I121" t="s">
+        <v>54</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+      <c r="K121" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="6">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C122" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="I122" s="3">
+        <v>100</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K122" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" s="6">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>19</v>
+        <v>133</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.00057</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>13</v>
@@ -4251,21 +4248,21 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B124" s="6">
-        <v>-7.4999999999999993E-5</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>50</v>
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -4276,15 +4273,15 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="6">
-        <v>6.8900000000000005E-4</v>
+        <v>56</v>
+      </c>
+      <c r="B125" s="3">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>50</v>
@@ -4301,21 +4298,21 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>58</v>
+      </c>
+      <c r="B126" s="6">
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -4326,21 +4323,21 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B127" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>60</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -4351,21 +4348,21 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B128" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -4376,301 +4373,300 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="A129" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="6">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>142</v>
+      <c r="K129" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="6">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" t="s">
-        <v>25</v>
+      <c r="A131" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
+      <c r="A132" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="35">
+        <f>(B123-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>4</v>
-      </c>
-      <c r="G137" t="s">
-        <v>52</v>
-      </c>
-      <c r="H137" t="s">
-        <v>53</v>
-      </c>
-      <c r="I137" t="s">
-        <v>54</v>
-      </c>
-      <c r="J137" t="s">
-        <v>28</v>
-      </c>
-      <c r="K137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3">
-        <v>100</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K138" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C139" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>34</v>
-      </c>
-      <c r="B140" s="3">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B141" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
-        <v>59</v>
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" s="6">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>61</v>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" t="s">
+        <v>53</v>
+      </c>
+      <c r="I143" t="s">
+        <v>54</v>
+      </c>
+      <c r="J143" t="s">
+        <v>28</v>
+      </c>
+      <c r="K143" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" s="6">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>19</v>
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="I144" s="3">
+        <v>100</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K144" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B145" s="6">
-        <v>-7.4999999999999993E-5</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>50</v>
+        <v>134</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.00057</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
@@ -4681,21 +4677,21 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B146" s="6">
-        <v>6.8900000000000005E-4</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>50</v>
+      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>25</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
@@ -4706,21 +4702,21 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B147" s="3">
-        <v>3.3599999999999998E-2</v>
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -4731,21 +4727,21 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B148" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>58</v>
+      </c>
+      <c r="B148" s="6">
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -4756,21 +4752,21 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B149" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
@@ -4781,323 +4777,322 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
+      <c r="A150" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="6">
+        <v>-6.2700000000000001E-6</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="K150" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="6">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="6">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" s="35">
+        <f>(B145-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="34"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="3"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>11</v>
       </c>
-      <c r="B152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>1</v>
       </c>
-      <c r="B153">
+      <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>4</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>6</v>
       </c>
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>9</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B165" t="s">
         <v>10</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C165" t="s">
         <v>11</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D165" t="s">
         <v>6</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F165" t="s">
         <v>4</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G165" t="s">
         <v>52</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H165" t="s">
         <v>53</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I165" t="s">
         <v>54</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J165" t="s">
         <v>28</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K165" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3">
-        <v>100</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B160" s="3">
-        <v>1.00057</v>
-      </c>
-      <c r="C160" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="3">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B162" s="3">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B163" s="6">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B164" s="6">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B165" s="6">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B166" s="6">
-        <v>-7.4999999999999993E-5</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="I166" s="3">
+        <v>100</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K166" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167" s="6">
-        <v>6.8900000000000005E-4</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>50</v>
+        <v>135</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1.00057</v>
+      </c>
+      <c r="C167" t="s">
+        <v>25</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
@@ -5111,21 +5106,21 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>66</v>
+      <c r="A168" t="s">
+        <v>34</v>
       </c>
       <c r="B168" s="3">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>50</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
@@ -5136,21 +5131,21 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B169" s="3">
-        <v>3.2599999999999997E-2</v>
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
@@ -5161,21 +5156,21 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B170" s="6">
-        <v>-6.8899999999999999E-7</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
@@ -5186,2652 +5181,2851 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B171" s="6">
+        <v>2.5999999999999998E-10</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="K171" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172" s="6">
+        <v>-6.2700000000000001E-6</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="K172" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" s="6">
+        <v>-7.4999999999999993E-5</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" s="6">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B176" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B177" s="6">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="35">
+        <f>(B167-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="34"/>
+      <c r="H178" s="34"/>
+      <c r="I178" s="34"/>
+      <c r="J178" s="34"/>
+      <c r="K178" s="34"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="3"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>1</v>
       </c>
-      <c r="B174">
+      <c r="B182">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>4</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B184" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>6</v>
       </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>11</v>
       </c>
-      <c r="B178" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>28</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B187" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B188" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="H190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="I190" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B191" s="3">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="3" t="s">
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G191" t="s">
         <v>48</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>125</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B192" s="5">
         <v>2.3730000000000002</v>
       </c>
-      <c r="C184" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
         <v>48</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H192" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>45</v>
-      </c>
-      <c r="B185" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
-      <c r="I185" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>34</v>
-      </c>
-      <c r="B186" s="5">
-        <f>18.4/1000*B184</f>
-        <v>4.3663200000000006E-2</v>
-      </c>
-      <c r="C186" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>24</v>
-      </c>
-      <c r="H186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B187" s="5">
-        <f>0.01*B184</f>
-        <v>2.3730000000000001E-2</v>
-      </c>
-      <c r="C187" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I187" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B188" s="5"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B193" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>23</v>
+      </c>
+      <c r="I193" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="B194" s="5">
+        <f>18.4/1000*B192</f>
+        <v>4.3663200000000006E-2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B195" s="5">
+        <f>0.01*B192</f>
+        <v>2.3730000000000001E-2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>24</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I195" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" s="2" t="s">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>2</v>
       </c>
-      <c r="I198" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" t="s">
-        <v>13</v>
-      </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>48</v>
-      </c>
-      <c r="H199" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>125</v>
-      </c>
-      <c r="B200" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="C200" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>48</v>
-      </c>
-      <c r="H200" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>77</v>
-      </c>
-      <c r="B201" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D201" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" t="s">
-        <v>78</v>
-      </c>
-      <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>23</v>
-      </c>
-      <c r="I201" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>34</v>
-      </c>
-      <c r="B202" s="5">
-        <f>18.4/1000*B200</f>
-        <v>3.5511999999999995E-2</v>
-      </c>
-      <c r="C202" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H202" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B203" s="5">
-        <f>0.01*B200</f>
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="C203" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I203" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>28</v>
+      </c>
+      <c r="B203" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B204" s="5"/>
+      <c r="A204" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="A206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>87</v>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>48</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" t="s">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="C208" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>48</v>
+      </c>
+      <c r="H208" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="B209" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>78</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
+      <c r="I209" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="B210" s="5">
+        <f>18.4/1000*B208</f>
+        <v>3.5511999999999995E-2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>24</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B211" s="5">
+        <f>0.01*B208</f>
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I211" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>22</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H214" s="2" t="s">
+      <c r="A214" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>2</v>
       </c>
-      <c r="I214" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>48</v>
-      </c>
-      <c r="H215" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>125</v>
-      </c>
-      <c r="B216" s="5">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="C216" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>48</v>
-      </c>
-      <c r="H216" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>45</v>
-      </c>
-      <c r="B217" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D217" t="s">
-        <v>13</v>
-      </c>
-      <c r="E217" t="s">
-        <v>16</v>
-      </c>
-      <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>23</v>
-      </c>
-      <c r="I217" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>34</v>
-      </c>
-      <c r="B218" s="5">
-        <f>18.4/1000*B216</f>
-        <v>4.5098400000000004E-2</v>
-      </c>
-      <c r="C218" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>24</v>
-      </c>
-      <c r="H218" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B219" s="5">
-        <f>0.01*B216</f>
-        <v>2.4510000000000001E-2</v>
-      </c>
-      <c r="C219" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
-      <c r="H219" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I219" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B220" s="5"/>
+      <c r="A220" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+      <c r="A222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B223" s="3">
         <v>1</v>
       </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" s="3" t="s">
+      <c r="C223" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" t="s">
+        <v>48</v>
+      </c>
+      <c r="H223" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" t="s">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="C224" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>48</v>
+      </c>
+      <c r="H224" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B225" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" t="s">
+        <v>17</v>
+      </c>
+      <c r="G225" t="s">
+        <v>23</v>
+      </c>
+      <c r="I225" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>11</v>
-      </c>
-      <c r="B226" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>28</v>
-      </c>
-      <c r="B227" t="s">
-        <v>91</v>
+        <v>34</v>
+      </c>
+      <c r="B226" s="5">
+        <f>18.4/1000*B224</f>
+        <v>4.5098400000000004E-2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>25</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>24</v>
+      </c>
+      <c r="H226" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B227" s="5">
+        <f>0.01*B224</f>
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s">
+        <v>24</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I227" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>22</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H230" s="2" t="s">
+      <c r="A230" t="s">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>2</v>
       </c>
-      <c r="I230" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B231" s="3">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>48</v>
-      </c>
-      <c r="H231" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>125</v>
-      </c>
-      <c r="B232" s="5">
-        <v>2.57</v>
-      </c>
-      <c r="C232" t="s">
-        <v>25</v>
-      </c>
-      <c r="D232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>48</v>
-      </c>
-      <c r="H232" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="D233" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>23</v>
-      </c>
-      <c r="I233" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>34</v>
-      </c>
-      <c r="B234" s="5">
-        <f>18.4/1000*B232</f>
-        <v>4.7287999999999997E-2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>25</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
-      <c r="H234" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B235" s="5">
-        <f>0.01*B232</f>
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="C235" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I235" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B236" s="5"/>
+      <c r="A236" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B237" s="5"/>
+      <c r="A237" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B239" s="3">
         <v>1</v>
       </c>
-      <c r="B239">
-        <v>1</v>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" t="s">
+        <v>48</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>2</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="B240" s="5">
+        <v>2.57</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>48</v>
+      </c>
+      <c r="H240" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B241" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" t="s">
+        <v>17</v>
+      </c>
+      <c r="G241" t="s">
+        <v>23</v>
+      </c>
+      <c r="I241" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>6</v>
-      </c>
-      <c r="B242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B242" s="5">
+        <f>18.4/1000*B240</f>
+        <v>4.7287999999999997E-2</v>
+      </c>
+      <c r="C242" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" t="s">
+        <v>24</v>
+      </c>
+      <c r="H242" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B243" s="5">
+        <f>0.01*B240</f>
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s">
+        <v>24</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I243" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" t="s">
-        <v>88</v>
-      </c>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>22</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H247" s="2" t="s">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>2</v>
       </c>
-      <c r="I247" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D248" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>48</v>
-      </c>
-      <c r="H248" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>125</v>
-      </c>
-      <c r="B249" s="5">
-        <v>2.371</v>
-      </c>
-      <c r="C249" t="s">
-        <v>25</v>
-      </c>
-      <c r="D249" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>48</v>
-      </c>
-      <c r="H249" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>45</v>
-      </c>
-      <c r="B250" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D250" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
-        <v>17</v>
-      </c>
-      <c r="G250" t="s">
-        <v>23</v>
-      </c>
-      <c r="I250" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="5">
-        <f>18.4/1000*B249</f>
-        <v>4.3626399999999996E-2</v>
-      </c>
-      <c r="C251" t="s">
-        <v>25</v>
-      </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
-      <c r="H251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B252" s="5">
-        <f>0.01*B249</f>
-        <v>2.3710000000000002E-2</v>
-      </c>
-      <c r="C252" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I252" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B253" s="5"/>
+      <c r="A253" t="s">
+        <v>22</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="A255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B256" s="3">
         <v>1</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="3" t="s">
+      <c r="C256" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" t="s">
+        <v>48</v>
+      </c>
+      <c r="H256" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" t="s">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="B257" s="5">
+        <v>2.371</v>
+      </c>
+      <c r="C257" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s">
+        <v>48</v>
+      </c>
+      <c r="H257" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B258" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" t="s">
+        <v>17</v>
+      </c>
+      <c r="G258" t="s">
+        <v>23</v>
+      </c>
+      <c r="I258" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="B259" s="5">
+        <f>18.4/1000*B257</f>
+        <v>4.3626399999999996E-2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s">
+        <v>24</v>
+      </c>
+      <c r="H259" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B260" s="5">
+        <f>0.01*B257</f>
+        <v>2.3710000000000002E-2</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>24</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I260" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>22</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H263" s="2" t="s">
+      <c r="A263" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>2</v>
       </c>
-      <c r="I263" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>25</v>
-      </c>
-      <c r="D264" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" s="2"/>
-      <c r="F264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>48</v>
-      </c>
-      <c r="H264" s="3" t="s">
+      <c r="B264" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>125</v>
-      </c>
-      <c r="B265" s="5">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C265" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>48</v>
-      </c>
-      <c r="H265" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>45</v>
-      </c>
-      <c r="B266" s="5">
-        <v>3.11</v>
-      </c>
-      <c r="D266" t="s">
-        <v>13</v>
-      </c>
-      <c r="E266" t="s">
-        <v>16</v>
-      </c>
-      <c r="F266" t="s">
-        <v>17</v>
-      </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
-      <c r="I266" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>34</v>
-      </c>
-      <c r="B267" s="5">
-        <f>18.4/1000*B265</f>
-        <v>8.3903999999999992E-2</v>
-      </c>
-      <c r="C267" t="s">
-        <v>25</v>
-      </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
-      <c r="H267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B268" s="5">
-        <f>0.01*B265</f>
-        <v>4.5599999999999995E-2</v>
-      </c>
-      <c r="C268" t="s">
-        <v>25</v>
-      </c>
-      <c r="D268" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>24</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I268" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>28</v>
+      </c>
+      <c r="B268" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B269" s="5"/>
+      <c r="A269" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B270" s="5"/>
+      <c r="A270" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B272" s="3">
         <v>1</v>
       </c>
-      <c r="B272">
-        <v>1</v>
+      <c r="C272" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G272" t="s">
+        <v>48</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>2</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>83</v>
+        <v>125</v>
+      </c>
+      <c r="B273" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C273" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s">
+        <v>48</v>
+      </c>
+      <c r="H273" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B274" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274" t="s">
+        <v>17</v>
+      </c>
+      <c r="G274" t="s">
+        <v>23</v>
+      </c>
+      <c r="I274" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B275" s="5">
+        <f>18.4/1000*B273</f>
+        <v>8.3903999999999992E-2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s">
+        <v>24</v>
+      </c>
+      <c r="H275" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B276" s="5">
+        <f>0.01*B273</f>
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>24</v>
+      </c>
+      <c r="H276" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I276" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>28</v>
-      </c>
-      <c r="B277" t="s">
-        <v>85</v>
-      </c>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>22</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H280" s="2" t="s">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>2</v>
       </c>
-      <c r="I280" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B281" s="3">
-        <v>1</v>
-      </c>
-      <c r="C281" t="s">
-        <v>25</v>
-      </c>
-      <c r="D281" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" t="s">
-        <v>48</v>
-      </c>
-      <c r="H281" s="3" t="s">
+      <c r="B281" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>125</v>
-      </c>
-      <c r="B282" s="5">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="C282" t="s">
-        <v>25</v>
-      </c>
-      <c r="D282" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>48</v>
-      </c>
-      <c r="H282" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>45</v>
-      </c>
-      <c r="B283" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="D283" t="s">
-        <v>13</v>
-      </c>
-      <c r="E283" t="s">
-        <v>16</v>
-      </c>
-      <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>23</v>
-      </c>
-      <c r="I283" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>34</v>
-      </c>
-      <c r="B284" s="5">
-        <f>18.4/1000*B282</f>
-        <v>4.6644000000000005E-2</v>
-      </c>
-      <c r="C284" t="s">
-        <v>25</v>
-      </c>
-      <c r="D284" t="s">
-        <v>7</v>
-      </c>
-      <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>24</v>
-      </c>
-      <c r="H284" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B285" s="5">
-        <f>0.01*B282</f>
-        <v>2.5350000000000001E-2</v>
-      </c>
-      <c r="C285" t="s">
-        <v>25</v>
-      </c>
-      <c r="D285" t="s">
-        <v>13</v>
-      </c>
-      <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
-      <c r="H285" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I285" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B286" s="5"/>
+      <c r="A286" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="A288" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B289" s="3">
         <v>1</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
+      <c r="C289" t="s">
+        <v>25</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" s="2"/>
+      <c r="F289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G289" t="s">
+        <v>48</v>
+      </c>
+      <c r="H289" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
+        <v>125</v>
+      </c>
+      <c r="B290" s="5">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="C290" t="s">
+        <v>25</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s">
+        <v>48</v>
+      </c>
+      <c r="H290" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B291" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" t="s">
+        <v>17</v>
+      </c>
+      <c r="G291" t="s">
+        <v>23</v>
+      </c>
+      <c r="I291" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>28</v>
-      </c>
-      <c r="B293" t="s">
-        <v>84</v>
+        <v>34</v>
+      </c>
+      <c r="B292" s="5">
+        <f>18.4/1000*B290</f>
+        <v>4.6644000000000005E-2</v>
+      </c>
+      <c r="C292" t="s">
+        <v>25</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>24</v>
+      </c>
+      <c r="H292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B293" s="5">
+        <f>0.01*B290</f>
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I293" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>22</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G296" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H296" s="2" t="s">
+      <c r="A296" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>2</v>
       </c>
-      <c r="I296" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B297" s="3">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>25</v>
-      </c>
-      <c r="D297" t="s">
-        <v>13</v>
-      </c>
-      <c r="E297" s="2"/>
-      <c r="F297" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="s">
-        <v>48</v>
-      </c>
-      <c r="H297" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>125</v>
-      </c>
-      <c r="B298" s="5">
-        <v>1.77</v>
-      </c>
-      <c r="C298" t="s">
-        <v>25</v>
-      </c>
-      <c r="D298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>14</v>
-      </c>
-      <c r="G298" t="s">
-        <v>48</v>
-      </c>
-      <c r="H298" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>77</v>
-      </c>
-      <c r="B299" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D299" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" t="s">
-        <v>78</v>
-      </c>
-      <c r="F299" t="s">
-        <v>17</v>
-      </c>
-      <c r="G299" t="s">
-        <v>23</v>
-      </c>
-      <c r="I299" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>34</v>
-      </c>
-      <c r="B300" s="5">
-        <f>18.4/1000*B298</f>
-        <v>3.2568E-2</v>
-      </c>
-      <c r="C300" t="s">
-        <v>25</v>
-      </c>
-      <c r="D300" t="s">
-        <v>7</v>
-      </c>
-      <c r="F300" t="s">
-        <v>14</v>
-      </c>
-      <c r="G300" t="s">
-        <v>24</v>
-      </c>
-      <c r="H300" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A301" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B301" s="5">
-        <f>0.01*B298</f>
-        <v>1.77E-2</v>
-      </c>
-      <c r="C301" t="s">
-        <v>25</v>
-      </c>
-      <c r="D301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
-      <c r="H301" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I301" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B302" s="5"/>
+      <c r="A302" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B305" s="3">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>25</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="2"/>
+      <c r="F305" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" t="s">
+        <v>48</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>125</v>
+      </c>
+      <c r="B306" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="C306" t="s">
+        <v>25</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s">
+        <v>48</v>
+      </c>
+      <c r="H306" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>77</v>
+      </c>
+      <c r="B307" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="s">
+        <v>78</v>
+      </c>
+      <c r="F307" t="s">
+        <v>17</v>
+      </c>
+      <c r="G307" t="s">
+        <v>23</v>
+      </c>
+      <c r="I307" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>34</v>
+      </c>
+      <c r="B308" s="5">
+        <f>18.4/1000*B306</f>
+        <v>3.2568E-2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B309" s="5">
+        <f>0.01*B306</f>
+        <v>1.77E-2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>24</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I309" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>1</v>
       </c>
-      <c r="B304">
+      <c r="B312">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>28</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B313" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>2</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B314" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>4</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B315" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>6</v>
       </c>
-      <c r="B308" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>22</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B317" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>11</v>
       </c>
-      <c r="B310" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="B318" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>28</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B319" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>22</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B320" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B322" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E314" s="2" t="s">
+      <c r="E322" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F314" s="2" t="s">
+      <c r="F322" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G314" s="2" t="s">
+      <c r="G322" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H314" s="2" t="s">
+      <c r="H322" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>121</v>
-      </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315" t="s">
-        <v>25</v>
-      </c>
-      <c r="D315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>127</v>
-      </c>
-      <c r="H315" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>125</v>
-      </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-      <c r="C316" t="s">
-        <v>25</v>
-      </c>
-      <c r="D316" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" t="s">
-        <v>126</v>
-      </c>
-      <c r="H316" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>30</v>
-      </c>
-      <c r="B317">
-        <v>3.5098030277376187</v>
-      </c>
-      <c r="C317" t="s">
-        <v>31</v>
-      </c>
-      <c r="D317" t="s">
-        <v>15</v>
-      </c>
-      <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>32</v>
-      </c>
-      <c r="H317" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>45</v>
-      </c>
-      <c r="B318">
-        <v>0.13206758828730655</v>
-      </c>
-      <c r="D318" t="s">
-        <v>13</v>
-      </c>
-      <c r="E318" t="s">
-        <v>16</v>
-      </c>
-      <c r="F318" t="s">
-        <v>17</v>
-      </c>
-      <c r="H318" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>33</v>
-      </c>
-      <c r="B319">
-        <v>1.6694063119110985E-6</v>
-      </c>
-      <c r="D319" t="s">
-        <v>13</v>
-      </c>
-      <c r="E319" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" t="s">
-        <v>17</v>
-      </c>
-      <c r="H319" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>120</v>
-      </c>
-      <c r="B320">
-        <v>12.456827894327896</v>
-      </c>
-      <c r="C320" t="s">
-        <v>25</v>
-      </c>
-      <c r="D320" t="s">
-        <v>6</v>
-      </c>
-      <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>120</v>
-      </c>
-      <c r="H320" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
+      <c r="C323" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="F323" t="s">
+        <v>14</v>
+      </c>
+      <c r="G323" t="s">
+        <v>127</v>
+      </c>
+      <c r="H323" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>2</v>
-      </c>
-      <c r="B324" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" t="s">
+        <v>18</v>
+      </c>
+      <c r="G324" t="s">
+        <v>126</v>
+      </c>
+      <c r="H324" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>4</v>
-      </c>
-      <c r="B325" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B325">
+        <v>3.5098030277376187</v>
+      </c>
+      <c r="C325" t="s">
+        <v>31</v>
+      </c>
+      <c r="D325" t="s">
+        <v>15</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>32</v>
+      </c>
+      <c r="H325" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>6</v>
-      </c>
-      <c r="B326" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="B326">
+        <v>0.13206758828730655</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F326" t="s">
+        <v>17</v>
+      </c>
+      <c r="H326" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>11</v>
-      </c>
-      <c r="B327" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B327">
+        <v>1.6694063119110985E-6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>16</v>
+      </c>
+      <c r="F327" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>28</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>22</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B328">
+        <v>12.456827894327896</v>
+      </c>
+      <c r="C328" t="s">
+        <v>25</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>120</v>
+      </c>
+      <c r="H328" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>9</v>
-      </c>
-      <c r="B331" t="s">
-        <v>10</v>
-      </c>
-      <c r="C331" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s">
-        <v>6</v>
-      </c>
-      <c r="E331" t="s">
-        <v>12</v>
-      </c>
-      <c r="F331" t="s">
-        <v>4</v>
-      </c>
-      <c r="G331" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>2</v>
+      </c>
+      <c r="B332" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>28</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>22</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" t="s">
+        <v>4</v>
+      </c>
+      <c r="G339" t="s">
+        <v>2</v>
+      </c>
+      <c r="H339" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>120</v>
       </c>
-      <c r="B332">
+      <c r="B340">
         <f>12.89</f>
         <v>12.89</v>
       </c>
-      <c r="C332" t="s">
-        <v>25</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="C340" t="s">
+        <v>25</v>
+      </c>
+      <c r="D340" t="s">
         <v>6</v>
       </c>
-      <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
         <v>120</v>
       </c>
-      <c r="H332" t="s">
+      <c r="H340" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>121</v>
       </c>
-      <c r="B333">
+      <c r="B341">
         <v>1</v>
       </c>
-      <c r="C333" t="s">
-        <v>25</v>
-      </c>
-      <c r="D333" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" t="s">
+      <c r="C341" t="s">
+        <v>25</v>
+      </c>
+      <c r="D341" t="s">
+        <v>13</v>
+      </c>
+      <c r="F341" t="s">
         <v>18</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G341" t="s">
         <v>127</v>
       </c>
-      <c r="H333" t="s">
+      <c r="H341" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>49</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C342" t="s">
         <v>50</v>
       </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
         <v>51</v>
       </c>
-      <c r="H334" t="s">
+      <c r="H342" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>34</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B343" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
-      <c r="C335" t="s">
-        <v>25</v>
-      </c>
-      <c r="D335" t="s">
+      <c r="C343" t="s">
+        <v>25</v>
+      </c>
+      <c r="D343" t="s">
         <v>7</v>
       </c>
-      <c r="F335" t="s">
-        <v>14</v>
-      </c>
-      <c r="G335" t="s">
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
         <v>20</v>
       </c>
-      <c r="H335" t="s">
+      <c r="H343" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B344" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C344" t="s">
         <v>26</v>
       </c>
-      <c r="D336" t="s">
-        <v>13</v>
-      </c>
-      <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
+      <c r="D344" t="s">
+        <v>13</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
         <v>36</v>
       </c>
-      <c r="H336" t="s">
+      <c r="H344" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>37</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B345" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C345" t="s">
         <v>26</v>
       </c>
-      <c r="D337" t="s">
-        <v>13</v>
-      </c>
-      <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
         <v>38</v>
       </c>
-      <c r="H337" t="s">
+      <c r="H345" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>39</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B346" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C346" t="s">
         <v>40</v>
       </c>
-      <c r="D338" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" t="s">
-        <v>14</v>
-      </c>
-      <c r="G338" t="s">
+      <c r="D346" t="s">
+        <v>13</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
         <v>41</v>
       </c>
-      <c r="H338" t="s">
+      <c r="H346" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A339" s="4" t="s">
+    <row r="347" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B347" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
-      <c r="C339" t="s">
-        <v>25</v>
-      </c>
-      <c r="D339" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" s="4" t="s">
+      <c r="C347" t="s">
+        <v>25</v>
+      </c>
+      <c r="D347" t="s">
+        <v>13</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H339" t="s">
+      <c r="H347" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A340" s="4" t="s">
+    <row r="348" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B348" s="5">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
-      <c r="C340" t="s">
-        <v>25</v>
-      </c>
-      <c r="D340" t="s">
-        <v>13</v>
-      </c>
-      <c r="F340" t="s">
-        <v>14</v>
-      </c>
-      <c r="G340" s="4" t="s">
+      <c r="C348" t="s">
+        <v>25</v>
+      </c>
+      <c r="D348" t="s">
+        <v>13</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H340" t="s">
+      <c r="H348" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+    <row r="350" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B350" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>1</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>2</v>
-      </c>
-      <c r="B344" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>4</v>
-      </c>
-      <c r="B345" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>6</v>
-      </c>
-      <c r="B346" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>22</v>
-      </c>
-      <c r="B347" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>11</v>
-      </c>
-      <c r="B348" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350" t="s">
-        <v>10</v>
-      </c>
-      <c r="C350" t="s">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s">
-        <v>6</v>
-      </c>
-      <c r="E350" t="s">
-        <v>12</v>
-      </c>
-      <c r="F350" t="s">
-        <v>4</v>
-      </c>
-      <c r="G350" t="s">
-        <v>2</v>
-      </c>
-      <c r="H350" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="B351">
-        <v>7.2924747866563216E-6</v>
-      </c>
-      <c r="C351" t="s">
-        <v>26</v>
-      </c>
-      <c r="D351" t="s">
-        <v>13</v>
-      </c>
-      <c r="F351" t="s">
-        <v>146</v>
-      </c>
-      <c r="G351" t="s">
-        <v>147</v>
-      </c>
-      <c r="H351" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>148</v>
-      </c>
-      <c r="B352">
-        <v>7.4243599689681927E-4</v>
-      </c>
-      <c r="C352" t="s">
-        <v>25</v>
-      </c>
-      <c r="D352" t="s">
-        <v>13</v>
-      </c>
-      <c r="F352" t="s">
-        <v>146</v>
-      </c>
-      <c r="G352" t="s">
-        <v>149</v>
-      </c>
-      <c r="H352" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>150</v>
-      </c>
-      <c r="B353">
-        <v>4.1349883630721488E-7</v>
-      </c>
-      <c r="C353" t="s">
-        <v>26</v>
-      </c>
-      <c r="D353" t="s">
-        <v>13</v>
-      </c>
-      <c r="F353" t="s">
-        <v>146</v>
-      </c>
-      <c r="G353" t="s">
-        <v>151</v>
-      </c>
-      <c r="H353" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" t="s">
+        <v>4</v>
+      </c>
+      <c r="G358" t="s">
+        <v>2</v>
+      </c>
+      <c r="H358" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>145</v>
+      </c>
+      <c r="B359">
+        <v>7.2924747866563216E-6</v>
+      </c>
+      <c r="C359" t="s">
+        <v>26</v>
+      </c>
+      <c r="D359" t="s">
+        <v>13</v>
+      </c>
+      <c r="F359" t="s">
+        <v>146</v>
+      </c>
+      <c r="G359" t="s">
+        <v>147</v>
+      </c>
+      <c r="H359" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>148</v>
+      </c>
+      <c r="B360">
+        <v>7.4243599689681927E-4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>25</v>
+      </c>
+      <c r="D360" t="s">
+        <v>13</v>
+      </c>
+      <c r="F360" t="s">
+        <v>146</v>
+      </c>
+      <c r="G360" t="s">
+        <v>149</v>
+      </c>
+      <c r="H360" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>150</v>
+      </c>
+      <c r="B361">
+        <v>4.1349883630721488E-7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>26</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+      <c r="F361" t="s">
+        <v>146</v>
+      </c>
+      <c r="G361" t="s">
+        <v>151</v>
+      </c>
+      <c r="H361" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>152</v>
       </c>
-      <c r="B354">
+      <c r="B362">
         <f>0.00273079906904577/2300</f>
         <v>1.1873039430633782E-6</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C362" t="s">
         <v>19</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D362" t="s">
         <v>27</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F362" t="s">
         <v>146</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G362" t="s">
         <v>153</v>
       </c>
-      <c r="H354" t="s">
+      <c r="H362" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>154</v>
       </c>
-      <c r="B355">
+      <c r="B363">
         <v>1.3045108429904572E-9</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C363" t="s">
         <v>26</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D363" t="s">
         <v>6</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F363" t="s">
         <v>146</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G363" t="s">
         <v>155</v>
       </c>
-      <c r="H355" t="s">
+      <c r="H363" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>156</v>
       </c>
-      <c r="B356">
+      <c r="B364">
         <v>5.7536703406069172E-11</v>
       </c>
-      <c r="C356" t="s">
-        <v>25</v>
-      </c>
-      <c r="D356" t="s">
+      <c r="C364" t="s">
+        <v>25</v>
+      </c>
+      <c r="D364" t="s">
         <v>6</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F364" t="s">
         <v>146</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G364" t="s">
         <v>156</v>
       </c>
-      <c r="H356" t="s">
+      <c r="H364" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>157</v>
       </c>
-      <c r="B357">
+      <c r="B365">
         <v>1.5533182090707562E-11</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C365" t="s">
         <v>31</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D365" t="s">
         <v>6</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F365" t="s">
         <v>146</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G365" t="s">
         <v>158</v>
       </c>
-      <c r="H357" t="s">
+      <c r="H365" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>120</v>
       </c>
-      <c r="B358">
+      <c r="B366">
         <v>1</v>
       </c>
-      <c r="C358" t="s">
-        <v>25</v>
-      </c>
-      <c r="D358" t="s">
+      <c r="C366" t="s">
+        <v>25</v>
+      </c>
+      <c r="D366" t="s">
         <v>6</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F366" t="s">
         <v>18</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G366" t="s">
         <v>120</v>
       </c>
-      <c r="H358" t="s">
+      <c r="H366" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B294" r:id="rId1"/>
-    <hyperlink ref="B278" r:id="rId2"/>
-    <hyperlink ref="B261" r:id="rId3"/>
-    <hyperlink ref="B245" r:id="rId4"/>
-    <hyperlink ref="B228" r:id="rId5"/>
-    <hyperlink ref="B212" r:id="rId6"/>
-    <hyperlink ref="B196" r:id="rId7"/>
-    <hyperlink ref="B180" r:id="rId8"/>
+    <hyperlink ref="B302" r:id="rId1"/>
+    <hyperlink ref="B286" r:id="rId2"/>
+    <hyperlink ref="B269" r:id="rId3"/>
+    <hyperlink ref="B253" r:id="rId4"/>
+    <hyperlink ref="B236" r:id="rId5"/>
+    <hyperlink ref="B220" r:id="rId6"/>
+    <hyperlink ref="B204" r:id="rId7"/>
+    <hyperlink ref="B188" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -157,9 +157,6 @@
     <t>Car db</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
   <si>
@@ -251,12 +248,6 @@
   </si>
   <si>
     <t>hydrogen, 4kg per ton of methanol processed</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>diesel, synthetic, vehicle grade</t>
@@ -499,6 +490,15 @@
   </si>
   <si>
     <t>chemical factory, organics</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -1004,85 +1004,85 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1100,7 +1100,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1112,9 +1112,9 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1147,7 +1147,7 @@
         <v>-0.19792352242488986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1182,9 +1182,9 @@
         <v>-0.46239818796210219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1217,9 +1217,9 @@
         <v>-0.17213365621000509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1252,7 +1252,7 @@
         <v>-0.11108050125682523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1264,45 +1264,45 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1320,7 +1320,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1332,9 +1332,9 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1367,7 +1367,7 @@
         <v>-0.19517406344299681</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1402,9 +1402,9 @@
         <v>-0.4595549974240094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1437,9 +1437,9 @@
         <v>-0.16942168985059203</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1472,48 +1472,48 @@
         <v>-0.10841852506071969</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1532,7 +1532,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1545,9 +1545,9 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1583,7 +1583,7 @@
         <v>-0.36078499253981011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1621,9 +1621,9 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1659,9 +1659,9 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1697,48 +1697,48 @@
         <v>0.49941125559514221</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1757,7 +1757,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1770,9 +1770,9 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1808,7 +1808,7 @@
         <v>-0.36078499253981056</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1846,9 +1846,9 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1884,9 +1884,9 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1931,35 +1931,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1975,15 +1975,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1999,12 +1999,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2024,13 +2024,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2039,9 +2039,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2062,15 +2062,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2090,10 +2090,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2118,15 +2118,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2140,12 +2140,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2165,12 +2165,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2190,12 +2190,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2215,18 +2215,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2240,18 +2240,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2265,21 +2265,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2290,12 +2290,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2304,7 +2304,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2315,18 +2315,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2340,12 +2340,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2367,7 +2367,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -2380,15 +2380,15 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2404,15 +2404,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2428,12 +2428,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2453,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
         <v>52</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>53</v>
-      </c>
-      <c r="I32" t="s">
-        <v>54</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2468,9 +2468,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2491,15 +2491,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2519,10 +2519,10 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2547,15 +2547,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2569,12 +2569,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2594,12 +2594,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2619,12 +2619,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2644,18 +2644,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2669,18 +2669,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2694,21 +2694,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2719,12 +2719,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2733,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2744,18 +2744,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2769,12 +2769,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2796,7 +2796,7 @@
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -2809,15 +2809,15 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2833,15 +2833,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2857,12 +2857,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2882,13 +2882,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" t="s">
         <v>52</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>53</v>
-      </c>
-      <c r="I54" t="s">
-        <v>54</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2897,9 +2897,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2920,15 +2920,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2948,10 +2948,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2976,15 +2976,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -2998,12 +2998,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3023,12 +3023,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3048,12 +3048,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3073,18 +3073,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3098,18 +3098,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3123,21 +3123,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3148,12 +3148,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3162,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3173,18 +3173,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3198,12 +3198,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3225,7 +3225,7 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -3238,15 +3238,15 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3262,15 +3262,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3286,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3311,13 +3311,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" t="s">
         <v>52</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>53</v>
-      </c>
-      <c r="I76" t="s">
-        <v>54</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3326,9 +3326,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3349,15 +3349,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3377,10 +3377,10 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3405,15 +3405,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3427,12 +3427,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3452,12 +3452,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3477,12 +3477,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3502,18 +3502,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3527,18 +3527,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3552,21 +3552,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3577,12 +3577,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3591,7 +3591,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3602,18 +3602,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3627,12 +3627,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3654,7 +3654,7 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -3667,7 +3667,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -3680,15 +3680,15 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3704,15 +3704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3728,12 +3728,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3753,13 +3753,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" t="s">
         <v>52</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>53</v>
-      </c>
-      <c r="I99" t="s">
-        <v>54</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3768,9 +3768,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3791,15 +3791,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3819,10 +3819,10 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3847,15 +3847,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3869,12 +3869,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3894,12 +3894,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3919,12 +3919,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3944,18 +3944,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3969,18 +3969,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -3994,21 +3994,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4019,12 +4019,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4033,7 +4033,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4044,18 +4044,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4069,12 +4069,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4096,7 +4096,7 @@
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4109,15 +4109,15 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4133,15 +4133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4157,12 +4157,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4182,13 +4182,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" t="s">
         <v>52</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>53</v>
-      </c>
-      <c r="I121" t="s">
-        <v>54</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4197,9 +4197,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4220,15 +4220,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4248,10 +4248,10 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4276,15 +4276,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4298,12 +4298,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4323,12 +4323,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4348,12 +4348,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4373,18 +4373,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4398,18 +4398,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4423,21 +4423,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4448,12 +4448,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4462,7 +4462,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4473,18 +4473,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4498,12 +4498,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4525,7 +4525,7 @@
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -4538,15 +4538,15 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4562,15 +4562,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4586,12 +4586,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4611,13 +4611,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s">
         <v>52</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>53</v>
-      </c>
-      <c r="I143" t="s">
-        <v>54</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4626,9 +4626,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4649,15 +4649,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4677,10 +4677,10 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4705,15 +4705,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4727,12 +4727,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4752,12 +4752,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4777,12 +4777,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4802,18 +4802,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4827,18 +4827,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4852,21 +4852,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4877,12 +4877,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4891,7 +4891,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4902,18 +4902,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4927,12 +4927,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4954,7 +4954,7 @@
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -4967,15 +4967,15 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4991,15 +4991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5015,12 +5015,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5040,13 +5040,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>51</v>
+      </c>
+      <c r="H165" t="s">
         <v>52</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>53</v>
-      </c>
-      <c r="I165" t="s">
-        <v>54</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5055,9 +5055,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5078,15 +5078,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5106,10 +5106,10 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -5134,15 +5134,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5156,12 +5156,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5181,12 +5181,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5206,12 +5206,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5231,18 +5231,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5256,18 +5256,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5281,21 +5281,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5306,12 +5306,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5320,7 +5320,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5331,18 +5331,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5356,12 +5356,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5383,7 +5383,7 @@
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5396,7 +5396,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5409,15 +5409,15 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5425,15 +5425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5457,28 +5457,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -5507,9 +5507,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5525,15 +5525,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5548,15 +5548,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5574,10 +5574,10 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5601,9 +5601,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5625,21 +5625,21 @@
         <v>42</v>
       </c>
       <c r="I195" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5647,15 +5647,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5679,28 +5679,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5729,9 +5729,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5747,15 +5747,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5770,15 +5770,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5787,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5796,10 +5796,10 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5823,9 +5823,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5847,21 +5847,21 @@
         <v>42</v>
       </c>
       <c r="I211" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5869,15 +5869,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5901,28 +5901,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5951,9 +5951,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5969,15 +5969,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -5992,15 +5992,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H224" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6018,10 +6018,10 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6045,9 +6045,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6069,21 +6069,21 @@
         <v>42</v>
       </c>
       <c r="I227" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6091,15 +6091,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6123,28 +6123,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -6173,9 +6173,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6191,15 +6191,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6214,15 +6214,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6240,10 +6240,10 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -6267,9 +6267,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6291,24 +6291,24 @@
         <v>42</v>
       </c>
       <c r="I243" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6316,15 +6316,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -6348,28 +6348,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -6398,9 +6398,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6416,15 +6416,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6439,15 +6439,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6465,10 +6465,10 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -6492,9 +6492,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6516,21 +6516,21 @@
         <v>42</v>
       </c>
       <c r="I260" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -6538,15 +6538,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -6570,28 +6570,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6620,9 +6620,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6638,15 +6638,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6661,15 +6661,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H273" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6687,10 +6687,10 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6714,9 +6714,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6738,24 +6738,24 @@
         <v>42</v>
       </c>
       <c r="I276" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6763,15 +6763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6795,28 +6795,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6845,9 +6845,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6863,15 +6863,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6886,15 +6886,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H290" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6912,10 +6912,10 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6939,9 +6939,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6963,21 +6963,21 @@
         <v>42</v>
       </c>
       <c r="I293" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6985,15 +6985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -7017,28 +7017,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -7067,9 +7067,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7085,15 +7085,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7108,15 +7108,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H306" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7125,7 +7125,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7134,10 +7134,10 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -7161,9 +7161,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7185,21 +7185,21 @@
         <v>42</v>
       </c>
       <c r="I309" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -7215,15 +7215,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -7239,15 +7239,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -7255,28 +7255,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -7302,9 +7302,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7319,15 +7319,15 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7342,13 +7342,13 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7371,9 +7371,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7391,7 +7391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7411,9 +7411,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7428,21 +7428,21 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -7450,15 +7450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7482,28 +7482,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7529,9 +7529,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7547,15 +7547,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H340" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7570,37 +7570,37 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H341" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
+        <v>49</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
         <v>50</v>
-      </c>
-      <c r="D342" t="s">
-        <v>13</v>
-      </c>
-      <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>51</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7696,9 +7696,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7720,7 +7720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
@@ -7744,15 +7744,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1</v>
       </c>
@@ -7760,15 +7760,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2</v>
       </c>
       <c r="B352" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -7784,15 +7784,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>22</v>
       </c>
       <c r="B355" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>11</v>
       </c>
@@ -7800,12 +7800,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>9</v>
       </c>
@@ -7831,9 +7831,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B359">
         <v>7.2924747866563216E-6</v>
@@ -7845,18 +7845,18 @@
         <v>13</v>
       </c>
       <c r="F359" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G359" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H359" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B360">
         <v>7.4243599689681927E-4</v>
@@ -7868,18 +7868,18 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
+        <v>143</v>
+      </c>
+      <c r="G360" t="s">
         <v>146</v>
-      </c>
-      <c r="G360" t="s">
-        <v>149</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B361">
         <v>4.1349883630721488E-7</v>
@@ -7891,18 +7891,18 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B362">
         <f>0.00273079906904577/2300</f>
@@ -7915,18 +7915,18 @@
         <v>27</v>
       </c>
       <c r="F362" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G362" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B363">
         <v>1.3045108429904572E-9</v>
@@ -7938,18 +7938,18 @@
         <v>6</v>
       </c>
       <c r="F363" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B364">
         <v>5.7536703406069172E-11</v>
@@ -7961,18 +7961,18 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G364" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H364" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B365">
         <v>1.5533182090707562E-11</v>
@@ -7984,18 +7984,18 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H365" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -8010,7 +8010,7 @@
         <v>18</v>
       </c>
       <c r="G366" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H366" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -645,7 +645,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,6 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1004,26 +1005,26 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1039,12 +1040,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1080,7 +1081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>107</v>
       </c>
@@ -1100,7 +1101,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1112,7 +1113,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>-0.19792352242488986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>-0.46239818796210219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>109</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>-0.17213365621000509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>-0.11108050125682523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1264,7 +1265,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1300,7 +1301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1332,7 +1333,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>-0.19517406344299681</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>-0.4595549974240094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>-0.16942168985059203</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>-0.10841852506071969</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1511,7 +1512,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>107</v>
       </c>
@@ -1532,7 +1533,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1545,7 +1546,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>108</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>-0.36078499253981011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>0.49941125559514221</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1736,7 +1737,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>107</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1770,7 +1771,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>108</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>-0.36078499253981056</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>110</v>
       </c>
@@ -1929,21 +1930,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1999,12 +2000,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>156</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -2380,7 +2381,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2428,12 +2429,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>126</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>156</v>
       </c>
@@ -2796,7 +2797,7 @@
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -2809,7 +2810,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2857,12 +2858,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>127</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>156</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -3238,7 +3239,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3287,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>61</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>156</v>
       </c>
@@ -3654,7 +3655,7 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -3667,7 +3668,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -3680,7 +3681,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3728,12 +3729,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>48</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>65</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4097,7 @@
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4109,7 +4110,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4157,12 +4158,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>130</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>59</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>61</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>63</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>48</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>65</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34" t="s">
         <v>156</v>
       </c>
@@ -4525,7 +4526,7 @@
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -4538,7 +4539,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4586,12 +4587,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>131</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>59</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>61</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>65</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>68</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="34" t="s">
         <v>156</v>
       </c>
@@ -4954,7 +4955,7 @@
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -4967,7 +4968,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5015,12 +5016,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>140</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>132</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>57</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>61</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>63</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>48</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>73</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="34" t="s">
         <v>156</v>
       </c>
@@ -5383,7 +5384,7 @@
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5396,7 +5397,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5409,7 +5410,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -5473,12 +5474,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>122</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>141</v>
       </c>
@@ -5628,10 +5629,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5695,12 +5696,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>126</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>122</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>141</v>
       </c>
@@ -5850,10 +5851,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5917,12 +5918,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>122</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>156</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>141</v>
       </c>
@@ -6072,10 +6073,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -6139,12 +6140,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>127</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>156</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>141</v>
       </c>
@@ -6294,13 +6295,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -6364,12 +6365,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>122</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>156</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>141</v>
       </c>
@@ -6519,10 +6520,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -6586,12 +6587,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>141</v>
       </c>
@@ -6741,13 +6742,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6811,12 +6812,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>129</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>122</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>156</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>141</v>
       </c>
@@ -6966,10 +6967,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6985,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -7033,12 +7034,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>125</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>122</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>158</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>141</v>
       </c>
@@ -7188,10 +7189,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -7271,12 +7272,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>122</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7371,7 +7372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -7498,12 +7499,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>48</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>141</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
@@ -7744,125 +7745,127 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B349" s="36">
+        <f>B342</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+    </row>
+    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B351" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>1</v>
       </c>
-      <c r="B351">
+      <c r="B352">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>2</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>4</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>6</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>22</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>11</v>
       </c>
-      <c r="B356" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="B357" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>9</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B359" t="s">
         <v>10</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C359" t="s">
         <v>11</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D359" t="s">
         <v>6</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E359" t="s">
         <v>12</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F359" t="s">
         <v>4</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G359" t="s">
         <v>2</v>
       </c>
-      <c r="H358" t="s">
+      <c r="H359" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>142</v>
       </c>
-      <c r="B359">
+      <c r="B360">
         <v>7.2924747866563216E-6</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" t="s">
         <v>26</v>
-      </c>
-      <c r="D359" t="s">
-        <v>13</v>
-      </c>
-      <c r="F359" t="s">
-        <v>143</v>
-      </c>
-      <c r="G359" t="s">
-        <v>144</v>
-      </c>
-      <c r="H359" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>145</v>
-      </c>
-      <c r="B360">
-        <v>7.4243599689681927E-4</v>
-      </c>
-      <c r="C360" t="s">
-        <v>25</v>
       </c>
       <c r="D360" t="s">
         <v>13</v>
@@ -7871,21 +7874,21 @@
         <v>143</v>
       </c>
       <c r="G360" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B361">
-        <v>4.1349883630721488E-7</v>
+        <v>7.4243599689681927E-4</v>
       </c>
       <c r="C361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
         <v>13</v>
@@ -7894,68 +7897,68 @@
         <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
+        <v>147</v>
+      </c>
+      <c r="B362">
+        <v>4.1349883630721488E-7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" t="s">
+        <v>143</v>
+      </c>
+      <c r="G362" t="s">
+        <v>148</v>
+      </c>
+      <c r="H362" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>149</v>
       </c>
-      <c r="B362">
+      <c r="B363">
         <f>0.00273079906904577/2300</f>
         <v>1.1873039430633782E-6</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C363" t="s">
         <v>19</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D363" t="s">
         <v>27</v>
-      </c>
-      <c r="F362" t="s">
-        <v>143</v>
-      </c>
-      <c r="G362" t="s">
-        <v>150</v>
-      </c>
-      <c r="H362" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>151</v>
-      </c>
-      <c r="B363">
-        <v>1.3045108429904572E-9</v>
-      </c>
-      <c r="C363" t="s">
-        <v>26</v>
-      </c>
-      <c r="D363" t="s">
-        <v>6</v>
       </c>
       <c r="F363" t="s">
         <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B364">
-        <v>5.7536703406069172E-11</v>
+        <v>1.3045108429904572E-9</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D364" t="s">
         <v>6</v>
@@ -7964,21 +7967,21 @@
         <v>143</v>
       </c>
       <c r="G364" t="s">
+        <v>152</v>
+      </c>
+      <c r="H364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>153</v>
       </c>
-      <c r="H364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>154</v>
-      </c>
       <c r="B365">
-        <v>1.5533182090707562E-11</v>
+        <v>5.7536703406069172E-11</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -7987,32 +7990,55 @@
         <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D366" t="s">
         <v>6</v>
       </c>
       <c r="F366" t="s">
+        <v>143</v>
+      </c>
+      <c r="G366" t="s">
+        <v>155</v>
+      </c>
+      <c r="H366" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>117</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>25</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" t="s">
         <v>18</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G367" t="s">
         <v>117</v>
       </c>
-      <c r="H366" t="s">
+      <c r="H367" t="s">
         <v>3</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -1004,26 +1004,26 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1039,12 +1039,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1080,7 +1080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>107</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1112,7 +1112,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>-0.19792352242488986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>-0.46239818796210219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>109</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>-0.17213365621000509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>-0.11108050125682523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1264,7 +1264,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1300,7 +1300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1332,7 +1332,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>-0.19517406344299681</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>-0.4595549974240094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>-0.16942168985059203</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>-0.10841852506071969</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1511,7 +1511,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>107</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1545,7 +1545,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>108</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>-0.36078499253981011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0.49941125559514221</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1736,7 +1736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>107</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1770,7 +1770,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>108</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>-0.36078499253981056</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>110</v>
       </c>
@@ -1929,21 +1929,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1999,12 +1999,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>156</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -2380,7 +2380,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2428,12 +2428,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>126</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>156</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -2809,7 +2809,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2857,12 +2857,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>127</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>156</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -3238,7 +3238,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3286,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>61</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>156</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -3667,7 +3667,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -3680,7 +3680,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3728,12 +3728,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>48</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>65</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="34" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4109,7 +4109,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4157,12 +4157,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>130</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>59</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>61</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>63</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>48</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>65</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="34" t="s">
         <v>156</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -4538,7 +4538,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4586,12 +4586,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>131</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>59</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>61</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>65</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>68</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="34" t="s">
         <v>156</v>
       </c>
@@ -4954,7 +4954,7 @@
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -4967,7 +4967,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5015,12 +5015,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>140</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>132</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>57</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>61</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>63</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>48</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>73</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="34" t="s">
         <v>156</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5396,7 +5396,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5409,7 +5409,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -5473,12 +5473,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>122</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>141</v>
       </c>
@@ -5628,10 +5628,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5695,12 +5695,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>126</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>122</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>141</v>
       </c>
@@ -5850,10 +5850,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5917,12 +5917,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>122</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>156</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>141</v>
       </c>
@@ -6072,10 +6072,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -6139,12 +6139,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>127</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>156</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>141</v>
       </c>
@@ -6294,13 +6294,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -6364,12 +6364,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>122</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>156</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>141</v>
       </c>
@@ -6519,10 +6519,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -6586,12 +6586,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>141</v>
       </c>
@@ -6741,13 +6741,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6811,12 +6811,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>129</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>122</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>156</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>141</v>
       </c>
@@ -6966,10 +6966,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -7033,12 +7033,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>125</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>122</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>158</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>141</v>
       </c>
@@ -7188,10 +7188,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -7271,12 +7271,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>122</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -7498,12 +7498,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>48</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>141</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
@@ -7744,125 +7744,129 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B349" s="6">
+        <f>B342/1000</f>
+        <v>6.8819599109131407E-2</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H349" t="s">
+        <v>24</v>
+      </c>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+    </row>
+    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B351" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>1</v>
       </c>
-      <c r="B351">
+      <c r="B352">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>2</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B353" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>4</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B354" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>6</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>22</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>11</v>
       </c>
-      <c r="B356" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="B357" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>9</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B359" t="s">
         <v>10</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C359" t="s">
         <v>11</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D359" t="s">
         <v>6</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E359" t="s">
         <v>12</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F359" t="s">
         <v>4</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G359" t="s">
         <v>2</v>
       </c>
-      <c r="H358" t="s">
+      <c r="H359" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>142</v>
       </c>
-      <c r="B359">
+      <c r="B360">
         <v>7.2924747866563216E-6</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" t="s">
         <v>26</v>
-      </c>
-      <c r="D359" t="s">
-        <v>13</v>
-      </c>
-      <c r="F359" t="s">
-        <v>143</v>
-      </c>
-      <c r="G359" t="s">
-        <v>144</v>
-      </c>
-      <c r="H359" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>145</v>
-      </c>
-      <c r="B360">
-        <v>7.4243599689681927E-4</v>
-      </c>
-      <c r="C360" t="s">
-        <v>25</v>
       </c>
       <c r="D360" t="s">
         <v>13</v>
@@ -7871,21 +7875,21 @@
         <v>143</v>
       </c>
       <c r="G360" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B361">
-        <v>4.1349883630721488E-7</v>
+        <v>7.4243599689681927E-4</v>
       </c>
       <c r="C361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
         <v>13</v>
@@ -7894,68 +7898,68 @@
         <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
+        <v>147</v>
+      </c>
+      <c r="B362">
+        <v>4.1349883630721488E-7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" t="s">
+        <v>143</v>
+      </c>
+      <c r="G362" t="s">
+        <v>148</v>
+      </c>
+      <c r="H362" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>149</v>
       </c>
-      <c r="B362">
+      <c r="B363">
         <f>0.00273079906904577/2300</f>
         <v>1.1873039430633782E-6</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C363" t="s">
         <v>19</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D363" t="s">
         <v>27</v>
-      </c>
-      <c r="F362" t="s">
-        <v>143</v>
-      </c>
-      <c r="G362" t="s">
-        <v>150</v>
-      </c>
-      <c r="H362" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>151</v>
-      </c>
-      <c r="B363">
-        <v>1.3045108429904572E-9</v>
-      </c>
-      <c r="C363" t="s">
-        <v>26</v>
-      </c>
-      <c r="D363" t="s">
-        <v>6</v>
       </c>
       <c r="F363" t="s">
         <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B364">
-        <v>5.7536703406069172E-11</v>
+        <v>1.3045108429904572E-9</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D364" t="s">
         <v>6</v>
@@ -7964,21 +7968,21 @@
         <v>143</v>
       </c>
       <c r="G364" t="s">
+        <v>152</v>
+      </c>
+      <c r="H364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>153</v>
       </c>
-      <c r="H364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>154</v>
-      </c>
       <c r="B365">
-        <v>1.5533182090707562E-11</v>
+        <v>5.7536703406069172E-11</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -7987,32 +7991,55 @@
         <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D366" t="s">
         <v>6</v>
       </c>
       <c r="F366" t="s">
+        <v>143</v>
+      </c>
+      <c r="G366" t="s">
+        <v>155</v>
+      </c>
+      <c r="H366" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>117</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" t="s">
+        <v>25</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" t="s">
         <v>18</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G367" t="s">
         <v>117</v>
       </c>
-      <c r="H366" t="s">
+      <c r="H367" t="s">
         <v>3</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -15,12 +15,12 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -645,7 +645,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,7 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1932,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7749,9 +7748,9 @@
       <c r="A349" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B349" s="36">
-        <f>B342</f>
-        <v>68.819599109131403</v>
+      <c r="B349" s="6">
+        <f>B342/1000</f>
+        <v>6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>49</v>
@@ -7766,7 +7765,9 @@
       <c r="G349" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H349" s="3"/>
+      <c r="H349" t="s">
+        <v>24</v>
+      </c>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -504,7 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -686,7 +699,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,33 +1010,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1031,7 +1044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1039,12 +1052,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1080,7 +1093,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>107</v>
       </c>
@@ -1100,7 +1113,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1112,7 +1125,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>-0.19792352242488986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>-0.46239818796210219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>109</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>-0.17213365621000509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>-0.11108050125682523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1264,7 +1277,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1272,7 +1285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1300,7 +1313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1333,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1332,7 +1345,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>-0.19517406344299681</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>-0.4595549974240094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>-0.16942168985059203</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>-0.10841852506071969</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1511,7 +1524,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>107</v>
       </c>
@@ -1532,7 +1545,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1545,7 +1558,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>108</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>-0.36078499253981011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
@@ -1659,7 +1672,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
@@ -1697,7 +1710,7 @@
         <v>0.49941125559514221</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1736,7 +1749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>107</v>
       </c>
@@ -1757,7 +1770,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1770,7 +1783,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>108</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>-0.36078499253981056</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -1884,7 +1897,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>110</v>
       </c>
@@ -1928,22 +1941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="H350" sqref="H350"/>
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1972,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1999,12 +2012,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2068,7 +2081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2093,7 +2106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2118,7 +2131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2256,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -2293,7 +2306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -2318,7 +2331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>156</v>
       </c>
@@ -2367,7 +2380,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -2380,7 +2393,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2428,12 +2441,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -2497,7 +2510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>126</v>
       </c>
@@ -2522,7 +2535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2735,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2747,7 +2760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>156</v>
       </c>
@@ -2796,7 +2809,7 @@
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -2809,7 +2822,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2830,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2857,12 +2870,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>127</v>
       </c>
@@ -2951,7 +2964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -3026,7 +3039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -3126,7 +3139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
         <v>156</v>
       </c>
@@ -3225,7 +3238,7 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -3238,7 +3251,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3259,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3299,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
@@ -3380,7 +3393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -3455,7 +3468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>61</v>
       </c>
@@ -3505,7 +3518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -3555,7 +3568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -3605,7 +3618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
         <v>156</v>
       </c>
@@ -3654,7 +3667,7 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -3667,7 +3680,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -3680,7 +3693,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3728,12 +3741,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +3810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -3897,7 +3910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -3972,7 +3985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>48</v>
       </c>
@@ -3997,7 +4010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>65</v>
       </c>
@@ -4022,7 +4035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4109,7 @@
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4109,7 +4122,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4157,12 +4170,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>130</v>
       </c>
@@ -4251,7 +4264,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -4326,7 +4339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>59</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>61</v>
       </c>
@@ -4376,7 +4389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>63</v>
       </c>
@@ -4401,7 +4414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>48</v>
       </c>
@@ -4426,7 +4439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>65</v>
       </c>
@@ -4451,7 +4464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
         <v>156</v>
       </c>
@@ -4525,7 +4538,7 @@
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -4538,7 +4551,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4559,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4586,12 +4599,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -4655,7 +4668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>131</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
@@ -4730,7 +4743,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -4755,7 +4768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>59</v>
       </c>
@@ -4780,7 +4793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>61</v>
       </c>
@@ -4805,7 +4818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>65</v>
       </c>
@@ -4880,7 +4893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>68</v>
       </c>
@@ -4905,7 +4918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
         <v>156</v>
       </c>
@@ -4954,7 +4967,7 @@
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -4967,7 +4980,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5015,12 +5028,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>140</v>
       </c>
@@ -5084,7 +5097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>132</v>
       </c>
@@ -5109,7 +5122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -5134,7 +5147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>57</v>
       </c>
@@ -5184,7 +5197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>61</v>
       </c>
@@ -5234,7 +5247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>63</v>
       </c>
@@ -5259,7 +5272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>48</v>
       </c>
@@ -5284,7 +5297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>73</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
         <v>156</v>
       </c>
@@ -5383,7 +5396,7 @@
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5396,7 +5409,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5409,7 +5422,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5430,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -5473,12 +5486,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>122</v>
       </c>
@@ -5554,7 +5567,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>141</v>
       </c>
@@ -5628,10 +5641,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5695,12 +5708,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>126</v>
       </c>
@@ -5753,7 +5766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>122</v>
       </c>
@@ -5776,7 +5789,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>141</v>
       </c>
@@ -5850,10 +5863,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5874,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5877,7 +5890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +5914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +5922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5917,12 +5930,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5951,7 +5964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -5975,7 +5988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>122</v>
       </c>
@@ -5998,7 +6011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>156</v>
       </c>
@@ -6021,7 +6034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>141</v>
       </c>
@@ -6072,10 +6085,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6096,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6115,7 +6128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6123,7 +6136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -6139,12 +6152,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>127</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>156</v>
       </c>
@@ -6243,7 +6256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>141</v>
       </c>
@@ -6294,13 +6307,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -6324,7 +6337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -6356,7 +6369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -6364,12 +6377,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>122</v>
       </c>
@@ -6445,7 +6458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>156</v>
       </c>
@@ -6468,7 +6481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -6492,7 +6505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>141</v>
       </c>
@@ -6519,10 +6532,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -6562,7 +6575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -6586,12 +6599,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6620,7 +6633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -6667,7 +6680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>141</v>
       </c>
@@ -6741,13 +6754,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6768,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6763,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6795,7 +6808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6816,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6811,12 +6824,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6845,7 +6858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>129</v>
       </c>
@@ -6869,7 +6882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>122</v>
       </c>
@@ -6892,7 +6905,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>156</v>
       </c>
@@ -6915,7 +6928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6939,7 +6952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>141</v>
       </c>
@@ -6966,10 +6979,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +7006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -7033,12 +7046,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>125</v>
       </c>
@@ -7091,7 +7104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>122</v>
       </c>
@@ -7114,7 +7127,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>158</v>
       </c>
@@ -7137,7 +7150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -7161,7 +7174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>141</v>
       </c>
@@ -7188,10 +7201,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7212,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -7207,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -7215,7 +7228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -7223,7 +7236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -7247,7 +7260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -7255,7 +7268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -7263,7 +7276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -7271,12 +7284,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -7302,7 +7315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>122</v>
       </c>
@@ -7348,7 +7361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7371,7 +7384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -7391,7 +7404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7411,7 +7424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -7434,7 +7447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -7458,7 +7471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -7474,7 +7487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -7490,7 +7503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -7498,12 +7511,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7529,7 +7542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7553,7 +7566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -7576,7 +7589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>48</v>
       </c>
@@ -7600,7 +7613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7624,7 +7637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7696,7 +7709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>141</v>
       </c>
@@ -7720,7 +7733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
@@ -7744,13 +7757,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B349" s="6">
-        <f>B342/1000</f>
-        <v>6.8819599109131407E-2</v>
+        <f>-B342/1000</f>
+        <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>49</v>
@@ -7771,7 +7784,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7779,7 +7792,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -7787,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -7803,7 +7816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -7811,7 +7824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>22</v>
       </c>
@@ -7819,7 +7832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -7827,12 +7840,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -7858,7 +7871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>142</v>
       </c>
@@ -7881,7 +7894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>145</v>
       </c>
@@ -7904,7 +7917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>147</v>
       </c>
@@ -7927,7 +7940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>149</v>
       </c>
@@ -7951,7 +7964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>151</v>
       </c>
@@ -7974,7 +7987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>154</v>
       </c>
@@ -8020,7 +8033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>117</v>
       </c>
@@ -8045,14 +8058,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B302" r:id="rId1"/>
-    <hyperlink ref="B286" r:id="rId2"/>
-    <hyperlink ref="B269" r:id="rId3"/>
-    <hyperlink ref="B253" r:id="rId4"/>
-    <hyperlink ref="B236" r:id="rId5"/>
-    <hyperlink ref="B220" r:id="rId6"/>
-    <hyperlink ref="B204" r:id="rId7"/>
-    <hyperlink ref="B188" r:id="rId8"/>
+    <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B269" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B253" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B236" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B220" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B204" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B188" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11054E-E936-A541-94E8-F4301AE37E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,9 +161,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
-  </si>
-  <si>
-    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -512,6 +506,12 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
@@ -523,9 +523,23 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,28 +669,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -684,17 +698,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1033,69 +1049,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1127,7 +1143,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1197,7 +1213,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1232,7 +1248,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1279,43 +1295,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1347,7 +1363,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1417,7 +1433,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1452,7 +1468,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1487,46 +1503,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1560,7 +1576,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1636,7 +1652,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1674,7 +1690,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1712,46 +1728,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1785,7 +1801,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1861,7 +1877,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1899,7 +1915,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1944,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1954,6 +1970,7 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1961,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1969,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1993,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2037,13 +2054,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2054,7 +2071,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2075,15 +2092,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2103,7 +2120,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2133,13 +2150,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2153,12 +2170,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2178,12 +2195,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2203,12 +2220,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2228,18 +2245,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2253,18 +2270,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2278,21 +2295,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2303,12 +2320,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2317,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2328,18 +2345,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2353,12 +2370,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2398,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2422,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2466,13 +2483,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>53</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2483,7 +2500,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2504,15 +2521,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2532,7 +2549,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2562,13 +2579,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2582,12 +2599,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2607,12 +2624,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2632,12 +2649,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2657,18 +2674,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2682,18 +2699,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2707,21 +2724,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2732,12 +2749,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2746,7 +2763,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2757,18 +2774,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2782,12 +2799,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2827,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2851,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2895,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
         <v>51</v>
-      </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" t="s">
-        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2912,7 +2929,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2933,15 +2950,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2961,7 +2978,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2991,13 +3008,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -3011,12 +3028,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3036,12 +3053,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3061,12 +3078,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3086,18 +3103,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3111,18 +3128,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3136,21 +3153,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3161,12 +3178,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3175,7 +3192,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3186,18 +3203,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3211,12 +3228,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3256,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3280,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3324,13 +3341,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
         <v>51</v>
-      </c>
-      <c r="H76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3341,7 +3358,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3362,15 +3379,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3390,7 +3407,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3420,13 +3437,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3440,12 +3457,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3465,12 +3482,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3490,12 +3507,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3515,18 +3532,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3540,18 +3557,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3565,21 +3582,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3590,12 +3607,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3604,7 +3621,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3615,18 +3632,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3640,12 +3657,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3698,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3766,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s">
         <v>51</v>
-      </c>
-      <c r="H99" t="s">
-        <v>52</v>
-      </c>
-      <c r="I99" t="s">
-        <v>53</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3783,7 +3800,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3804,15 +3821,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3832,7 +3849,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,13 +3879,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3882,12 +3899,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3907,12 +3924,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3932,12 +3949,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3957,18 +3974,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3982,18 +3999,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -4007,21 +4024,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4032,12 +4049,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4046,7 +4063,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4057,18 +4074,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4082,12 +4099,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4127,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4151,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,13 +4212,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" t="s">
         <v>51</v>
-      </c>
-      <c r="H121" t="s">
-        <v>52</v>
-      </c>
-      <c r="I121" t="s">
-        <v>53</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4212,7 +4229,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4233,15 +4250,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4261,7 +4278,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4291,13 +4308,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4311,12 +4328,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4336,12 +4353,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4361,12 +4378,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4386,18 +4403,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4411,18 +4428,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4436,21 +4453,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4461,12 +4478,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4475,7 +4492,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4486,18 +4503,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4511,12 +4528,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4556,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4624,13 +4641,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" t="s">
+        <v>50</v>
+      </c>
+      <c r="I143" t="s">
         <v>51</v>
-      </c>
-      <c r="H143" t="s">
-        <v>52</v>
-      </c>
-      <c r="I143" t="s">
-        <v>53</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4641,7 +4658,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4662,15 +4679,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4690,7 +4707,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,13 +4737,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4740,12 +4757,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4765,12 +4782,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4790,12 +4807,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4815,18 +4832,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4840,18 +4857,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4865,21 +4882,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4890,12 +4907,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4904,7 +4921,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4915,18 +4932,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4940,12 +4957,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4985,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5009,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5053,13 +5070,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H165" t="s">
+        <v>50</v>
+      </c>
+      <c r="I165" t="s">
         <v>51</v>
-      </c>
-      <c r="H165" t="s">
-        <v>52</v>
-      </c>
-      <c r="I165" t="s">
-        <v>53</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5070,7 +5087,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5091,15 +5108,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5119,7 +5136,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5149,13 +5166,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5169,12 +5186,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5194,12 +5211,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5219,12 +5236,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5244,18 +5261,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5269,18 +5286,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5294,21 +5311,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5319,12 +5336,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5333,7 +5350,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5344,18 +5361,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5369,12 +5386,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5427,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5443,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5475,7 +5492,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5483,7 +5500,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -5522,7 +5539,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5538,15 +5555,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5561,15 +5578,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H192" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5587,7 +5604,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5616,7 +5633,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5634,11 +5651,11 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="4" t="s">
-        <v>42</v>
+      <c r="H195" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="I195" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5649,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5665,7 +5682,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5697,7 +5714,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5705,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5744,7 +5761,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5760,15 +5777,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5783,15 +5800,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H208" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5800,7 +5817,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5809,7 +5826,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,7 +5855,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5857,10 +5874,10 @@
         <v>24</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I211" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5871,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5887,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +5936,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5927,7 +5944,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5966,7 +5983,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5982,15 +5999,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6005,15 +6022,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H224" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6031,7 +6048,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6060,7 +6077,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6079,10 +6096,10 @@
         <v>24</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I227" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6109,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6141,7 +6158,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6149,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,7 +6205,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6204,15 +6221,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6227,15 +6244,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H240" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6253,7 +6270,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6282,7 +6299,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6301,10 +6318,10 @@
         <v>24</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I243" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6334,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,7 +6383,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,7 +6391,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,7 +6430,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6429,15 +6446,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6452,15 +6469,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H257" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6478,7 +6495,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6507,7 +6524,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6526,10 +6543,10 @@
         <v>24</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I260" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6540,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,7 +6605,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6596,7 +6613,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6635,7 +6652,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6651,15 +6668,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6674,15 +6691,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H273" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6700,7 +6717,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,7 +6746,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6748,10 +6765,10 @@
         <v>24</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I276" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6765,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6781,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6830,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +6838,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,7 +6877,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6876,15 +6893,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6899,15 +6916,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H290" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6925,7 +6942,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6954,7 +6971,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6973,10 +6990,10 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I293" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,7 +7020,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -7035,7 +7052,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -7043,7 +7060,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -7082,7 +7099,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7098,15 +7115,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7121,15 +7138,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H306" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7138,7 +7155,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7147,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,7 +7193,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7195,10 +7212,10 @@
         <v>24</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I309" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7209,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7233,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7257,7 +7274,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7273,7 +7290,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,7 +7298,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7317,7 +7334,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7332,7 +7349,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7340,7 +7357,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7355,7 +7372,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7386,7 +7403,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7426,7 +7443,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7441,7 +7458,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7452,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,7 +7485,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7500,7 +7517,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7508,7 +7525,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7544,7 +7561,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7560,15 +7577,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7583,22 +7600,22 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D342" t="s">
         <v>13</v>
@@ -7607,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="G342" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -7711,7 +7728,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7727,15 +7744,15 @@
         <v>14</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="H347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B348" s="5">
         <f>75900000/44900000</f>
@@ -7750,23 +7767,23 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="4" t="s">
+      <c r="G348" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H348" t="s">
         <v>43</v>
-      </c>
-      <c r="H348" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B349" s="6">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>27</v>
@@ -7776,7 +7793,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
@@ -7789,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7805,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7829,7 +7846,7 @@
         <v>22</v>
       </c>
       <c r="B356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -7873,7 +7890,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7885,10 +7902,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G360" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7896,7 +7913,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7908,10 +7925,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G361" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7919,7 +7936,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7931,10 +7948,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G362" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7942,7 +7959,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7955,10 +7972,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G363" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7966,7 +7983,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7978,10 +7995,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G364" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7989,7 +8006,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8001,10 +8018,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G365" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8012,7 +8029,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8024,10 +8041,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G366" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8035,7 +8052,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8050,7 +8067,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11054E-E936-A541-94E8-F4301AE37E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,6 +161,9 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
+    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
     <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -506,12 +512,6 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
@@ -523,23 +523,9 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -669,28 +655,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -698,19 +684,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1049,69 +1033,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1143,7 +1127,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1213,7 +1197,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1248,7 +1232,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1295,43 +1279,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1363,7 +1347,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1433,7 +1417,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1468,7 +1452,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1503,46 +1487,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1576,7 +1560,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1652,7 +1636,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1690,7 +1674,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1728,46 +1712,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1801,7 +1785,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1877,7 +1861,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1915,7 +1899,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1960,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1954,6 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1978,7 +1961,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1986,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2010,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2054,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2071,7 +2054,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2092,15 +2075,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2120,7 +2103,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2150,13 +2133,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2170,12 +2153,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2195,12 +2178,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2220,12 +2203,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2245,18 +2228,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2270,18 +2253,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2295,21 +2278,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2320,12 +2303,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2334,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2345,18 +2328,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2370,12 +2353,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2415,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2439,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2483,13 +2466,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2500,7 +2483,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2521,15 +2504,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2549,7 +2532,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2579,13 +2562,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2599,12 +2582,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2624,12 +2607,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2649,12 +2632,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2674,18 +2657,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2699,18 +2682,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2724,21 +2707,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2749,12 +2732,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2763,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2774,18 +2757,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2799,12 +2782,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2844,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2868,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2912,13 +2895,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2929,7 +2912,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2950,15 +2933,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2978,7 +2961,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3008,13 +2991,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -3028,12 +3011,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3053,12 +3036,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3078,12 +3061,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3103,18 +3086,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3128,18 +3111,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3153,21 +3136,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3178,12 +3161,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3192,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3203,18 +3186,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3228,12 +3211,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3273,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3297,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3341,13 +3324,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3358,7 +3341,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3379,15 +3362,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3407,7 +3390,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3437,13 +3420,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3457,12 +3440,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3482,12 +3465,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3507,12 +3490,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3532,18 +3515,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3557,18 +3540,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3582,21 +3565,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3607,12 +3590,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3621,7 +3604,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3632,18 +3615,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3657,12 +3640,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3715,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3739,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3800,7 +3783,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3821,15 +3804,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3849,7 +3832,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3879,13 +3862,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3899,12 +3882,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3924,12 +3907,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3949,12 +3932,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3974,18 +3957,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3999,18 +3982,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -4024,21 +4007,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4049,12 +4032,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4063,7 +4046,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4074,18 +4057,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4099,12 +4082,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4144,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4168,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4212,13 +4195,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4229,7 +4212,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4250,15 +4233,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4278,7 +4261,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4308,13 +4291,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4328,12 +4311,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4353,12 +4336,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4378,12 +4361,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4403,18 +4386,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4428,18 +4411,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4453,21 +4436,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4478,12 +4461,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4492,7 +4475,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4503,18 +4486,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4528,12 +4511,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4573,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4597,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4641,13 +4624,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4658,7 +4641,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4679,15 +4662,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4707,7 +4690,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4737,13 +4720,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4757,12 +4740,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4782,12 +4765,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4807,12 +4790,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4832,18 +4815,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4857,18 +4840,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4882,21 +4865,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4907,12 +4890,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4921,7 +4904,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4932,18 +4915,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4957,12 +4940,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -5002,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5026,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5070,13 +5053,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5087,7 +5070,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5108,15 +5091,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5136,7 +5119,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5166,13 +5149,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5186,12 +5169,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5211,12 +5194,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5236,12 +5219,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5261,18 +5244,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5286,18 +5269,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5311,21 +5294,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5336,12 +5319,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5350,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5361,18 +5344,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5386,12 +5369,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5444,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5460,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5492,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5500,7 +5483,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -5539,7 +5522,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5555,15 +5538,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5578,15 +5561,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5604,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,7 +5616,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5651,11 +5634,11 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="36" t="s">
-        <v>157</v>
+      <c r="H195" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I195" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5666,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5682,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5714,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5722,7 +5705,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5761,7 +5744,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5777,15 +5760,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5800,15 +5783,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5817,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5826,7 +5809,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5855,7 +5838,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5874,10 +5857,10 @@
         <v>24</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I211" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5888,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5904,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5936,7 +5919,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5944,7 +5927,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5983,7 +5966,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5999,15 +5982,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6022,15 +6005,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H224" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6048,7 +6031,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6077,7 +6060,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6096,10 +6079,10 @@
         <v>24</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I227" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6110,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6126,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6158,7 +6141,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6166,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6205,7 +6188,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6221,15 +6204,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6244,15 +6227,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6270,7 +6253,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6299,7 +6282,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6318,10 +6301,10 @@
         <v>24</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I243" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6335,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6351,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6383,7 +6366,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6391,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6430,7 +6413,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6446,15 +6429,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6469,15 +6452,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6495,7 +6478,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6524,7 +6507,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6543,10 +6526,10 @@
         <v>24</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I260" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6557,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6573,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6605,7 +6588,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6613,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6652,7 +6635,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6668,15 +6651,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6691,15 +6674,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H273" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6717,7 +6700,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6746,7 +6729,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6765,10 +6748,10 @@
         <v>24</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I276" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6782,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6798,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6830,7 +6813,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6838,7 +6821,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6877,7 +6860,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6893,15 +6876,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6916,15 +6899,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H290" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6942,7 +6925,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6971,7 +6954,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6990,10 +6973,10 @@
         <v>24</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I293" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -7004,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7020,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -7052,7 +7035,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -7060,7 +7043,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -7099,7 +7082,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7115,15 +7098,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7138,15 +7121,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H306" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7155,7 +7138,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7164,7 +7147,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7193,7 +7176,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7212,10 +7195,10 @@
         <v>24</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="I309" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7226,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7250,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7274,7 +7257,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7290,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7298,7 +7281,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7334,7 +7317,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7349,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7357,7 +7340,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7372,7 +7355,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7403,7 +7386,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7443,7 +7426,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7458,7 +7441,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7469,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7485,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7517,7 +7500,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7525,7 +7508,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7561,7 +7544,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7577,15 +7560,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H340" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7600,22 +7583,22 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H341" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D342" t="s">
         <v>13</v>
@@ -7624,7 +7607,7 @@
         <v>14</v>
       </c>
       <c r="G342" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -7728,7 +7711,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7744,15 +7727,15 @@
         <v>14</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="H347" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B348" s="5">
         <f>75900000/44900000</f>
@@ -7767,23 +7750,23 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="37" t="s">
-        <v>158</v>
+      <c r="G348" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H348" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B349" s="6">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>27</v>
@@ -7793,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
@@ -7806,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7822,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7846,7 +7829,7 @@
         <v>22</v>
       </c>
       <c r="B356" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -7890,7 +7873,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7902,10 +7885,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G360" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7913,7 +7896,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7925,10 +7908,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7936,7 +7919,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7948,10 +7931,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G362" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7959,7 +7942,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7972,10 +7955,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7983,7 +7966,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7995,10 +7978,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G364" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -8006,7 +7989,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8018,10 +8001,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8029,7 +8012,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8041,10 +8024,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G366" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8052,7 +8035,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8067,7 +8050,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1314465-20B4-AD48-B4E9-933F7ABB89B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -504,7 +517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -645,7 +658,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,11 +695,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,33 +1011,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1031,7 +1045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1039,12 +1053,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -1080,13 +1094,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
-        <v>19</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D10" s="13">
         <v>2.42</v>
@@ -1100,7 +1114,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1112,7 +1126,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>-0.19792352242488986</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>-0.46239818796210219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>109</v>
       </c>
@@ -1217,7 +1231,7 @@
         <v>-0.17213365621000509</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
@@ -1252,7 +1266,7 @@
         <v>-0.11108050125682523</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1264,7 +1278,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1272,7 +1286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1300,7 +1314,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1334,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1332,7 +1346,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>108</v>
       </c>
@@ -1367,7 +1381,7 @@
         <v>-0.19517406344299681</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>-0.4595549974240094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>-0.16942168985059203</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>-0.10841852506071969</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -1480,7 +1494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -1511,7 +1525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>107</v>
       </c>
@@ -1532,7 +1546,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1545,7 +1559,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>108</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>-0.36078499253981011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1635,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>109</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>110</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>0.49941125559514221</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -1705,7 +1719,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
@@ -1736,7 +1750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>107</v>
       </c>
@@ -1757,7 +1771,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -1770,7 +1784,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>108</v>
       </c>
@@ -1808,7 +1822,7 @@
         <v>-0.36078499253981056</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>0.58065835514753061</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -1884,7 +1898,7 @@
         <v>-3.1093933617581624</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>110</v>
       </c>
@@ -1928,22 +1942,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="H350" sqref="H350"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +1965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1999,12 +2013,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2068,7 +2082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>125</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2118,7 +2132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -2293,7 +2307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -2318,7 +2332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>156</v>
       </c>
@@ -2367,7 +2381,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -2380,7 +2394,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2428,12 +2442,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -2497,7 +2511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>126</v>
       </c>
@@ -2522,7 +2536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -2597,7 +2611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>63</v>
       </c>
@@ -2672,7 +2686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -2747,7 +2761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
@@ -2772,7 +2786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>156</v>
       </c>
@@ -2796,7 +2810,7 @@
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -2809,7 +2823,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2857,12 +2871,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>127</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3001,7 +3015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
         <v>156</v>
       </c>
@@ -3225,7 +3239,7 @@
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -3238,7 +3252,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3262,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3286,12 +3300,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
@@ -3355,7 +3369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
@@ -3380,7 +3394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>55</v>
       </c>
@@ -3430,7 +3444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>61</v>
       </c>
@@ -3505,7 +3519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -3555,7 +3569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>68</v>
       </c>
@@ -3605,7 +3619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
         <v>156</v>
       </c>
@@ -3654,7 +3668,7 @@
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -3667,7 +3681,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -3680,7 +3694,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3696,7 +3710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3712,7 +3726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3728,12 +3742,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>137</v>
       </c>
@@ -3797,7 +3811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -3822,7 +3836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
@@ -3897,7 +3911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>61</v>
       </c>
@@ -3947,7 +3961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>63</v>
       </c>
@@ -3972,7 +3986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>48</v>
       </c>
@@ -3997,7 +4011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>65</v>
       </c>
@@ -4022,7 +4036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -4047,7 +4061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4110,7 @@
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4109,7 +4123,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4141,7 +4155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4157,12 +4171,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
@@ -4226,7 +4240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>130</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>55</v>
       </c>
@@ -4301,7 +4315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>57</v>
       </c>
@@ -4326,7 +4340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>59</v>
       </c>
@@ -4351,7 +4365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>61</v>
       </c>
@@ -4376,7 +4390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>63</v>
       </c>
@@ -4401,7 +4415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>48</v>
       </c>
@@ -4426,7 +4440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>65</v>
       </c>
@@ -4451,7 +4465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
         <v>156</v>
       </c>
@@ -4525,7 +4539,7 @@
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -4538,7 +4552,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4586,12 +4600,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -4655,7 +4669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>131</v>
       </c>
@@ -4680,7 +4694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>57</v>
       </c>
@@ -4755,7 +4769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>59</v>
       </c>
@@ -4780,7 +4794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>61</v>
       </c>
@@ -4805,7 +4819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>63</v>
       </c>
@@ -4830,7 +4844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>65</v>
       </c>
@@ -4880,7 +4894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>68</v>
       </c>
@@ -4905,7 +4919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +4944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
         <v>156</v>
       </c>
@@ -4954,7 +4968,7 @@
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -4967,7 +4981,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4975,7 +4989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4983,7 +4997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5015,12 +5029,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5055,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>140</v>
       </c>
@@ -5084,7 +5098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>132</v>
       </c>
@@ -5109,7 +5123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -5134,7 +5148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>57</v>
       </c>
@@ -5184,7 +5198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>59</v>
       </c>
@@ -5209,7 +5223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>61</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>63</v>
       </c>
@@ -5259,7 +5273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>48</v>
       </c>
@@ -5284,7 +5298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>65</v>
       </c>
@@ -5309,7 +5323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5348,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>73</v>
       </c>
@@ -5359,7 +5373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
         <v>156</v>
       </c>
@@ -5383,7 +5397,7 @@
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5396,7 +5410,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5409,7 +5423,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5431,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5449,7 +5463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -5465,7 +5479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -5473,12 +5487,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>130</v>
       </c>
@@ -5531,7 +5545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>122</v>
       </c>
@@ -5554,7 +5568,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5601,7 +5615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>141</v>
       </c>
@@ -5628,10 +5642,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5653,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5647,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5663,7 +5677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5679,7 +5693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5695,12 +5709,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>126</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>122</v>
       </c>
@@ -5776,7 +5790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5823,7 +5837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>141</v>
       </c>
@@ -5850,10 +5864,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B212" s="5"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5877,7 +5891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5901,7 +5915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5909,7 +5923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5917,12 +5931,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5951,7 +5965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>131</v>
       </c>
@@ -5975,7 +5989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>122</v>
       </c>
@@ -5998,7 +6012,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>156</v>
       </c>
@@ -6021,7 +6035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>141</v>
       </c>
@@ -6072,10 +6086,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6097,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -6099,7 +6113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -6107,7 +6121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6115,7 +6129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -6123,7 +6137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -6131,7 +6145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -6139,12 +6153,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>127</v>
       </c>
@@ -6197,7 +6211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>156</v>
       </c>
@@ -6243,7 +6257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>141</v>
       </c>
@@ -6294,13 +6308,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -6324,7 +6338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6340,7 +6354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -6356,7 +6370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -6364,12 +6378,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -6398,7 +6412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>132</v>
       </c>
@@ -6422,7 +6436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>122</v>
       </c>
@@ -6445,7 +6459,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>156</v>
       </c>
@@ -6468,7 +6482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -6492,7 +6506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>141</v>
       </c>
@@ -6519,10 +6533,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6544,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6554,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -6562,7 +6576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -6578,7 +6592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -6586,12 +6600,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6620,7 +6634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>122</v>
       </c>
@@ -6667,7 +6681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -6690,7 +6704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6714,7 +6728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>141</v>
       </c>
@@ -6741,13 +6755,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6755,7 +6769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6763,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6771,7 +6785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6779,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6795,7 +6809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6811,12 +6825,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6845,7 +6859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>129</v>
       </c>
@@ -6869,7 +6883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>122</v>
       </c>
@@ -6892,7 +6906,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>156</v>
       </c>
@@ -6915,7 +6929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>141</v>
       </c>
@@ -6966,10 +6980,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6991,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6985,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +7007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -7001,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -7033,12 +7047,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>125</v>
       </c>
@@ -7091,7 +7105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>122</v>
       </c>
@@ -7114,7 +7128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>158</v>
       </c>
@@ -7137,7 +7151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -7161,7 +7175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>141</v>
       </c>
@@ -7188,10 +7202,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -7207,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -7215,7 +7229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -7223,7 +7237,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -7247,7 +7261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -7255,7 +7269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -7263,7 +7277,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -7271,12 +7285,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -7302,7 +7316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>118</v>
       </c>
@@ -7325,7 +7339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>122</v>
       </c>
@@ -7348,7 +7362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -7371,7 +7385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -7391,7 +7405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -7411,7 +7425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>117</v>
       </c>
@@ -7434,7 +7448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -7458,7 +7472,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -7474,7 +7488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -7490,7 +7504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -7498,12 +7512,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7529,7 +7543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7553,7 +7567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>118</v>
       </c>
@@ -7576,7 +7590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>48</v>
       </c>
@@ -7600,7 +7614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7624,11 +7638,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="36">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7648,11 +7662,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="36">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7672,11 +7686,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="36">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7696,7 +7710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>141</v>
       </c>
@@ -7720,7 +7734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>43</v>
       </c>
@@ -7744,7 +7758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>73</v>
       </c>
@@ -7771,7 +7785,7 @@
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
-    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7779,7 +7793,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -7787,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -7795,7 +7809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -7803,7 +7817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -7811,7 +7825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>22</v>
       </c>
@@ -7819,7 +7833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -7827,12 +7841,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -7858,7 +7872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>142</v>
       </c>
@@ -7881,7 +7895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>145</v>
       </c>
@@ -7904,7 +7918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>147</v>
       </c>
@@ -7927,7 +7941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>149</v>
       </c>
@@ -7951,7 +7965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>151</v>
       </c>
@@ -7974,7 +7988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -7997,7 +8011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>154</v>
       </c>
@@ -8020,7 +8034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>117</v>
       </c>
@@ -8045,14 +8059,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B302" r:id="rId1"/>
-    <hyperlink ref="B286" r:id="rId2"/>
-    <hyperlink ref="B269" r:id="rId3"/>
-    <hyperlink ref="B253" r:id="rId4"/>
-    <hyperlink ref="B236" r:id="rId5"/>
-    <hyperlink ref="B220" r:id="rId6"/>
-    <hyperlink ref="B204" r:id="rId7"/>
-    <hyperlink ref="B188" r:id="rId8"/>
+    <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B269" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B253" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B236" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B220" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B204" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B188" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1314465-20B4-AD48-B4E9-933F7ABB89B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F94FE-68E3-9840-A946-B427928BAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>kerosene, synthetic</t>
   </si>
   <si>
-    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
-  </si>
-  <si>
     <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
   </si>
 </sst>
 </file>
@@ -1034,20 +1034,20 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>79</v>
@@ -1055,48 +1055,48 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1198,7 +1198,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1280,43 +1280,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1453,7 +1453,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1488,46 +1488,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="E27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1561,7 +1561,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1637,7 +1637,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1713,46 +1713,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="E36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1786,7 +1786,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1946,7 +1946,7 @@
   <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2913,7 +2913,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4213,7 +4213,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4642,7 +4642,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5523,7 +5523,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5565,12 +5565,12 @@
         <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5698,7 +5698,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5787,12 +5787,12 @@
         <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5801,7 +5801,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6009,12 +6009,12 @@
         <v>47</v>
       </c>
       <c r="H224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6189,7 +6189,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6231,12 +6231,12 @@
         <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6414,7 +6414,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6456,12 +6456,12 @@
         <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6678,12 +6678,12 @@
         <v>47</v>
       </c>
       <c r="H273" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6861,7 +6861,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6903,12 +6903,12 @@
         <v>47</v>
       </c>
       <c r="H290" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7083,7 +7083,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7125,12 +7125,12 @@
         <v>47</v>
       </c>
       <c r="H306" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7139,7 +7139,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7234,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7274,7 +7274,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7282,7 +7282,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7442,7 +7442,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7469,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7501,7 +7501,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7561,7 +7561,7 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H340" t="s">
         <v>44</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7584,7 +7584,7 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H341" t="s">
         <v>44</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7806,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7874,7 +7874,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7886,10 +7886,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
+        <v>142</v>
+      </c>
+      <c r="G360" t="s">
         <v>143</v>
-      </c>
-      <c r="G360" t="s">
-        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7909,10 +7909,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G361" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7932,10 +7932,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G362" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7956,10 +7956,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G363" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7979,10 +7979,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G364" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8002,10 +8002,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8025,10 +8025,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G366" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8051,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F94FE-68E3-9840-A946-B427928BAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -305,6 +305,9 @@
     <t>kerosene, synthetic</t>
   </si>
   <si>
+    <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
+  </si>
+  <si>
     <t>CO2 emission factor: 3 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 35.5%. Carbon balance correction applied.</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>CO2 emission factor: 3.14 kg/kg fuel. Co-product of Methanol-to-kerosene process. Methanol from hydrogen and CO. CO from direct air capture. Co-produced together with gasoline, LPG and diesel, but optimized for kerosene production. Allocation key for kerosene: 44%. Carbon balance correction applied.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,7 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1015,7 +1014,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,20 +1033,20 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>79</v>
@@ -1055,52 +1054,52 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
-        <v>19.899999999999999</v>
+        <v>19</v>
       </c>
       <c r="D10" s="13">
         <v>2.42</v>
@@ -1128,7 +1127,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1198,7 +1197,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1233,7 +1232,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1280,43 +1279,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1348,7 +1347,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1418,7 +1417,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1453,7 +1452,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1488,46 +1487,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1561,7 +1560,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1637,7 +1636,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1675,7 +1674,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1713,46 +1712,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1786,7 +1785,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1862,7 +1861,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1900,7 +1899,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1945,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2055,7 +2054,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2084,7 +2083,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2359,7 +2358,7 @@
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2399,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2484,7 +2483,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2513,7 +2512,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2788,7 +2787,7 @@
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2828,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2913,7 +2912,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2942,7 +2941,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -3217,7 +3216,7 @@
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3257,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3342,7 +3341,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3371,7 +3370,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3646,7 +3645,7 @@
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3699,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3784,7 +3783,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3813,7 +3812,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -4088,7 +4087,7 @@
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4128,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4213,7 +4212,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4242,7 +4241,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4517,7 +4516,7 @@
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4557,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4642,7 +4641,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4671,7 +4670,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4946,7 +4945,7 @@
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4986,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5071,7 +5070,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5100,7 +5099,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5375,7 +5374,7 @@
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5428,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5476,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5523,7 +5522,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5547,7 +5546,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5565,12 +5564,12 @@
         <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5617,7 +5616,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5650,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5698,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,7 +5744,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5769,7 +5768,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5787,12 +5786,12 @@
         <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5801,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5839,7 +5838,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5872,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5967,7 +5966,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5991,7 +5990,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6009,12 +6008,12 @@
         <v>47</v>
       </c>
       <c r="H224" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6061,7 +6060,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6094,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6189,7 +6188,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6213,7 +6212,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6231,12 +6230,12 @@
         <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6283,7 +6282,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6319,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6414,7 +6413,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6438,7 +6437,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6456,12 +6455,12 @@
         <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6508,7 +6507,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6541,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6636,7 +6635,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6660,7 +6659,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6678,12 +6677,12 @@
         <v>47</v>
       </c>
       <c r="H273" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6730,7 +6729,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6766,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6861,7 +6860,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6885,7 +6884,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6903,12 +6902,12 @@
         <v>47</v>
       </c>
       <c r="H290" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6955,7 +6954,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6988,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7083,7 +7082,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7107,7 +7106,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7125,12 +7124,12 @@
         <v>47</v>
       </c>
       <c r="H306" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7139,7 +7138,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7177,7 +7176,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7210,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7234,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7274,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7282,7 +7281,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7318,7 +7317,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7333,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7341,7 +7340,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7356,7 +7355,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7387,7 +7386,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7427,7 +7426,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7442,7 +7441,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7453,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7469,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7501,7 +7500,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7509,7 +7508,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7545,7 +7544,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7561,7 +7560,7 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H340" t="s">
         <v>44</v>
@@ -7569,7 +7568,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7584,7 +7583,7 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H341" t="s">
         <v>44</v>
@@ -7642,7 +7641,7 @@
       <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B344" s="36">
+      <c r="B344" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7666,7 +7665,7 @@
       <c r="A345" t="s">
         <v>37</v>
       </c>
-      <c r="B345" s="36">
+      <c r="B345" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7690,7 +7689,7 @@
       <c r="A346" t="s">
         <v>39</v>
       </c>
-      <c r="B346" s="36">
+      <c r="B346" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7712,7 +7711,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7763,8 +7762,8 @@
         <v>73</v>
       </c>
       <c r="B349" s="6">
-        <f>B342/1000</f>
-        <v>6.8819599109131407E-2</v>
+        <f>-B342/1000</f>
+        <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>49</v>
@@ -7790,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7806,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7874,7 +7873,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7886,10 +7885,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G360" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7897,7 +7896,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7909,10 +7908,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7920,7 +7919,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7932,10 +7931,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G362" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7943,7 +7942,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7956,10 +7955,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7967,7 +7966,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7979,10 +7978,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G364" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7990,7 +7989,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8002,10 +8001,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8013,7 +8012,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8025,10 +8024,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G366" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8036,7 +8035,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8051,7 +8050,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BD889-861B-3E41-B379-8DF7387B1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,9 +161,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
-  </si>
-  <si>
-    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -512,6 +506,12 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -523,9 +523,23 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,28 +669,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -684,17 +698,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1033,69 +1049,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1127,7 +1143,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1197,7 +1213,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1232,7 +1248,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1279,43 +1295,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1347,7 +1363,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1417,7 +1433,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1452,7 +1468,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1487,46 +1503,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1560,7 +1576,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1636,7 +1652,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1674,7 +1690,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1712,46 +1728,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1785,7 +1801,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1861,7 +1877,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1899,7 +1915,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1944,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1977,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1969,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1993,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2037,13 +2053,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2054,7 +2070,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2075,15 +2091,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2103,7 +2119,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2133,13 +2149,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2153,12 +2169,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2178,12 +2194,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2203,12 +2219,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2228,18 +2244,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2253,18 +2269,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2278,21 +2294,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2303,12 +2319,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2317,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2328,18 +2344,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2353,12 +2369,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2398,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2422,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2466,13 +2482,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>53</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2483,7 +2499,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2504,15 +2520,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2532,7 +2548,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2562,13 +2578,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2582,12 +2598,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2607,12 +2623,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2632,12 +2648,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2657,18 +2673,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2682,18 +2698,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2707,21 +2723,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2732,12 +2748,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2746,7 +2762,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2757,18 +2773,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2782,12 +2798,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2827,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2851,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2895,13 +2911,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
         <v>51</v>
-      </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" t="s">
-        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2912,7 +2928,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2933,15 +2949,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2961,7 +2977,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2991,13 +3007,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -3011,12 +3027,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3036,12 +3052,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3061,12 +3077,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3086,18 +3102,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3111,18 +3127,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3136,21 +3152,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3161,12 +3177,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3175,7 +3191,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3186,18 +3202,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3211,12 +3227,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3256,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3280,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3324,13 +3340,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
         <v>51</v>
-      </c>
-      <c r="H76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3341,7 +3357,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3362,15 +3378,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3390,7 +3406,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3420,13 +3436,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3440,12 +3456,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3465,12 +3481,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3490,12 +3506,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3515,18 +3531,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3540,18 +3556,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3565,21 +3581,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3590,12 +3606,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3604,7 +3620,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3615,18 +3631,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3640,12 +3656,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3698,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3766,13 +3782,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s">
         <v>51</v>
-      </c>
-      <c r="H99" t="s">
-        <v>52</v>
-      </c>
-      <c r="I99" t="s">
-        <v>53</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3783,7 +3799,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3804,15 +3820,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3832,7 +3848,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,13 +3878,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3882,12 +3898,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3907,12 +3923,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3932,12 +3948,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3957,18 +3973,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3982,18 +3998,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -4007,21 +4023,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4032,12 +4048,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4046,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4057,18 +4073,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4082,12 +4098,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4127,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4151,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,13 +4211,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" t="s">
         <v>51</v>
-      </c>
-      <c r="H121" t="s">
-        <v>52</v>
-      </c>
-      <c r="I121" t="s">
-        <v>53</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4212,7 +4228,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4233,15 +4249,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4261,7 +4277,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4291,13 +4307,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4311,12 +4327,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4336,12 +4352,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4361,12 +4377,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4386,18 +4402,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4411,18 +4427,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4436,21 +4452,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4461,12 +4477,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4475,7 +4491,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4486,18 +4502,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4511,12 +4527,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4556,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4624,13 +4640,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>49</v>
+      </c>
+      <c r="H143" t="s">
+        <v>50</v>
+      </c>
+      <c r="I143" t="s">
         <v>51</v>
-      </c>
-      <c r="H143" t="s">
-        <v>52</v>
-      </c>
-      <c r="I143" t="s">
-        <v>53</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4641,7 +4657,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4662,15 +4678,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4690,7 +4706,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,13 +4736,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4740,12 +4756,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4765,12 +4781,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4790,12 +4806,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4815,18 +4831,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4840,18 +4856,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4865,21 +4881,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4890,12 +4906,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4904,7 +4920,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4915,18 +4931,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4940,12 +4956,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4985,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5009,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5053,13 +5069,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H165" t="s">
+        <v>50</v>
+      </c>
+      <c r="I165" t="s">
         <v>51</v>
-      </c>
-      <c r="H165" t="s">
-        <v>52</v>
-      </c>
-      <c r="I165" t="s">
-        <v>53</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5070,7 +5086,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5091,15 +5107,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5119,7 +5135,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5149,13 +5165,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5169,12 +5185,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5194,12 +5210,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5219,12 +5235,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5244,18 +5260,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5269,18 +5285,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5294,21 +5310,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5319,12 +5335,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5333,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5344,18 +5360,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5369,12 +5385,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5427,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5443,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5475,7 +5491,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5483,7 +5499,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -5522,7 +5538,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5538,15 +5554,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5561,15 +5577,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H192" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5587,7 +5603,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5616,7 +5632,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5634,11 +5650,11 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="4" t="s">
-        <v>42</v>
+      <c r="H195" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I195" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5649,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5665,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5697,7 +5713,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5705,7 +5721,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5744,7 +5760,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5760,15 +5776,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5783,15 +5799,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H208" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5800,7 +5816,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5809,7 +5825,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,7 +5854,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5856,11 +5872,11 @@
       <c r="G211" t="s">
         <v>24</v>
       </c>
-      <c r="H211" s="4" t="s">
-        <v>42</v>
+      <c r="H211" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I211" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5871,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5887,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +5935,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5927,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5966,7 +5982,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5982,15 +5998,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6005,15 +6021,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H224" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6031,7 +6047,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6060,7 +6076,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6078,11 +6094,11 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-      <c r="H227" s="4" t="s">
-        <v>42</v>
+      <c r="H227" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I227" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6109,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6141,7 +6157,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6149,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,7 +6204,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6204,15 +6220,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6227,15 +6243,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H240" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6253,7 +6269,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6282,7 +6298,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6300,11 +6316,11 @@
       <c r="G243" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="4" t="s">
-        <v>42</v>
+      <c r="H243" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I243" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6334,7 +6350,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,7 +6382,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,7 +6390,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,7 +6429,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6429,15 +6445,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6452,15 +6468,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H257" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6478,7 +6494,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6507,7 +6523,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6525,11 +6541,11 @@
       <c r="G260" t="s">
         <v>24</v>
       </c>
-      <c r="H260" s="4" t="s">
-        <v>42</v>
+      <c r="H260" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I260" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6540,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,7 +6572,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,7 +6604,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6596,7 +6612,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6635,7 +6651,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6651,15 +6667,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6674,15 +6690,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H273" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6700,7 +6716,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,7 +6745,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6747,11 +6763,11 @@
       <c r="G276" t="s">
         <v>24</v>
       </c>
-      <c r="H276" s="4" t="s">
-        <v>42</v>
+      <c r="H276" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I276" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6765,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6781,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6829,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +6837,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,7 +6876,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6876,15 +6892,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6899,15 +6915,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H290" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6925,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6954,7 +6970,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6972,11 +6988,11 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="4" t="s">
-        <v>42</v>
+      <c r="H293" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I293" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -7035,7 +7051,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -7043,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -7082,7 +7098,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7098,15 +7114,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7121,15 +7137,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H306" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7138,7 +7154,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7147,7 +7163,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,7 +7192,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7194,11 +7210,11 @@
       <c r="G309" t="s">
         <v>24</v>
       </c>
-      <c r="H309" s="4" t="s">
-        <v>42</v>
+      <c r="H309" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="I309" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7209,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7233,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7257,7 +7273,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7273,7 +7289,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,7 +7297,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7317,7 +7333,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7332,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7340,7 +7356,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7355,7 +7371,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7386,7 +7402,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7426,7 +7442,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7441,7 +7457,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7452,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,7 +7484,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7500,7 +7516,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7508,7 +7524,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7544,7 +7560,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7560,15 +7576,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7583,22 +7599,22 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D342" t="s">
         <v>13</v>
@@ -7607,7 +7623,7 @@
         <v>14</v>
       </c>
       <c r="G342" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -7711,7 +7727,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7726,16 +7742,16 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="4" t="s">
-        <v>42</v>
+      <c r="G347" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="H347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B348" s="5">
         <f>75900000/44900000</f>
@@ -7750,23 +7766,23 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="4" t="s">
+      <c r="G348" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H348" t="s">
         <v>43</v>
-      </c>
-      <c r="H348" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B349" s="6">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>27</v>
@@ -7776,7 +7792,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
@@ -7789,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7805,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7829,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="B356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -7873,7 +7889,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7885,10 +7901,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G360" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7896,7 +7912,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7908,10 +7924,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G361" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7919,7 +7935,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7931,10 +7947,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G362" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7942,7 +7958,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7955,10 +7971,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G363" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7966,7 +7982,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7978,10 +7994,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G364" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7989,7 +8005,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8001,10 +8017,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G365" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8012,7 +8028,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8024,10 +8040,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G366" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8035,7 +8051,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8050,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BD889-861B-3E41-B379-8DF7387B1351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,6 +161,9 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
+    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
     <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Gasoline, synthetic</t>
   </si>
   <si>
     <t>Methanol-based fuels</t>
@@ -506,12 +512,6 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -523,23 +523,9 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -669,28 +655,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -698,19 +684,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1049,69 +1033,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1143,7 +1127,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1213,7 +1197,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1248,7 +1232,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1295,43 +1279,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1363,7 +1347,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1433,7 +1417,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1468,7 +1452,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1503,46 +1487,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1576,7 +1560,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1652,7 +1636,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1690,7 +1674,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1728,46 +1712,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1801,7 +1785,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1877,7 +1861,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1915,7 +1899,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1960,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1977,7 +1961,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1985,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2009,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2053,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2070,7 +2054,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2091,15 +2075,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2119,7 +2103,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2149,13 +2133,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2169,12 +2153,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2194,12 +2178,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2219,12 +2203,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2244,18 +2228,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2269,18 +2253,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2294,21 +2278,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2319,12 +2303,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2333,7 +2317,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2344,18 +2328,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2369,12 +2353,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2414,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2438,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2482,13 +2466,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2499,7 +2483,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2520,15 +2504,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2548,7 +2532,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2578,13 +2562,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2598,12 +2582,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2623,12 +2607,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2648,12 +2632,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2673,18 +2657,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2698,18 +2682,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2723,21 +2707,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2748,12 +2732,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2762,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2773,18 +2757,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2798,12 +2782,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2843,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2867,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2911,13 +2895,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2928,7 +2912,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2949,15 +2933,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2977,7 +2961,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3007,13 +2991,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -3027,12 +3011,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3052,12 +3036,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3077,12 +3061,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3102,18 +3086,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3127,18 +3111,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3152,21 +3136,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3177,12 +3161,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3191,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3202,18 +3186,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3227,12 +3211,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3272,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3340,13 +3324,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3357,7 +3341,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3378,15 +3362,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3406,7 +3390,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3436,13 +3420,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3456,12 +3440,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3481,12 +3465,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3506,12 +3490,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3531,18 +3515,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3556,18 +3540,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3581,21 +3565,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3606,12 +3590,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3620,7 +3604,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3631,18 +3615,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3656,12 +3640,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3714,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3738,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3782,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3799,7 +3783,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3820,15 +3804,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3848,7 +3832,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3878,13 +3862,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3898,12 +3882,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3923,12 +3907,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3948,12 +3932,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3973,18 +3957,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3998,18 +3982,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -4023,21 +4007,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4048,12 +4032,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4062,7 +4046,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4073,18 +4057,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4098,12 +4082,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4143,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4167,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4211,13 +4195,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4228,7 +4212,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4249,15 +4233,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4277,7 +4261,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4307,13 +4291,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4327,12 +4311,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4352,12 +4336,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4377,12 +4361,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4402,18 +4386,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4427,18 +4411,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4452,21 +4436,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4477,12 +4461,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4491,7 +4475,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4502,18 +4486,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4527,12 +4511,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4572,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4596,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4640,13 +4624,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4657,7 +4641,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4678,15 +4662,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4706,7 +4690,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4736,13 +4720,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4756,12 +4740,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4781,12 +4765,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4806,12 +4790,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4831,18 +4815,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4856,18 +4840,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4881,21 +4865,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4906,12 +4890,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4920,7 +4904,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4931,18 +4915,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4956,12 +4940,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -5001,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5025,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5069,13 +5053,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5086,7 +5070,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5107,15 +5091,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5135,7 +5119,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5165,13 +5149,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5185,12 +5169,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5210,12 +5194,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5235,12 +5219,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5260,18 +5244,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5285,18 +5269,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5310,21 +5294,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5335,12 +5319,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5349,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5360,18 +5344,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5385,12 +5369,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5443,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5459,7 +5443,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5491,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5499,7 +5483,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -5538,7 +5522,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5554,15 +5538,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5577,15 +5561,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5603,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5632,7 +5616,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5650,11 +5634,11 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="37" t="s">
-        <v>158</v>
+      <c r="H195" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I195" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5665,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5681,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5713,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5721,7 +5705,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5760,7 +5744,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5776,15 +5760,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5799,15 +5783,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5816,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5825,7 +5809,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5854,7 +5838,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5872,11 +5856,11 @@
       <c r="G211" t="s">
         <v>24</v>
       </c>
-      <c r="H211" s="37" t="s">
-        <v>158</v>
+      <c r="H211" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I211" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5887,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5903,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5935,7 +5919,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5943,7 +5927,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5982,7 +5966,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5998,15 +5982,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6021,15 +6005,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H224" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6047,7 +6031,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6076,7 +6060,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6094,11 +6078,11 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-      <c r="H227" s="37" t="s">
-        <v>158</v>
+      <c r="H227" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I227" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6109,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6125,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6157,7 +6141,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6165,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6204,7 +6188,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6220,15 +6204,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6243,15 +6227,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H240" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6269,7 +6253,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6298,7 +6282,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6316,11 +6300,11 @@
       <c r="G243" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="37" t="s">
-        <v>158</v>
+      <c r="H243" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I243" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6334,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6350,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6382,7 +6366,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6390,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6429,7 +6413,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6445,15 +6429,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6468,15 +6452,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H257" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6494,7 +6478,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6523,7 +6507,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6541,11 +6525,11 @@
       <c r="G260" t="s">
         <v>24</v>
       </c>
-      <c r="H260" s="37" t="s">
-        <v>158</v>
+      <c r="H260" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I260" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6572,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6604,7 +6588,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6612,7 +6596,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6651,7 +6635,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6667,15 +6651,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6690,15 +6674,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H273" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6716,7 +6700,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6745,7 +6729,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6763,11 +6747,11 @@
       <c r="G276" t="s">
         <v>24</v>
       </c>
-      <c r="H276" s="37" t="s">
-        <v>158</v>
+      <c r="H276" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I276" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6781,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6797,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6829,7 +6813,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6837,7 +6821,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6876,7 +6860,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6892,15 +6876,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6915,15 +6899,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H290" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6941,7 +6925,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6970,7 +6954,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6988,11 +6972,11 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="37" t="s">
-        <v>158</v>
+      <c r="H293" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I293" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7019,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -7051,7 +7035,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -7059,7 +7043,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -7098,7 +7082,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7114,15 +7098,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7137,15 +7121,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H306" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7154,7 +7138,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7163,7 +7147,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7192,7 +7176,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7210,11 +7194,11 @@
       <c r="G309" t="s">
         <v>24</v>
       </c>
-      <c r="H309" s="37" t="s">
-        <v>158</v>
+      <c r="H309" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I309" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7225,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7249,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7273,7 +7257,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7289,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7297,7 +7281,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7333,7 +7317,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7348,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7356,7 +7340,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7371,7 +7355,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7402,7 +7386,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7442,7 +7426,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7457,7 +7441,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7468,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7484,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7516,7 +7500,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7524,7 +7508,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7560,7 +7544,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7576,15 +7560,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H340" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7599,22 +7583,22 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H341" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D342" t="s">
         <v>13</v>
@@ -7623,7 +7607,7 @@
         <v>14</v>
       </c>
       <c r="G342" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -7727,7 +7711,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7742,16 +7726,16 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="37" t="s">
-        <v>158</v>
+      <c r="G347" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H347" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B348" s="5">
         <f>75900000/44900000</f>
@@ -7766,23 +7750,23 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="36" t="s">
-        <v>157</v>
+      <c r="G348" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H348" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B349" s="6">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>27</v>
@@ -7792,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
@@ -7805,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7821,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7845,7 +7829,7 @@
         <v>22</v>
       </c>
       <c r="B356" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -7889,7 +7873,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7901,10 +7885,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G360" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7912,7 +7896,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7924,10 +7908,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G361" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7935,7 +7919,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7947,10 +7931,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G362" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7958,7 +7942,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7971,10 +7955,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G363" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7982,7 +7966,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7994,10 +7978,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G364" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -8005,7 +7989,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8017,10 +8001,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G365" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8028,7 +8012,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8040,10 +8024,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G366" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8051,7 +8035,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8066,7 +8050,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583245E-53D0-1F46-B046-57E3EE104E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4338953-EC97-C646-914D-C343716134AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="160">
   <si>
     <t>Activity</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>aluminium oxide, metallurgical</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar, from electrolysis</t>
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere</t>
@@ -512,6 +509,12 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
@@ -523,9 +526,16 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -655,28 +665,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -684,17 +694,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1033,69 +1044,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12">
@@ -1127,7 +1138,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12">
@@ -1197,7 +1208,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12">
@@ -1232,7 +1243,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12">
@@ -1279,43 +1290,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12">
@@ -1347,7 +1358,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12">
@@ -1417,7 +1428,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12">
@@ -1452,7 +1463,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12">
@@ -1487,46 +1498,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="E27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="K27" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24">
@@ -1560,7 +1571,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
@@ -1636,7 +1647,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24">
@@ -1674,7 +1685,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24">
@@ -1712,46 +1723,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="E36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="I36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="K36" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24">
@@ -1785,7 +1796,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24">
@@ -1861,7 +1872,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24">
@@ -1899,7 +1910,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24">
@@ -1944,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1972,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1969,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1993,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2037,13 +2048,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2054,7 +2065,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2075,15 +2086,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3">
         <v>1.00057</v>
@@ -2103,7 +2114,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2133,13 +2144,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -2153,12 +2164,12 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2178,12 +2189,12 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2203,12 +2214,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2228,18 +2239,18 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2253,18 +2264,18 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
@@ -2278,21 +2289,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -2303,12 +2314,12 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2317,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -2328,18 +2339,18 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2353,12 +2364,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="35">
         <f>(B12-1)*3.14</f>
@@ -2398,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2422,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2466,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>53</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2483,7 +2494,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2504,15 +2515,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="3">
         <v>1.00057</v>
@@ -2532,7 +2543,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2562,13 +2573,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -2582,12 +2593,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6">
         <v>5.8399999999999999E-4</v>
@@ -2607,12 +2618,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="6">
         <v>2.5999999999999998E-10</v>
@@ -2632,12 +2643,12 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -2657,18 +2668,18 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2682,18 +2693,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -2707,21 +2718,21 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -2732,12 +2743,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3">
         <v>3.2599999999999997E-2</v>
@@ -2746,7 +2757,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -2757,18 +2768,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -2782,12 +2793,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="35">
         <f>(B34-1)*3.14</f>
@@ -2827,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2851,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2895,13 +2906,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
         <v>51</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>52</v>
-      </c>
-      <c r="I54" t="s">
-        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2912,7 +2923,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2933,15 +2944,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3">
         <v>1.00057</v>
@@ -2961,7 +2972,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2991,13 +3002,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -3011,12 +3022,12 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3036,12 +3047,12 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3061,12 +3072,12 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3086,18 +3097,18 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>27</v>
@@ -3111,18 +3122,18 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>13</v>
@@ -3136,21 +3147,21 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -3161,12 +3172,12 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3175,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -3186,18 +3197,18 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>27</v>
@@ -3211,12 +3222,12 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="35">
         <f>(B56-1)*3.14</f>
@@ -3256,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3280,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3324,13 +3335,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" t="s">
         <v>51</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>53</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3341,7 +3352,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -3362,15 +3373,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" s="3">
         <v>1.00057</v>
@@ -3390,7 +3401,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3420,13 +3431,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>13</v>
@@ -3440,12 +3451,12 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3465,12 +3476,12 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3490,12 +3501,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3515,18 +3526,18 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>27</v>
@@ -3540,18 +3551,18 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>13</v>
@@ -3565,21 +3576,21 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
@@ -3590,12 +3601,12 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="3">
         <v>3.2599999999999997E-2</v>
@@ -3604,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
@@ -3615,18 +3626,18 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>27</v>
@@ -3640,12 +3651,12 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" s="35">
         <f>(B78-1)*3.14</f>
@@ -3698,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3766,13 +3777,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
+        <v>50</v>
+      </c>
+      <c r="H99" t="s">
         <v>51</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>52</v>
-      </c>
-      <c r="I99" t="s">
-        <v>53</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3783,7 +3794,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
@@ -3804,15 +3815,15 @@
         <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="3">
         <v>1.00057</v>
@@ -3832,7 +3843,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,13 +3873,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>13</v>
@@ -3882,12 +3893,12 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B104" s="6">
         <v>5.8399999999999999E-4</v>
@@ -3907,12 +3918,12 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" s="6">
         <v>2.5999999999999998E-10</v>
@@ -3932,12 +3943,12 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -3957,18 +3968,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B107" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>27</v>
@@ -3982,18 +3993,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>13</v>
@@ -4007,21 +4018,21 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B109" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
@@ -4032,12 +4043,12 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B110" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4046,7 +4057,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -4057,18 +4068,18 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>27</v>
@@ -4082,12 +4093,12 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" s="35">
         <f>(B101-1)*3.14</f>
@@ -4127,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4151,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" t="s">
         <v>51</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>52</v>
-      </c>
-      <c r="I121" t="s">
-        <v>53</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -4212,7 +4223,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
@@ -4233,15 +4244,15 @@
         <v>100</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="3">
         <v>1.00057</v>
@@ -4261,7 +4272,7 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4291,13 +4302,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B125" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
@@ -4311,12 +4322,12 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B126" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4336,12 +4347,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B127" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4361,12 +4372,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B128" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4386,18 +4397,18 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B129" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>27</v>
@@ -4411,18 +4422,18 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
@@ -4436,21 +4447,21 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B131" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
@@ -4461,12 +4472,12 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B132" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4475,7 +4486,7 @@
         <v>25</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -4486,18 +4497,18 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B133" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>27</v>
@@ -4511,12 +4522,12 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="35">
         <f>(B123-1)*3.14</f>
@@ -4556,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4624,13 +4635,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>50</v>
+      </c>
+      <c r="H143" t="s">
         <v>51</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>52</v>
-      </c>
-      <c r="I143" t="s">
-        <v>53</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4641,7 +4652,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
@@ -4662,15 +4673,15 @@
         <v>100</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="3">
         <v>1.00057</v>
@@ -4690,7 +4701,7 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,13 +4731,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B147" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>13</v>
@@ -4740,12 +4751,12 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" s="6">
         <v>5.8399999999999999E-4</v>
@@ -4765,12 +4776,12 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="6">
         <v>2.5999999999999998E-10</v>
@@ -4790,12 +4801,12 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B150" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -4815,18 +4826,18 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B151" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>27</v>
@@ -4840,18 +4851,18 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B152" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>13</v>
@@ -4865,21 +4876,21 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B153" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
@@ -4890,12 +4901,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B154" s="3">
         <v>3.2599999999999997E-2</v>
@@ -4904,7 +4915,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -4915,18 +4926,18 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B155" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -4940,12 +4951,12 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="35">
         <f>(B145-1)*3.14</f>
@@ -4985,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5009,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -5053,13 +5064,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>50</v>
+      </c>
+      <c r="H165" t="s">
         <v>51</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>52</v>
-      </c>
-      <c r="I165" t="s">
-        <v>53</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -5070,7 +5081,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166" s="3">
         <v>1</v>
@@ -5091,15 +5102,15 @@
         <v>100</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="3">
         <v>1.00057</v>
@@ -5119,7 +5130,7 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -5149,13 +5160,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B169" s="3">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>13</v>
@@ -5169,12 +5180,12 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B170" s="6">
         <v>5.8399999999999999E-4</v>
@@ -5194,12 +5205,12 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171" s="6">
         <v>2.5999999999999998E-10</v>
@@ -5219,12 +5230,12 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B172" s="6">
         <v>-6.2700000000000001E-6</v>
@@ -5244,18 +5255,18 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B173" s="6">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>27</v>
@@ -5269,18 +5280,18 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B174" s="6">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
@@ -5294,21 +5305,21 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B175" s="3">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
@@ -5319,12 +5330,12 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B176" s="3">
         <v>3.2599999999999997E-2</v>
@@ -5333,7 +5344,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
@@ -5344,18 +5355,18 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B177" s="6">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -5369,12 +5380,12 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178" s="35">
         <f>(B167-1)*3.14</f>
@@ -5427,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -5443,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -5475,7 +5486,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -5483,7 +5494,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -5522,7 +5533,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B191" s="3">
         <v>1</v>
@@ -5538,15 +5549,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B192" s="5">
         <v>2.3730000000000002</v>
@@ -5561,15 +5572,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H192" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B193" s="5">
         <v>0.11</v>
@@ -5587,7 +5598,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5616,7 +5627,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B195" s="5">
         <f>0.01*B192</f>
@@ -5634,11 +5645,11 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="4" t="s">
-        <v>42</v>
+      <c r="H195" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5649,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5665,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5697,7 +5708,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5705,7 +5716,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5744,7 +5755,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
@@ -5760,15 +5771,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B208" s="5">
         <v>1.93</v>
@@ -5783,15 +5794,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B209" s="5">
         <v>0.5</v>
@@ -5800,7 +5811,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5809,7 +5820,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,7 +5849,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B211" s="5">
         <f>0.01*B208</f>
@@ -5856,11 +5867,11 @@
       <c r="G211" t="s">
         <v>24</v>
       </c>
-      <c r="H211" s="4" t="s">
-        <v>42</v>
+      <c r="H211" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I211" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5871,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5887,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +5930,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5927,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5966,7 +5977,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B223" s="3">
         <v>1</v>
@@ -5982,15 +5993,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B224" s="5">
         <v>2.4510000000000001</v>
@@ -6005,15 +6016,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B225" s="5">
         <v>0.2</v>
@@ -6031,7 +6042,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6060,7 +6071,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B227" s="5">
         <f>0.01*B224</f>
@@ -6078,11 +6089,11 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-      <c r="H227" s="4" t="s">
-        <v>42</v>
+      <c r="H227" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I227" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6109,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6141,7 +6152,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6149,7 +6160,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,7 +6199,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
@@ -6204,15 +6215,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B240" s="5">
         <v>2.57</v>
@@ -6227,15 +6238,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H240" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B241" s="5">
         <v>0.36</v>
@@ -6253,7 +6264,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6282,7 +6293,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B243" s="5">
         <f>0.01*B240</f>
@@ -6300,11 +6311,11 @@
       <c r="G243" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="4" t="s">
-        <v>42</v>
+      <c r="H243" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I243" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6334,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,7 +6377,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,7 +6385,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6413,7 +6424,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
@@ -6429,15 +6440,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B257" s="5">
         <v>2.371</v>
@@ -6452,15 +6463,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H257" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B258" s="5">
         <v>0.11</v>
@@ -6478,7 +6489,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6507,7 +6518,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B260" s="5">
         <f>0.01*B257</f>
@@ -6525,11 +6536,11 @@
       <c r="G260" t="s">
         <v>24</v>
       </c>
-      <c r="H260" s="4" t="s">
-        <v>42</v>
+      <c r="H260" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I260" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6540,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,7 +6567,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,7 +6599,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -6596,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6635,7 +6646,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
@@ -6651,15 +6662,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B273" s="5">
         <v>4.5599999999999996</v>
@@ -6674,15 +6685,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H273" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B274" s="5">
         <v>3.11</v>
@@ -6700,7 +6711,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,7 +6740,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B276" s="5">
         <f>0.01*B273</f>
@@ -6747,11 +6758,11 @@
       <c r="G276" t="s">
         <v>24</v>
       </c>
-      <c r="H276" s="4" t="s">
-        <v>42</v>
+      <c r="H276" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I276" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6765,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6781,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6813,7 +6824,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +6832,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,7 +6871,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B289" s="3">
         <v>1</v>
@@ -6876,15 +6887,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B290" s="5">
         <v>2.5350000000000001</v>
@@ -6899,15 +6910,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H290" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B291" s="5">
         <v>0.46</v>
@@ -6925,7 +6936,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6954,7 +6965,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B293" s="5">
         <f>0.01*B290</f>
@@ -6972,11 +6983,11 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="4" t="s">
-        <v>42</v>
+      <c r="H293" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I293" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -7035,7 +7046,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -7043,7 +7054,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -7082,7 +7093,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B305" s="3">
         <v>1</v>
@@ -7098,15 +7109,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B306" s="5">
         <v>1.77</v>
@@ -7121,15 +7132,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H306" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B307" s="5">
         <v>0.57999999999999996</v>
@@ -7138,7 +7149,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7147,7 +7158,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,7 +7187,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B309" s="5">
         <f>0.01*B306</f>
@@ -7194,11 +7205,11 @@
       <c r="G309" t="s">
         <v>24</v>
       </c>
-      <c r="H309" s="4" t="s">
-        <v>42</v>
+      <c r="H309" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="I309" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -7209,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -7233,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -7257,7 +7268,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -7273,7 +7284,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,7 +7292,7 @@
         <v>22</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -7317,7 +7328,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -7332,7 +7343,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -7340,7 +7351,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -7355,7 +7366,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -7386,7 +7397,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7426,7 +7437,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -7441,7 +7452,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -7452,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -7500,7 +7511,7 @@
         <v>28</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -7508,7 +7519,7 @@
         <v>22</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -7544,7 +7555,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -7560,15 +7571,15 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -7583,31 +7594,31 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B342" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
+        <v>48</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
         <v>49</v>
-      </c>
-      <c r="D342" t="s">
-        <v>13</v>
-      </c>
-      <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>50</v>
       </c>
       <c r="H342" t="s">
         <v>24</v>
@@ -7711,7 +7722,7 @@
     </row>
     <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B347" s="5">
         <f>6240000/44900000</f>
@@ -7726,16 +7737,16 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="4" t="s">
-        <v>42</v>
+      <c r="G347" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="H347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B348" s="5">
         <f>75900000/44900000</f>
@@ -7750,23 +7761,23 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="4" t="s">
+      <c r="G348" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H348" t="s">
         <v>43</v>
-      </c>
-      <c r="H348" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B349" s="6">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>27</v>
@@ -7776,7 +7787,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
@@ -7789,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -7805,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
@@ -7829,7 +7840,7 @@
         <v>22</v>
       </c>
       <c r="B356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
@@ -7873,7 +7884,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7885,10 +7896,10 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
+        <v>142</v>
+      </c>
+      <c r="G360" t="s">
         <v>143</v>
-      </c>
-      <c r="G360" t="s">
-        <v>144</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7896,7 +7907,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7908,10 +7919,10 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G361" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7919,7 +7930,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7931,10 +7942,10 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G362" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7942,7 +7953,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7955,10 +7966,10 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G363" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7966,7 +7977,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7978,10 +7989,10 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G364" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7989,7 +8000,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B365">
         <v>5.7536703406069172E-11</v>
@@ -8001,10 +8012,10 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -8012,7 +8023,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B366">
         <v>1.5533182090707562E-11</v>
@@ -8024,10 +8035,10 @@
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G366" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H366" t="s">
         <v>24</v>
@@ -8035,7 +8046,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -8050,7 +8061,7 @@
         <v>18</v>
       </c>
       <c r="G367" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4338953-EC97-C646-914D-C343716134AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477C788-A3AF-E143-B14D-9DC6A835FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35460" yWindow="1620" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$366</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -493,9 +496,6 @@
     <t>air compressor, screw-type compressor, 300kW</t>
   </si>
   <si>
-    <t>heat exchanger, carbon dioxide capture process</t>
-  </si>
-  <si>
     <t>chemical factory construction, organics</t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>Hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
+    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
   </si>
 </sst>
 </file>
@@ -668,18 +668,15 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -690,8 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -701,10 +697,7 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1059,12 +1052,12 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1072,426 +1065,422 @@
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>2.42</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1.37</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
         <v>44</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <f>D12*C12</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.36968151224138407</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f>F12*$D$10/D12</f>
         <v>2.451039067463423</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <f>-$H$10*G12</f>
         <v>-3.35792352242489</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>3.16</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
         <f>I12+H12</f>
         <v>-0.19792352242488986</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <v>45.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <f t="shared" ref="E13:E15" si="0">D13*C13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <f t="shared" ref="F13:F15" si="1">E13/SUM($E$12:$E$15)</f>
         <v>9.0072463100905095E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
         <v>2.5345972174905853</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
         <v>-3.472398187962102</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>3.01</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
         <v>-0.46239818796210219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
         <v>43.4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>4.4701999999999993</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>0.10289852403620392</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>2.4176158074525582</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>-3.3121336562100052</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.14</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>-0.17213365621000509</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
         <v>42.6</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>18.999600000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>0.43734750062150696</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
         <v>2.3730514607714053</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <f t="shared" si="3"/>
         <v>-3.2510805012568254</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>3.14</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>-0.11108050125682523</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>2.42</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
         <v>1.37</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
         <v>44</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0.183</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <f>D21*C21</f>
         <v>8.0519999999999996</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <f>E21/SUM($E$21:$E$24)</f>
         <v>0.18519540737469639</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f>F21*$D$19/D21</f>
         <v>2.4490321630970779</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <f>-$H$19*G21</f>
         <v>-3.355174063442997</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>3.16</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
         <f>I21+H21</f>
         <v>-0.19517406344299681</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>45.5</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="5">D22*C22</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <f t="shared" ref="F22:F24" si="6">E22/SUM($E$21:$E$24)</f>
         <v>8.9998712004121587E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" ref="G22:G24" si="7">F22*$D$19/D22</f>
         <v>2.5325218959299334</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H24" si="8">-$H$19*G22</f>
         <v>-3.4695549974240092</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>3.01</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <f t="shared" ref="J22:J24" si="9">I22+H22</f>
         <v>-0.4595549974240094</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <v>43.4</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <f t="shared" si="5"/>
         <v>20.224399999999999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <f t="shared" si="6"/>
         <v>0.46515971148892321</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f t="shared" si="7"/>
         <v>2.4156362699639358</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <f t="shared" si="8"/>
         <v>-3.3094216898505922</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>3.14</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="12">
         <f t="shared" si="9"/>
         <v>-0.16942168985059203</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
         <v>42.6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="5"/>
         <v>11.289000000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <f t="shared" si="6"/>
         <v>0.2596461691322588</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f t="shared" si="7"/>
         <v>2.3711084124530801</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="8"/>
         <v>-3.2484185250607198</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>3.14</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f t="shared" si="9"/>
         <v>-0.10841852506071969</v>
       </c>
@@ -1500,223 +1489,223 @@
       <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <v>19</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <v>2.42</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
         <v>1.37</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20">
         <v>44</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0.4</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="23">
         <f t="shared" ref="F30:F33" si="10">E30*D30</f>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="24">
         <f>F30/SUM($F$30:$F$33)</f>
         <v>0.38761130550673545</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <f>G30*$D$28/D30</f>
         <v>2.5699160529487663</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <f>-$I$28*H30</f>
         <v>-3.5207849925398103</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="20">
         <v>3.16</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="26">
         <f>J30+I30</f>
         <v>-0.36078499253981011</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20">
         <v>45.5</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="23">
         <f t="shared" si="10"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="24">
         <f t="shared" ref="G31:G33" si="11">F31/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="26">
         <f t="shared" ref="H31:H33" si="12">G31*$D$28/D31</f>
         <v>1.773242076534649</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <f t="shared" ref="I31:I33" si="13">-$I$28*H31</f>
         <v>-2.4293416448524692</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="26">
         <v>3.01</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="26">
         <f t="shared" ref="K31:K33" si="14">J31+I31</f>
         <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
         <v>43.4</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="27">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="23">
         <v>0.71</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="23">
         <f t="shared" si="10"/>
         <v>7.3129999999999987E-2</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="24">
         <f t="shared" si="11"/>
         <v>0.19415078610758602</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <f t="shared" si="12"/>
         <v>4.5616009939840598</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <f t="shared" si="13"/>
         <v>-6.2493933617581625</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="26">
         <v>3.14</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="26">
         <f t="shared" si="14"/>
         <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
         <v>42.6</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="28">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="23">
         <v>0.3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="23">
         <f t="shared" si="10"/>
         <v>0.1338</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="24">
         <f t="shared" si="11"/>
         <v>0.35522186764932334</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="25">
         <f t="shared" si="12"/>
         <v>1.927437039711575</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="13"/>
         <v>-2.6405887444048579</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="20">
         <v>3.14</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="26">
         <f t="shared" si="14"/>
         <v>0.49941125559514221</v>
       </c>
@@ -1725,223 +1714,223 @@
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
         <v>19</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="21">
         <v>2.42</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <v>1.37</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
         <v>44</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="22">
         <v>0.183</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="23">
         <v>0.4</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="23">
         <f t="shared" ref="F39:F42" si="15">E39*D39</f>
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <f>F39/SUM($F$30:$F$33)</f>
         <v>0.19433662714447286</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="26">
         <f>G39*$D$37/D39</f>
         <v>2.5699160529487668</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="26">
         <f>-$I$28*H39</f>
         <v>-3.5207849925398107</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="20">
         <v>3.16</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="26">
         <f>J39+I39</f>
         <v>-0.36078499253981056</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
         <v>45.5</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="23">
         <f t="shared" si="15"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="24">
         <f t="shared" ref="G40:G42" si="16">F40/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="26">
         <f t="shared" ref="H40:H42" si="17">G40*$D$37/D40</f>
         <v>1.773242076534649</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="26">
         <f t="shared" ref="I40:I42" si="18">-$I$28*H40</f>
         <v>-2.4293416448524692</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="26">
         <v>3.01</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="26">
         <f t="shared" ref="K40:K42" si="19">J40+I40</f>
         <v>0.58065835514753061</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
         <v>43.4</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="27">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="23">
         <v>0.71</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="23">
         <f t="shared" si="15"/>
         <v>0.33085999999999999</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="24">
         <f t="shared" si="16"/>
         <v>0.87839093520519518</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="25">
         <f t="shared" si="17"/>
         <v>4.5616009939840598</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="26">
         <f t="shared" si="18"/>
         <v>-6.2493933617581625</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="26">
         <v>3.14</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="26">
         <f t="shared" si="19"/>
         <v>-3.1093933617581624</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20">
         <v>42.6</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="23">
         <v>0.3</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="23">
         <f t="shared" si="15"/>
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="24">
         <f t="shared" si="16"/>
         <v>0.21106232046428405</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="26">
         <f t="shared" si="17"/>
         <v>1.927437039711575</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="26">
         <f t="shared" si="18"/>
         <v>-2.6405887444048579</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="20">
         <v>3.14</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="26">
         <f t="shared" si="19"/>
         <v>0.49941125559514221</v>
       </c>
@@ -1953,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2003,7 +1992,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2064,56 +2053,48 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.00057</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2121,288 +2102,222 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="5">
         <f>(B12-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2432,7 +2347,7 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2493,56 +2408,48 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>100</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1.00057</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2550,288 +2457,222 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="5">
         <f>(B34-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2861,7 +2702,7 @@
       <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2922,56 +2763,48 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3">
+      <c r="I55">
         <v>100</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1.00057</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2979,288 +2812,222 @@
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="5">
         <f>(B56-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="34" t="s">
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3290,7 +3057,7 @@
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3351,56 +3118,48 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3">
+      <c r="I77">
         <v>100</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" t="s">
         <v>53</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>1.00057</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3408,301 +3167,225 @@
       <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>72</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3" t="s">
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="5">
         <f>(B78-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="34" t="s">
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="34" t="s">
+      <c r="F89" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -3732,7 +3415,7 @@
       <c r="A95" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3793,56 +3476,48 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3" t="s">
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
         <v>18</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3">
+      <c r="I100">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" t="s">
         <v>53</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>1.00057</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3" t="s">
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3850,288 +3525,222 @@
       <c r="A102" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C102" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>54</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3" t="s">
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>56</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3" t="s">
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>58</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3" t="s">
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>62</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>47</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" t="s">
         <v>65</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3" t="s">
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3" t="s">
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="5">
         <f>(B101-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="34" t="s">
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="34" t="s">
+      <c r="F112" t="s">
         <v>17</v>
       </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -4161,7 +3770,7 @@
       <c r="A117" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4222,56 +3831,48 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+      <c r="A122" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3" t="s">
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3">
+      <c r="I122">
         <v>100</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" t="s">
         <v>53</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K122" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+      <c r="A123" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>1.00057</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4279,288 +3880,222 @@
       <c r="A124" t="s">
         <v>34</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+      <c r="A125" t="s">
         <v>54</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3" t="s">
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+      <c r="A126" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+      <c r="A127" t="s">
         <v>58</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>60</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3" t="s">
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3" t="s">
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="K129" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+      <c r="A130" t="s">
         <v>47</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" t="s">
         <v>48</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+      <c r="A131" t="s">
         <v>64</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" t="s">
         <v>65</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3" t="s">
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>67</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D132" s="3" t="s">
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3" t="s">
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+      <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" t="s">
         <v>27</v>
       </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3" t="s">
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="K133" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="5">
         <f>(B123-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="34" t="s">
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" t="s">
         <v>17</v>
       </c>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
@@ -4590,7 +4125,7 @@
       <c r="A139" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4651,56 +4186,48 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+      <c r="A144" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3">
+      <c r="I144">
         <v>100</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" t="s">
         <v>53</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+      <c r="A145" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145">
         <v>1.00057</v>
       </c>
       <c r="C145" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4708,288 +4235,222 @@
       <c r="A146" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+      <c r="A147" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+      <c r="A148" t="s">
         <v>56</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+      <c r="A149" t="s">
         <v>58</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+      <c r="A150" t="s">
         <v>60</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3" t="s">
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+      <c r="A151" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" t="s">
         <v>48</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" t="s">
         <v>27</v>
       </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3" t="s">
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="K151" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+      <c r="A152" t="s">
         <v>47</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3" t="s">
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+      <c r="A153" t="s">
         <v>64</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" t="s">
         <v>65</v>
       </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3" t="s">
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+      <c r="A154" t="s">
         <v>67</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
         <v>65</v>
       </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3" t="s">
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="K154" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+      <c r="A155" t="s">
         <v>72</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" t="s">
         <v>48</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" t="s">
         <v>27</v>
       </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3" t="s">
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" s="35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5">
         <f>(B145-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="34" t="s">
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F156" t="s">
         <v>17</v>
       </c>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
@@ -5019,7 +4480,7 @@
       <c r="A161" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5080,56 +4541,48 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+      <c r="A166" t="s">
         <v>139</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
         <v>18</v>
       </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3">
+      <c r="I166">
         <v>100</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" t="s">
         <v>53</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+      <c r="A167" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167">
         <v>1.00057</v>
       </c>
       <c r="C167" t="s">
         <v>25</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5137,301 +4590,225 @@
       <c r="A168" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C168" t="s">
         <v>25</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+      <c r="A169" t="s">
         <v>54</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" t="s">
         <v>48</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+      <c r="A170" t="s">
         <v>56</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" t="s">
         <v>19</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>15</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+      <c r="A171" t="s">
         <v>58</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3" t="s">
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+      <c r="A172" t="s">
         <v>60</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" t="s">
         <v>19</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3" t="s">
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+      <c r="A173" t="s">
         <v>62</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" t="s">
         <v>48</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" t="s">
         <v>27</v>
       </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3" t="s">
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+      <c r="A174" t="s">
         <v>47</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" t="s">
         <v>48</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3" t="s">
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+      <c r="A175" t="s">
         <v>64</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" t="s">
         <v>65</v>
       </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3" t="s">
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+      <c r="A176" t="s">
         <v>67</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" t="s">
         <v>65</v>
       </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3" t="s">
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+      <c r="A177" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" t="s">
         <v>48</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3" t="s">
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="K177" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B178" s="35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" s="5">
         <f>(B167-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" s="34" t="s">
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
         <v>16</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="F178" t="s">
         <v>17</v>
       </c>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="34"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
@@ -5453,7 +4830,7 @@
       <c r="A183" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5493,7 +4870,7 @@
       <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5532,10 +4909,10 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+      <c r="A191" t="s">
         <v>129</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
@@ -5545,13 +4922,13 @@
         <v>13</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="3" t="s">
+      <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H191" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5559,7 +4936,7 @@
       <c r="A192" t="s">
         <v>121</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="C192" t="s">
@@ -5580,9 +4957,9 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>155</v>
-      </c>
-      <c r="B193" s="5">
+        <v>154</v>
+      </c>
+      <c r="B193" s="4">
         <v>0.11</v>
       </c>
       <c r="D193" t="s">
@@ -5605,7 +4982,7 @@
       <c r="A194" t="s">
         <v>34</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <f>18.4/1000*B192</f>
         <v>4.3663200000000006E-2</v>
       </c>
@@ -5626,10 +5003,10 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <f>0.01*B192</f>
         <v>2.3730000000000001E-2</v>
       </c>
@@ -5645,15 +5022,15 @@
       <c r="G195" t="s">
         <v>24</v>
       </c>
-      <c r="H195" s="36" t="s">
-        <v>158</v>
+      <c r="H195" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I195" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B196" s="5"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
@@ -5675,7 +5052,7 @@
       <c r="A199" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5715,7 +5092,7 @@
       <c r="A204" t="s">
         <v>22</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5754,10 +5131,10 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+      <c r="A207" t="s">
         <v>125</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="s">
@@ -5767,13 +5144,13 @@
         <v>13</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="3" t="s">
+      <c r="F207" t="s">
         <v>18</v>
       </c>
       <c r="G207" t="s">
         <v>46</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H207" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5781,7 +5158,7 @@
       <c r="A208" t="s">
         <v>121</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>1.93</v>
       </c>
       <c r="C208" t="s">
@@ -5802,16 +5179,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>157</v>
-      </c>
-      <c r="B209" s="5">
+        <v>156</v>
+      </c>
+      <c r="B209" s="4">
         <v>0.5</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5827,7 +5204,7 @@
       <c r="A210" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <f>18.4/1000*B208</f>
         <v>3.5511999999999995E-2</v>
       </c>
@@ -5848,10 +5225,10 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <f>0.01*B208</f>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -5867,15 +5244,15 @@
       <c r="G211" t="s">
         <v>24</v>
       </c>
-      <c r="H211" s="36" t="s">
-        <v>158</v>
+      <c r="H211" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I211" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="5"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
@@ -5897,7 +5274,7 @@
       <c r="A215" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5937,7 +5314,7 @@
       <c r="A220" t="s">
         <v>22</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5976,10 +5353,10 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+      <c r="A223" t="s">
         <v>130</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223">
         <v>1</v>
       </c>
       <c r="C223" t="s">
@@ -5989,13 +5366,13 @@
         <v>13</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="3" t="s">
+      <c r="F223" t="s">
         <v>18</v>
       </c>
       <c r="G223" t="s">
         <v>46</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H223" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6003,7 +5380,7 @@
       <c r="A224" t="s">
         <v>121</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>2.4510000000000001</v>
       </c>
       <c r="C224" t="s">
@@ -6024,9 +5401,9 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>155</v>
-      </c>
-      <c r="B225" s="5">
+        <v>154</v>
+      </c>
+      <c r="B225" s="4">
         <v>0.2</v>
       </c>
       <c r="D225" t="s">
@@ -6049,7 +5426,7 @@
       <c r="A226" t="s">
         <v>34</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <f>18.4/1000*B224</f>
         <v>4.5098400000000004E-2</v>
       </c>
@@ -6070,10 +5447,10 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <f>0.01*B224</f>
         <v>2.4510000000000001E-2</v>
       </c>
@@ -6089,15 +5466,15 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-      <c r="H227" s="36" t="s">
-        <v>158</v>
+      <c r="H227" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I227" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="5"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
@@ -6119,7 +5496,7 @@
       <c r="A231" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6159,7 +5536,7 @@
       <c r="A236" t="s">
         <v>22</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6198,10 +5575,10 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+      <c r="A239" t="s">
         <v>126</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239">
         <v>1</v>
       </c>
       <c r="C239" t="s">
@@ -6211,13 +5588,13 @@
         <v>13</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239" s="3" t="s">
+      <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="H239" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6225,7 +5602,7 @@
       <c r="A240" t="s">
         <v>121</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>2.57</v>
       </c>
       <c r="C240" t="s">
@@ -6246,9 +5623,9 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>155</v>
-      </c>
-      <c r="B241" s="5">
+        <v>154</v>
+      </c>
+      <c r="B241" s="4">
         <v>0.36</v>
       </c>
       <c r="D241" t="s">
@@ -6271,7 +5648,7 @@
       <c r="A242" t="s">
         <v>34</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <f>18.4/1000*B240</f>
         <v>4.7287999999999997E-2</v>
       </c>
@@ -6292,10 +5669,10 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <f>0.01*B240</f>
         <v>2.5700000000000001E-2</v>
       </c>
@@ -6311,18 +5688,18 @@
       <c r="G243" t="s">
         <v>24</v>
       </c>
-      <c r="H243" s="36" t="s">
-        <v>158</v>
+      <c r="H243" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I243" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B244" s="5"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B245" s="5"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
@@ -6344,7 +5721,7 @@
       <c r="A248" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6384,7 +5761,7 @@
       <c r="A253" t="s">
         <v>22</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6423,10 +5800,10 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+      <c r="A256" t="s">
         <v>131</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256">
         <v>1</v>
       </c>
       <c r="C256" t="s">
@@ -6436,13 +5813,13 @@
         <v>13</v>
       </c>
       <c r="E256" s="2"/>
-      <c r="F256" s="3" t="s">
+      <c r="F256" t="s">
         <v>18</v>
       </c>
       <c r="G256" t="s">
         <v>46</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H256" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6450,7 +5827,7 @@
       <c r="A257" t="s">
         <v>121</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="4">
         <v>2.371</v>
       </c>
       <c r="C257" t="s">
@@ -6471,9 +5848,9 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>155</v>
-      </c>
-      <c r="B258" s="5">
+        <v>154</v>
+      </c>
+      <c r="B258" s="4">
         <v>0.11</v>
       </c>
       <c r="D258" t="s">
@@ -6496,7 +5873,7 @@
       <c r="A259" t="s">
         <v>34</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="4">
         <f>18.4/1000*B257</f>
         <v>4.3626399999999996E-2</v>
       </c>
@@ -6517,10 +5894,10 @@
       </c>
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <f>0.01*B257</f>
         <v>2.3710000000000002E-2</v>
       </c>
@@ -6536,15 +5913,15 @@
       <c r="G260" t="s">
         <v>24</v>
       </c>
-      <c r="H260" s="36" t="s">
-        <v>158</v>
+      <c r="H260" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I260" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B261" s="5"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
@@ -6566,7 +5943,7 @@
       <c r="A264" t="s">
         <v>2</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6606,7 +5983,7 @@
       <c r="A269" t="s">
         <v>22</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6645,10 +6022,10 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+      <c r="A272" t="s">
         <v>127</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272">
         <v>1</v>
       </c>
       <c r="C272" t="s">
@@ -6658,13 +6035,13 @@
         <v>13</v>
       </c>
       <c r="E272" s="2"/>
-      <c r="F272" s="3" t="s">
+      <c r="F272" t="s">
         <v>18</v>
       </c>
       <c r="G272" t="s">
         <v>46</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="H272" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6672,7 +6049,7 @@
       <c r="A273" t="s">
         <v>121</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>4.5599999999999996</v>
       </c>
       <c r="C273" t="s">
@@ -6693,9 +6070,9 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>155</v>
-      </c>
-      <c r="B274" s="5">
+        <v>154</v>
+      </c>
+      <c r="B274" s="4">
         <v>3.11</v>
       </c>
       <c r="D274" t="s">
@@ -6718,7 +6095,7 @@
       <c r="A275" t="s">
         <v>34</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <f>18.4/1000*B273</f>
         <v>8.3903999999999992E-2</v>
       </c>
@@ -6739,10 +6116,10 @@
       </c>
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <f>0.01*B273</f>
         <v>4.5599999999999995E-2</v>
       </c>
@@ -6758,18 +6135,18 @@
       <c r="G276" t="s">
         <v>24</v>
       </c>
-      <c r="H276" s="36" t="s">
-        <v>158</v>
+      <c r="H276" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I276" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B277" s="5"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B278" s="5"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
@@ -6791,7 +6168,7 @@
       <c r="A281" t="s">
         <v>2</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6831,7 +6208,7 @@
       <c r="A286" t="s">
         <v>22</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6870,10 +6247,10 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+      <c r="A289" t="s">
         <v>128</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289">
         <v>1</v>
       </c>
       <c r="C289" t="s">
@@ -6883,13 +6260,13 @@
         <v>13</v>
       </c>
       <c r="E289" s="2"/>
-      <c r="F289" s="3" t="s">
+      <c r="F289" t="s">
         <v>18</v>
       </c>
       <c r="G289" t="s">
         <v>46</v>
       </c>
-      <c r="H289" s="3" t="s">
+      <c r="H289" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6897,7 +6274,7 @@
       <c r="A290" t="s">
         <v>121</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="4">
         <v>2.5350000000000001</v>
       </c>
       <c r="C290" t="s">
@@ -6918,9 +6295,9 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>155</v>
-      </c>
-      <c r="B291" s="5">
+        <v>154</v>
+      </c>
+      <c r="B291" s="4">
         <v>0.46</v>
       </c>
       <c r="D291" t="s">
@@ -6943,7 +6320,7 @@
       <c r="A292" t="s">
         <v>34</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <f>18.4/1000*B290</f>
         <v>4.6644000000000005E-2</v>
       </c>
@@ -6964,10 +6341,10 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <f>0.01*B290</f>
         <v>2.5350000000000001E-2</v>
       </c>
@@ -6983,15 +6360,15 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="36" t="s">
-        <v>158</v>
+      <c r="H293" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I293" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B294" s="5"/>
+      <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
@@ -7013,7 +6390,7 @@
       <c r="A297" t="s">
         <v>2</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7053,7 +6430,7 @@
       <c r="A302" t="s">
         <v>22</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7092,10 +6469,10 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+      <c r="A305" t="s">
         <v>124</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305">
         <v>1</v>
       </c>
       <c r="C305" t="s">
@@ -7105,13 +6482,13 @@
         <v>13</v>
       </c>
       <c r="E305" s="2"/>
-      <c r="F305" s="3" t="s">
+      <c r="F305" t="s">
         <v>18</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="H305" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7119,7 +6496,7 @@
       <c r="A306" t="s">
         <v>121</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="4">
         <v>1.77</v>
       </c>
       <c r="C306" t="s">
@@ -7140,16 +6517,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>157</v>
-      </c>
-      <c r="B307" s="5">
+        <v>156</v>
+      </c>
+      <c r="B307" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="D307" t="s">
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -7165,7 +6542,7 @@
       <c r="A308" t="s">
         <v>34</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="4">
         <f>18.4/1000*B306</f>
         <v>3.2568E-2</v>
       </c>
@@ -7186,10 +6563,10 @@
       </c>
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="4">
         <f>0.01*B306</f>
         <v>1.77E-2</v>
       </c>
@@ -7205,15 +6582,15 @@
       <c r="G309" t="s">
         <v>24</v>
       </c>
-      <c r="H309" s="36" t="s">
-        <v>158</v>
+      <c r="H309" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="I309" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B310" s="5"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
@@ -7283,7 +6660,7 @@
       <c r="A319" t="s">
         <v>28</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7291,7 +6668,7 @@
       <c r="A320" t="s">
         <v>22</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7397,7 +6774,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -7510,24 +6887,24 @@
       <c r="A336" t="s">
         <v>28</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -7553,7 +6930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>116</v>
       </c>
@@ -7577,7 +6954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -7600,11 +6977,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>47</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
@@ -7624,11 +7001,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343" s="4">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7648,11 +7025,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="4">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7672,11 +7049,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="4">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7696,11 +7073,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="4">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7720,11 +7097,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A347" s="4" t="s">
+    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7737,18 +7114,18 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="36" t="s">
-        <v>158</v>
+      <c r="G347" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="H347" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B348" s="5">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>158</v>
+      </c>
+      <c r="B348" s="4">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
@@ -7761,41 +7138,38 @@
       <c r="F348" t="s">
         <v>14</v>
       </c>
-      <c r="G348" s="36" t="s">
-        <v>159</v>
+      <c r="G348" t="s">
+        <v>42</v>
       </c>
       <c r="H348" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>72</v>
       </c>
-      <c r="B349" s="6">
+      <c r="B349" s="5">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" t="s">
         <v>48</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" t="s">
         <v>27</v>
       </c>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G349" s="3" t="s">
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s">
         <v>69</v>
       </c>
       <c r="H349" t="s">
         <v>24</v>
       </c>
-      <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-    </row>
-    <row r="351" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7803,7 +7177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -8003,10 +7377,10 @@
         <v>152</v>
       </c>
       <c r="B365">
-        <v>5.7536703406069172E-11</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
@@ -8015,59 +7389,37 @@
         <v>142</v>
       </c>
       <c r="G365" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H365" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B366">
-        <v>1.5533182090707562E-11</v>
+        <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D366" t="s">
         <v>6</v>
       </c>
       <c r="F366" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="G366" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="H366" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>116</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" t="s">
-        <v>25</v>
-      </c>
-      <c r="D367" t="s">
-        <v>6</v>
-      </c>
-      <c r="F367" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" t="s">
-        <v>116</v>
-      </c>
-      <c r="H367" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477C788-A3AF-E143-B14D-9DC6A835FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53FABE-3A4B-A041-9D08-0BF8BC9776FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35460" yWindow="1620" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,6 +1936,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AB74FF8B-6007-0D49-AD0D-0F84D80538E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1944,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F53FABE-3A4B-A041-9D08-0BF8BC9776FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B9395-0F01-A54D-8284-9C66C2EB5B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$366</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -460,9 +460,6 @@
     <t>gasoline production, synthetic, from methanol, hydrogen from electrolysis, CO2 from DAC, energy allocation, at fuelling station</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
     <t>market for aluminium, cast alloy</t>
   </si>
   <si>
@@ -511,10 +508,13 @@
     <t>Carbon dioxide, in air</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 200 bar</t>
   </si>
 </sst>
 </file>
@@ -1945,10 +1945,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1967,7 +1968,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2015,12 +2017,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2301,9 +2303,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="5">
         <f>(B12-1)*3.14</f>
@@ -2319,10 +2321,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2370,12 +2372,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -2436,7 +2438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2656,9 +2658,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="5">
         <f>(B34-1)*3.14</f>
@@ -2674,10 +2676,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2725,12 +2727,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3011,9 +3013,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="5">
         <f>(B56-1)*3.14</f>
@@ -3029,10 +3031,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -3080,12 +3082,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -3306,7 +3308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -3366,9 +3368,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89" s="5">
         <f>(B78-1)*3.14</f>
@@ -3384,13 +3386,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -3422,7 +3424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -3438,12 +3440,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>67</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -3724,9 +3726,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="5">
         <f>(B101-1)*3.14</f>
@@ -3742,10 +3744,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -3793,12 +3795,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>56</v>
       </c>
@@ -3939,7 +3941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>60</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -4079,9 +4081,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" s="5">
         <f>(B123-1)*3.14</f>
@@ -4097,10 +4099,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -4116,7 +4118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4148,12 +4150,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>130</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>34</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -4274,7 +4276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>56</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>60</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>64</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4434,9 +4436,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="5">
         <f>(B145-1)*3.14</f>
@@ -4452,10 +4454,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -4503,12 +4505,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>139</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>131</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>54</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>58</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>60</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>64</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>67</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>72</v>
       </c>
@@ -4789,9 +4791,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B178" s="5">
         <f>(B167-1)*3.14</f>
@@ -4807,13 +4809,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -4877,12 +4879,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>129</v>
       </c>
@@ -4935,7 +4937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>121</v>
       </c>
@@ -4958,9 +4960,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B193" s="4">
         <v>0.11</v>
@@ -4981,7 +4983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -5006,8 +5008,8 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>140</v>
+      <c r="A195" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B195" s="4">
         <f>0.01*B192</f>
@@ -5026,16 +5028,16 @@
         <v>24</v>
       </c>
       <c r="H195" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I195" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -5099,12 +5101,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>125</v>
       </c>
@@ -5157,7 +5159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>121</v>
       </c>
@@ -5180,9 +5182,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B209" s="4">
         <v>0.5</v>
@@ -5191,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5203,7 +5205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -5228,8 +5230,8 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>140</v>
+      <c r="A211" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B211" s="4">
         <f>0.01*B208</f>
@@ -5248,16 +5250,16 @@
         <v>24</v>
       </c>
       <c r="H211" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I211" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -5321,12 +5323,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>121</v>
       </c>
@@ -5402,9 +5404,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B225" s="4">
         <v>0.2</v>
@@ -5425,7 +5427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -5450,8 +5452,8 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
-        <v>140</v>
+      <c r="A227" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B227" s="4">
         <f>0.01*B224</f>
@@ -5470,16 +5472,16 @@
         <v>24</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I227" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -5543,12 +5545,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>9</v>
       </c>
@@ -5577,7 +5579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>126</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>121</v>
       </c>
@@ -5624,9 +5626,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B241" s="4">
         <v>0.36</v>
@@ -5647,7 +5649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>34</v>
       </c>
@@ -5672,8 +5674,8 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>140</v>
+      <c r="A243" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B243" s="4">
         <f>0.01*B240</f>
@@ -5692,19 +5694,19 @@
         <v>24</v>
       </c>
       <c r="H243" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I243" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -5768,12 +5770,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>131</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>121</v>
       </c>
@@ -5849,9 +5851,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B258" s="4">
         <v>0.11</v>
@@ -5872,7 +5874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>34</v>
       </c>
@@ -5897,8 +5899,8 @@
       </c>
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>140</v>
+      <c r="A260" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B260" s="4">
         <f>0.01*B257</f>
@@ -5917,16 +5919,16 @@
         <v>24</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I260" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>22</v>
       </c>
@@ -5990,12 +5992,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>127</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>121</v>
       </c>
@@ -6071,9 +6073,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B274" s="4">
         <v>3.11</v>
@@ -6094,7 +6096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>34</v>
       </c>
@@ -6119,8 +6121,8 @@
       </c>
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
-        <v>140</v>
+      <c r="A276" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B276" s="4">
         <f>0.01*B273</f>
@@ -6139,19 +6141,19 @@
         <v>24</v>
       </c>
       <c r="H276" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I276" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -6191,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>28</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6215,12 +6217,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>128</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>121</v>
       </c>
@@ -6296,9 +6298,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B291" s="4">
         <v>0.46</v>
@@ -6319,7 +6321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>34</v>
       </c>
@@ -6344,8 +6346,8 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
-        <v>140</v>
+      <c r="A293" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B293" s="4">
         <f>0.01*B290</f>
@@ -6364,16 +6366,16 @@
         <v>24</v>
       </c>
       <c r="H293" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I293" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6389,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>22</v>
       </c>
@@ -6437,12 +6439,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>9</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>124</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>121</v>
       </c>
@@ -6518,9 +6520,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B307" s="4">
         <v>0.57999999999999996</v>
@@ -6529,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -6541,7 +6543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -6566,8 +6568,8 @@
       </c>
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
-        <v>140</v>
+      <c r="A309" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B309" s="4">
         <f>0.01*B306</f>
@@ -6586,16 +6588,16 @@
         <v>24</v>
       </c>
       <c r="H309" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I309" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -6619,7 +6621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -6675,12 +6677,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>9</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>117</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>121</v>
       </c>
@@ -6752,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>30</v>
       </c>
@@ -6775,9 +6777,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -6795,7 +6797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>116</v>
       </c>
@@ -6838,7 +6840,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>4</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
@@ -6902,12 +6905,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -6933,7 +6936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>116</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>117</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>47</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>37</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -7101,8 +7104,8 @@
       </c>
     </row>
     <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
-        <v>140</v>
+      <c r="A347" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="B347" s="4">
         <f>6240000/44900000</f>
@@ -7118,15 +7121,15 @@
         <v>14</v>
       </c>
       <c r="G347" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H347" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B348" s="4">
         <f>75900000/44900000</f>
@@ -7148,7 +7151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>72</v>
       </c>
@@ -7172,7 +7175,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>22</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -7228,12 +7232,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -7259,9 +7263,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B360">
         <v>7.2924747866563216E-6</v>
@@ -7273,18 +7277,18 @@
         <v>13</v>
       </c>
       <c r="F360" t="s">
+        <v>141</v>
+      </c>
+      <c r="G360" t="s">
         <v>142</v>
-      </c>
-      <c r="G360" t="s">
-        <v>143</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B361">
         <v>7.4243599689681927E-4</v>
@@ -7296,18 +7300,18 @@
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G361" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B362">
         <v>4.1349883630721488E-7</v>
@@ -7319,18 +7323,18 @@
         <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G362" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B363">
         <f>0.00273079906904577/2300</f>
@@ -7343,18 +7347,18 @@
         <v>27</v>
       </c>
       <c r="F363" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G363" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B364">
         <v>1.3045108429904572E-9</v>
@@ -7366,18 +7370,18 @@
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G364" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B365">
         <v>1.5533182090707562E-11</v>
@@ -7389,16 +7393,16 @@
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H365" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>116</v>
       </c>
@@ -7422,7 +7426,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 25 bar, from electrolysis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-electrolysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B64C49-E8DD-2641-B179-6D710AA59333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC3117-8020-E243-AC43-F28F25374CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,9 +272,6 @@
     <t>Methanol-based fuels from electrolysis</t>
   </si>
   <si>
-    <t>https://www.fvv-net.de/fileadmin/user_upload/medien/materialien/FVV-Kraftstoffstudie_LBST_2013-10-30.pdf</t>
-  </si>
-  <si>
     <t>liquefied petroleum gas, synthetic</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t>Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
-  </si>
-  <si>
-    <t>source for MTO</t>
   </si>
   <si>
     <t>Methanol-to-Olefins (MTO)</t>
@@ -515,6 +509,12 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>https://www.ufop.de/files/8913/8384/3541/20131107_FVV-Kraftstoffstudie_LBST.pdf</t>
+  </si>
+  <si>
+    <t>source for methanol-to-olefins</t>
   </si>
 </sst>
 </file>
@@ -668,14 +668,13 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -719,9 +718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +758,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,7 +1017,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,900 +1036,900 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>158</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2.42</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <v>1.37</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
         <v>44</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f>D12*C12</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.36968151224138407</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>F12*$D$10/D12</f>
         <v>2.451039067463423</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f>-$H$10*G12</f>
         <v>-3.35792352242489</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>3.16</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f>I12+H12</f>
         <v>-0.19792352242488986</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
         <v>45.5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" ref="E13:E15" si="0">D13*C13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" ref="F13:F15" si="1">E13/SUM($E$12:$E$15)</f>
         <v>9.0072463100905095E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
         <v>2.5345972174905853</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
         <v>-3.472398187962102</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>3.01</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
         <v>-0.46239818796210219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
+      <c r="A14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
         <v>43.4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>4.4701999999999993</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>0.10289852403620392</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <f t="shared" si="2"/>
         <v>2.4176158074525582</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <f t="shared" si="3"/>
         <v>-3.3121336562100052</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>3.14</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <f t="shared" si="4"/>
         <v>-0.17213365621000509</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
+      <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>42.6</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>18.999600000000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>0.43734750062150696</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f t="shared" si="2"/>
         <v>2.3730514607714053</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f t="shared" si="3"/>
         <v>-3.2510805012568254</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>3.14</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f t="shared" si="4"/>
         <v>-0.11108050125682523</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.42</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="